--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="71">
   <si>
     <t>stock</t>
   </si>
@@ -300,7 +300,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10710">
+  <cellXfs count="10812">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -32427,6 +32427,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -32742,410 +33048,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10608" t="s">
+      <c r="A1" s="10710" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10609" t="s">
+      <c r="B1" s="10711" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="10610" t="s">
+      <c r="A2" s="10712" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10660" t="n">
+      <c r="B2" s="10762" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="10611" t="s">
+      <c r="A3" s="10713" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="10661" t="n">
+      <c r="B3" s="10763" t="n">
         <v>1.11</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="10612" t="s">
+      <c r="A4" s="10714" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10662" t="n">
+      <c r="B4" s="10764" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="10613" t="s">
+      <c r="A5" s="10715" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10663" t="n">
+      <c r="B5" s="10765" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="10614" t="s">
+      <c r="A6" s="10716" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10664" t="n">
+      <c r="B6" s="10766" t="n">
         <v>1.21</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="10615" t="s">
+      <c r="A7" s="10717" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10665" t="n">
+      <c r="B7" s="10767" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="10616" t="s">
+      <c r="A8" s="10718" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10666" t="n">
+      <c r="B8" s="10768" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="10617" t="s">
+      <c r="A9" s="10719" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10667" t="n">
+      <c r="B9" s="10769" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="10618" t="s">
+      <c r="A10" s="10720" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10668" t="n">
+      <c r="B10" s="10770" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="10619" t="s">
+      <c r="A11" s="10721" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10669" t="n">
+      <c r="B11" s="10771" t="n">
         <v>3.02</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="10620" t="s">
+      <c r="A12" s="10722" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="10670" t="n">
+      <c r="B12" s="10772" t="n">
         <v>1.36</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="10621" t="s">
+      <c r="A13" s="10723" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10671" t="n">
+      <c r="B13" s="10773" t="n">
         <v>5.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="10622" t="s">
+      <c r="A14" s="10724" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="10672" t="n">
+      <c r="B14" s="10774" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="10623" t="s">
+      <c r="A15" s="10725" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10673" t="n">
+      <c r="B15" s="10775" t="n">
         <v>2.75</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10624" t="s">
+      <c r="A16" s="10726" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10674" t="n">
+      <c r="B16" s="10776" t="n">
         <v>3.43</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="10625" t="s">
+      <c r="A17" s="10727" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10675" t="n">
+      <c r="B17" s="10777" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="10626" t="s">
+      <c r="A18" s="10728" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="10676" t="n">
+      <c r="B18" s="10778" t="n">
         <v>1.42</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="10627" t="s">
+      <c r="A19" s="10729" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10677" t="n">
+      <c r="B19" s="10779" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="10628" t="s">
+      <c r="A20" s="10730" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="10678" t="n">
+      <c r="B20" s="10780" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="10629" t="s">
+      <c r="A21" s="10731" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10679" t="n">
+      <c r="B21" s="10781" t="n">
         <v>1.42</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10630" t="s">
+      <c r="A22" s="10732" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10680" t="n">
+      <c r="B22" s="10782" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="10631" t="s">
+      <c r="A23" s="10733" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10681" t="n">
+      <c r="B23" s="10783" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="10632" t="s">
+      <c r="A24" s="10734" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="10682" t="n">
+      <c r="B24" s="10784" t="n">
         <v>3.16</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10633" t="s">
+      <c r="A25" s="10735" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10683" t="n">
+      <c r="B25" s="10785" t="n">
         <v>1.62</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10634" t="s">
+      <c r="A26" s="10736" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10684" t="n">
+      <c r="B26" s="10786" t="n">
         <v>1.38</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="10635" t="s">
+      <c r="A27" s="10737" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10685" t="n">
+      <c r="B27" s="10787" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="10636" t="s">
+      <c r="A28" s="10738" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10686" t="n">
+      <c r="B28" s="10788" t="n">
         <v>10.72</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="10637" t="s">
+      <c r="A29" s="10739" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="10687" t="n">
+      <c r="B29" s="10789" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="10638" t="s">
+      <c r="A30" s="10740" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10688" t="n">
+      <c r="B30" s="10790" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="10639" t="s">
+      <c r="A31" s="10741" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="10689" t="n">
+      <c r="B31" s="10791" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="10640" t="s">
+      <c r="A32" s="10742" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10690" t="n">
+      <c r="B32" s="10792" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="10641" t="s">
+      <c r="A33" s="10743" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="10691" t="n">
+      <c r="B33" s="10793" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="10642" t="s">
+      <c r="A34" s="10744" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="10692" t="n">
+      <c r="B34" s="10794" t="n">
         <v>6.14</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="10643" t="s">
+      <c r="A35" s="10745" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10693" t="n">
+      <c r="B35" s="10795" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="10644" t="s">
+      <c r="A36" s="10746" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="10694" t="n">
+      <c r="B36" s="10796" t="n">
         <v>1.78</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="10645" t="s">
+      <c r="A37" s="10747" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="10695" t="n">
+      <c r="B37" s="10797" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="10646" t="s">
+      <c r="A38" s="10748" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="10696" t="n">
+      <c r="B38" s="10798" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="10647" t="s">
+      <c r="A39" s="10749" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="10697" t="n">
+      <c r="B39" s="10799" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="10648" t="s">
+      <c r="A40" s="10750" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="10698" t="n">
+      <c r="B40" s="10800" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="10649" t="s">
+      <c r="A41" s="10751" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="10699" t="n">
+      <c r="B41" s="10801" t="n">
         <v>4.24</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="10650" t="s">
+      <c r="A42" s="10752" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="10700" t="n">
+      <c r="B42" s="10802" t="n">
         <v>4.62</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="10651" t="s">
+      <c r="A43" s="10753" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="10701" t="n">
+      <c r="B43" s="10803" t="n">
         <v>1.61</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="10652" t="s">
+      <c r="A44" s="10754" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="10702" t="n">
+      <c r="B44" s="10804" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="10653" t="s">
+      <c r="A45" s="10755" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="10703" t="n">
+      <c r="B45" s="10805" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="10654" t="s">
+      <c r="A46" s="10756" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="10704" t="n">
+      <c r="B46" s="10806" t="n">
         <v>2.22</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="10655" t="s">
+      <c r="A47" s="10757" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10705" t="n">
+      <c r="B47" s="10807" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="10656" t="s">
+      <c r="A48" s="10758" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="10706" t="n">
+      <c r="B48" s="10808" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="10657" t="s">
+      <c r="A49" s="10759" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="10707" t="n">
+      <c r="B49" s="10809" t="n">
         <v>1.75</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="10658" t="s">
+      <c r="A50" s="10760" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="10708" t="n">
+      <c r="B50" s="10810" t="n">
         <v>1.41</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="10659" t="s">
+      <c r="A51" s="10761" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="10709" t="n">
+      <c r="B51" s="10811" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -229,6 +229,15 @@
   <si>
     <t>CHINA UNITED NETWORK COMMUNICATIONS</t>
   </si>
+  <si>
+    <t>JIANGSU HENGRUI MEDICINE</t>
+  </si>
+  <si>
+    <t>BAOSHAN IRON &amp; STEEL</t>
+  </si>
+  <si>
+    <t>BOE TECHNOLOGY GROUP</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10812">
+  <cellXfs count="11220">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20445,6 +20454,1230 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -33048,411 +34281,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10710" t="s">
+      <c r="A1" s="11118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10711" t="s">
+      <c r="B1" s="11119" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="10712" t="s">
+      <c r="A2" s="11120" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10762" t="n">
-        <v>3.04</v>
+      <c r="B2" s="11170" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="10713" t="s">
-        <v>50</v>
+      <c r="A3" s="11121" t="s">
+        <v>45</v>
       </c>
-      <c r="B3" s="10763" t="n">
-        <v>1.11</v>
+      <c r="B3" s="11171" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="10714" t="s">
+      <c r="A4" s="11122" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10764" t="n">
-        <v>2.71</v>
+      <c r="B4" s="11172" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="10715" t="s">
+      <c r="A5" s="11123" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10765" t="n">
-        <v>2.4</v>
+      <c r="B5" s="11173" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="10716" t="s">
-        <v>3</v>
+      <c r="A6" s="11124" t="s">
+        <v>48</v>
       </c>
-      <c r="B6" s="10766" t="n">
-        <v>1.21</v>
+      <c r="B6" s="11174" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="10717" t="s">
+      <c r="A7" s="11125" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10767" t="n">
-        <v>5.4</v>
+      <c r="B7" s="11175" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="10718" t="s">
+      <c r="A8" s="11126" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10768" t="n">
-        <v>1.9</v>
+      <c r="B8" s="11176" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="10719" t="s">
-        <v>6</v>
+      <c r="A9" s="11127" t="s">
+        <v>50</v>
       </c>
-      <c r="B9" s="10769" t="n">
-        <v>1.1</v>
+      <c r="B9" s="11177" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="10720" t="s">
-        <v>7</v>
+      <c r="A10" s="11128" t="s">
+        <v>71</v>
       </c>
-      <c r="B10" s="10770" t="n">
-        <v>0.77</v>
+      <c r="B10" s="11178" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="10721" t="s">
+      <c r="A11" s="11129" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10771" t="n">
-        <v>3.02</v>
+      <c r="B11" s="11179" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="10722" t="s">
-        <v>9</v>
+      <c r="A12" s="11130" t="s">
+        <v>3</v>
       </c>
-      <c r="B12" s="10772" t="n">
-        <v>1.36</v>
+      <c r="B12" s="11180" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="10723" t="s">
-        <v>10</v>
+      <c r="A13" s="11131" t="s">
+        <v>7</v>
       </c>
-      <c r="B13" s="10773" t="n">
-        <v>5.22</v>
+      <c r="B13" s="11181" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="10724" t="s">
+      <c r="A14" s="11132" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="10774" t="n">
+      <c r="B14" s="11182" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="10725" t="s">
-        <v>12</v>
+      <c r="A15" s="11133" t="s">
+        <v>6</v>
       </c>
-      <c r="B15" s="10775" t="n">
-        <v>2.75</v>
+      <c r="B15" s="11183" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10726" t="s">
-        <v>13</v>
+      <c r="A16" s="11134" t="s">
+        <v>10</v>
       </c>
-      <c r="B16" s="10776" t="n">
-        <v>3.43</v>
+      <c r="B16" s="11184" t="n">
+        <v>4.88</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="10727" t="s">
-        <v>14</v>
+      <c r="A17" s="11135" t="s">
+        <v>72</v>
       </c>
-      <c r="B17" s="10777" t="n">
-        <v>0.69</v>
+      <c r="B17" s="11185" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="10728" t="s">
-        <v>70</v>
+      <c r="A18" s="11136" t="s">
+        <v>9</v>
       </c>
-      <c r="B18" s="10778" t="n">
-        <v>1.42</v>
+      <c r="B18" s="11186" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="10729" t="s">
-        <v>16</v>
+      <c r="A19" s="11137" t="s">
+        <v>13</v>
       </c>
-      <c r="B19" s="10779" t="n">
-        <v>0.69</v>
+      <c r="B19" s="11187" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="10730" t="s">
-        <v>17</v>
+      <c r="A20" s="11138" t="s">
+        <v>73</v>
       </c>
-      <c r="B20" s="10780" t="n">
-        <v>0.42</v>
+      <c r="B20" s="11188" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="10731" t="s">
-        <v>15</v>
+      <c r="A21" s="11139" t="s">
+        <v>12</v>
       </c>
-      <c r="B21" s="10781" t="n">
-        <v>1.42</v>
+      <c r="B21" s="11189" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10732" t="s">
-        <v>19</v>
+      <c r="A22" s="11140" t="s">
+        <v>16</v>
       </c>
-      <c r="B22" s="10782" t="n">
-        <v>0.77</v>
+      <c r="B22" s="11190" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="10733" t="s">
-        <v>20</v>
+      <c r="A23" s="11141" t="s">
+        <v>14</v>
       </c>
-      <c r="B23" s="10783" t="n">
-        <v>0.54</v>
+      <c r="B23" s="11191" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="10734" t="s">
-        <v>18</v>
+      <c r="A24" s="11142" t="s">
+        <v>70</v>
       </c>
-      <c r="B24" s="10784" t="n">
-        <v>3.16</v>
+      <c r="B24" s="11192" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10735" t="s">
-        <v>22</v>
+      <c r="A25" s="11143" t="s">
+        <v>19</v>
       </c>
-      <c r="B25" s="10785" t="n">
-        <v>1.62</v>
+      <c r="B25" s="11193" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10736" t="s">
-        <v>23</v>
+      <c r="A26" s="11144" t="s">
+        <v>17</v>
       </c>
-      <c r="B26" s="10786" t="n">
+      <c r="B26" s="11194" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="11145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="11195" t="n">
         <v>1.38</v>
       </c>
     </row>
-    <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="10737" t="s">
+    <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="11146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11196" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="11147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11197" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="11148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="11198" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="11149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11199" t="n">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="11150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="11200" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="11151" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10787" t="n">
+      <c r="B33" s="11201" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="11152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="11202" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="11153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="11203" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="11154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="11204" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="11155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="11205" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="11156" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="11206" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="11157" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="11207" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="11158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="11208" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="11159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="11209" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="11160" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="11210" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="11161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="11211" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="11162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="11212" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="11163" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="11213" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="11164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11214" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="11165" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="11215" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="11166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="11216" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="11167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11217" t="n">
         <v>2.05</v>
       </c>
     </row>
-    <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="10738" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="10788" t="n">
-        <v>10.72</v>
-      </c>
-    </row>
-    <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="10739" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10789" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="10740" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10790" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="10741" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="10791" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="10742" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10792" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="10743" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="10793" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="10744" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="10794" t="n">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="10745" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10795" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="10746" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10796" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="10747" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="10797" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="10748" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="10798" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="10749" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="10799" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="10750" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10800" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="10751" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10801" t="n">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="10752" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="10802" t="n">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="10753" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10803" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="10754" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="10804" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="10755" t="s">
+    <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="11168" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="10805" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="10756" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="10806" t="n">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="10757" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="10807" t="n">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="10758" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="10808" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="10759" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="10809" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="10760" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10810" t="n">
-        <v>1.41</v>
+      <c r="B50" s="11218" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="10761" t="s">
+      <c r="A51" s="11169" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="10811" t="n">
-        <v>1.13</v>
+      <c r="B51" s="11219" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5627" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11220">
+  <cellXfs count="11424">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -34281,411 +34893,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11118" t="s">
+      <c r="A1" s="11322" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11119" t="s">
+      <c r="B1" s="11323" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11120" t="s">
+      <c r="A2" s="11324" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11170" t="n">
-        <v>2.89</v>
+      <c r="B2" s="11374" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11121" t="s">
+      <c r="A3" s="11325" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11171" t="n">
-        <v>1.95</v>
+      <c r="B3" s="11375" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11122" t="s">
+      <c r="A4" s="11326" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11172" t="n">
-        <v>2.59</v>
+      <c r="B4" s="11376" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11123" t="s">
+      <c r="A5" s="11327" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11173" t="n">
+      <c r="B5" s="11377" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11124" t="s">
+      <c r="A6" s="11328" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11174" t="n">
-        <v>1.34</v>
+      <c r="B6" s="11378" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11125" t="s">
+      <c r="A7" s="11329" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11175" t="n">
-        <v>5.27</v>
+      <c r="B7" s="11379" t="n">
+        <v>5.26</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11126" t="s">
+      <c r="A8" s="11330" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11176" t="n">
-        <v>1.81</v>
+      <c r="B8" s="11380" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11127" t="s">
+      <c r="A9" s="11331" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11177" t="n">
+      <c r="B9" s="11381" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11128" t="s">
+      <c r="A10" s="11332" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11178" t="n">
-        <v>1.41</v>
+      <c r="B10" s="11382" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11129" t="s">
+      <c r="A11" s="11333" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11179" t="n">
-        <v>2.88</v>
+      <c r="B11" s="11383" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11130" t="s">
+      <c r="A12" s="11334" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11180" t="n">
+      <c r="B12" s="11384" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11131" t="s">
+      <c r="A13" s="11335" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11181" t="n">
-        <v>0.89</v>
+      <c r="B13" s="11385" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11132" t="s">
+      <c r="A14" s="11336" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11182" t="n">
-        <v>0.36</v>
+      <c r="B14" s="11386" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11133" t="s">
+      <c r="A15" s="11337" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11183" t="n">
-        <v>1.03</v>
+      <c r="B15" s="11387" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11134" t="s">
+      <c r="A16" s="11338" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11184" t="n">
-        <v>4.88</v>
+      <c r="B16" s="11388" t="n">
+        <v>4.97</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11135" t="s">
+      <c r="A17" s="11339" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11185" t="n">
-        <v>0.79</v>
+      <c r="B17" s="11389" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11136" t="s">
+      <c r="A18" s="11340" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11186" t="n">
-        <v>1.28</v>
+      <c r="B18" s="11390" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11137" t="s">
+      <c r="A19" s="11341" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11187" t="n">
-        <v>3.67</v>
+      <c r="B19" s="11391" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11138" t="s">
+      <c r="A20" s="11342" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11188" t="n">
-        <v>1.95</v>
+      <c r="B20" s="11392" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11139" t="s">
+      <c r="A21" s="11343" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11189" t="n">
-        <v>2.69</v>
+      <c r="B21" s="11393" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11140" t="s">
+      <c r="A22" s="11344" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11190" t="n">
-        <v>0.68</v>
+      <c r="B22" s="11394" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11141" t="s">
+      <c r="A23" s="11345" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11191" t="n">
-        <v>0.64</v>
+      <c r="B23" s="11395" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11142" t="s">
+      <c r="A24" s="11346" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11192" t="n">
-        <v>1.33</v>
+      <c r="B24" s="11396" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11143" t="s">
+      <c r="A25" s="11347" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11193" t="n">
+      <c r="B25" s="11397" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11144" t="s">
+      <c r="A26" s="11348" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11194" t="n">
+      <c r="B26" s="11398" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11145" t="s">
+      <c r="A27" s="11349" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11195" t="n">
-        <v>1.38</v>
+      <c r="B27" s="11399" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11146" t="s">
+      <c r="A28" s="11350" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11196" t="n">
+      <c r="B28" s="11400" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11147" t="s">
+      <c r="A29" s="11351" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11197" t="n">
+      <c r="B29" s="11401" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11148" t="s">
+      <c r="A30" s="11352" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11198" t="n">
-        <v>3.07</v>
+      <c r="B30" s="11402" t="n">
+        <v>3.11</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11149" t="s">
+      <c r="A31" s="11353" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11199" t="n">
-        <v>10.68</v>
+      <c r="B31" s="11403" t="n">
+        <v>10.61</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11150" t="s">
+      <c r="A32" s="11354" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11200" t="n">
-        <v>1.33</v>
+      <c r="B32" s="11404" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11151" t="s">
+      <c r="A33" s="11355" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11201" t="n">
+      <c r="B33" s="11405" t="n">
         <v>1.93</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11152" t="s">
+      <c r="A34" s="11356" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11202" t="n">
-        <v>1.3</v>
+      <c r="B34" s="11406" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11153" t="s">
+      <c r="A35" s="11357" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11203" t="n">
-        <v>1.26</v>
+      <c r="B35" s="11407" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11154" t="s">
+      <c r="A36" s="11358" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11204" t="n">
-        <v>1.36</v>
+      <c r="B36" s="11408" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11155" t="s">
+      <c r="A37" s="11359" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11205" t="n">
-        <v>0.94</v>
+      <c r="B37" s="11409" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11156" t="s">
+      <c r="A38" s="11360" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11206" t="n">
-        <v>1.0</v>
+      <c r="B38" s="11410" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11157" t="s">
+      <c r="A39" s="11361" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11207" t="n">
-        <v>1.67</v>
+      <c r="B39" s="11411" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11158" t="s">
+      <c r="A40" s="11362" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11208" t="n">
-        <v>6.32</v>
+      <c r="B40" s="11412" t="n">
+        <v>6.28</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11159" t="s">
+      <c r="A41" s="11363" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11209" t="n">
+      <c r="B41" s="11413" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11160" t="s">
+      <c r="A42" s="11364" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11210" t="n">
+      <c r="B42" s="11414" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11161" t="s">
+      <c r="A43" s="11365" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11211" t="n">
-        <v>1.01</v>
+      <c r="B43" s="11415" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11162" t="s">
+      <c r="A44" s="11366" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11212" t="n">
-        <v>1.54</v>
+      <c r="B44" s="11416" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11163" t="s">
+      <c r="A45" s="11367" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11213" t="n">
-        <v>4.06</v>
+      <c r="B45" s="11417" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11164" t="s">
+      <c r="A46" s="11368" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11214" t="n">
+      <c r="B46" s="11418" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11165" t="s">
+      <c r="A47" s="11369" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11215" t="n">
-        <v>2.21</v>
+      <c r="B47" s="11419" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11166" t="s">
+      <c r="A48" s="11370" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11216" t="n">
-        <v>4.36</v>
+      <c r="B48" s="11420" t="n">
+        <v>4.34</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11167" t="s">
+      <c r="A49" s="11371" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11217" t="n">
-        <v>2.05</v>
+      <c r="B49" s="11421" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11168" t="s">
+      <c r="A50" s="11372" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11218" t="n">
-        <v>0.72</v>
+      <c r="B50" s="11422" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11169" t="s">
+      <c r="A51" s="11373" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11219" t="n">
-        <v>1.09</v>
+      <c r="B51" s="11423" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5783" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11424">
+  <cellXfs count="11526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -34893,411 +35199,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11322" t="s">
+      <c r="A1" s="11424" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11323" t="s">
+      <c r="B1" s="11425" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11324" t="s">
+      <c r="A2" s="11426" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11374" t="n">
-        <v>2.86</v>
+      <c r="B2" s="11476" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11325" t="s">
+      <c r="A3" s="11427" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11375" t="n">
+      <c r="B3" s="11477" t="n">
         <v>1.96</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11326" t="s">
+      <c r="A4" s="11428" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11376" t="n">
-        <v>2.56</v>
+      <c r="B4" s="11478" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11327" t="s">
+      <c r="A5" s="11429" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11377" t="n">
-        <v>2.27</v>
+      <c r="B5" s="11479" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11328" t="s">
+      <c r="A6" s="11430" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11378" t="n">
-        <v>1.33</v>
+      <c r="B6" s="11480" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11329" t="s">
+      <c r="A7" s="11431" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11379" t="n">
-        <v>5.26</v>
+      <c r="B7" s="11481" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11330" t="s">
+      <c r="A8" s="11432" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11380" t="n">
-        <v>1.79</v>
+      <c r="B8" s="11482" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11331" t="s">
+      <c r="A9" s="11433" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11381" t="n">
-        <v>1.05</v>
+      <c r="B9" s="11483" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11332" t="s">
+      <c r="A10" s="11434" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11382" t="n">
-        <v>1.43</v>
+      <c r="B10" s="11484" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11333" t="s">
+      <c r="A11" s="11435" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11383" t="n">
-        <v>2.83</v>
+      <c r="B11" s="11485" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11334" t="s">
+      <c r="A12" s="11436" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11384" t="n">
+      <c r="B12" s="11486" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11335" t="s">
+      <c r="A13" s="11437" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11385" t="n">
+      <c r="B13" s="11487" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11336" t="s">
+      <c r="A14" s="11438" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11386" t="n">
-        <v>0.35</v>
+      <c r="B14" s="11488" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11337" t="s">
+      <c r="A15" s="11439" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11387" t="n">
+      <c r="B15" s="11489" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11338" t="s">
+      <c r="A16" s="11440" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11388" t="n">
-        <v>4.97</v>
+      <c r="B16" s="11490" t="n">
+        <v>4.94</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11339" t="s">
+      <c r="A17" s="11441" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11389" t="n">
+      <c r="B17" s="11491" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11340" t="s">
+      <c r="A18" s="11442" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11390" t="n">
-        <v>1.27</v>
+      <c r="B18" s="11492" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11341" t="s">
+      <c r="A19" s="11443" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11391" t="n">
-        <v>3.62</v>
+      <c r="B19" s="11493" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11342" t="s">
+      <c r="A20" s="11444" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11392" t="n">
-        <v>2.0</v>
+      <c r="B20" s="11494" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11343" t="s">
+      <c r="A21" s="11445" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11393" t="n">
-        <v>2.72</v>
+      <c r="B21" s="11495" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11344" t="s">
+      <c r="A22" s="11446" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11394" t="n">
+      <c r="B22" s="11496" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11345" t="s">
+      <c r="A23" s="11447" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11395" t="n">
+      <c r="B23" s="11497" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11346" t="s">
+      <c r="A24" s="11448" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11396" t="n">
+      <c r="B24" s="11498" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11347" t="s">
+      <c r="A25" s="11449" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11397" t="n">
-        <v>0.73</v>
+      <c r="B25" s="11499" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11348" t="s">
+      <c r="A26" s="11450" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11398" t="n">
+      <c r="B26" s="11500" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11349" t="s">
+      <c r="A27" s="11451" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11399" t="n">
+      <c r="B27" s="11501" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11350" t="s">
+      <c r="A28" s="11452" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11400" t="n">
+      <c r="B28" s="11502" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11351" t="s">
+      <c r="A29" s="11453" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11401" t="n">
-        <v>0.5</v>
+      <c r="B29" s="11503" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11352" t="s">
+      <c r="A30" s="11454" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11402" t="n">
-        <v>3.11</v>
+      <c r="B30" s="11504" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11353" t="s">
+      <c r="A31" s="11455" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11403" t="n">
+      <c r="B31" s="11505" t="n">
         <v>10.61</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11354" t="s">
+      <c r="A32" s="11456" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11404" t="n">
+      <c r="B32" s="11506" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11355" t="s">
+      <c r="A33" s="11457" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11405" t="n">
-        <v>1.93</v>
+      <c r="B33" s="11507" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11356" t="s">
+      <c r="A34" s="11458" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11406" t="n">
+      <c r="B34" s="11508" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11357" t="s">
+      <c r="A35" s="11459" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11407" t="n">
-        <v>1.24</v>
+      <c r="B35" s="11509" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11358" t="s">
+      <c r="A36" s="11460" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11408" t="n">
-        <v>1.39</v>
+      <c r="B36" s="11510" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11359" t="s">
+      <c r="A37" s="11461" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11409" t="n">
-        <v>0.93</v>
+      <c r="B37" s="11511" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11360" t="s">
+      <c r="A38" s="11462" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11410" t="n">
-        <v>1.01</v>
+      <c r="B38" s="11512" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11361" t="s">
+      <c r="A39" s="11463" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11411" t="n">
+      <c r="B39" s="11513" t="n">
         <v>1.7</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11362" t="s">
+      <c r="A40" s="11464" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11412" t="n">
-        <v>6.28</v>
+      <c r="B40" s="11514" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11363" t="s">
+      <c r="A41" s="11465" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11413" t="n">
-        <v>0.34</v>
+      <c r="B41" s="11515" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11364" t="s">
+      <c r="A42" s="11466" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11414" t="n">
+      <c r="B42" s="11516" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11365" t="s">
+      <c r="A43" s="11467" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11415" t="n">
+      <c r="B43" s="11517" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11366" t="s">
+      <c r="A44" s="11468" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11416" t="n">
-        <v>1.57</v>
+      <c r="B44" s="11518" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11367" t="s">
+      <c r="A45" s="11469" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11417" t="n">
+      <c r="B45" s="11519" t="n">
         <v>4.04</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11368" t="s">
+      <c r="A46" s="11470" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11418" t="n">
-        <v>2.07</v>
+      <c r="B46" s="11520" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11369" t="s">
+      <c r="A47" s="11471" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11419" t="n">
-        <v>2.26</v>
+      <c r="B47" s="11521" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11370" t="s">
+      <c r="A48" s="11472" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11420" t="n">
-        <v>4.34</v>
+      <c r="B48" s="11522" t="n">
+        <v>4.35</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11371" t="s">
+      <c r="A49" s="11473" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11421" t="n">
-        <v>2.06</v>
+      <c r="B49" s="11523" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11372" t="s">
+      <c r="A50" s="11474" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11422" t="n">
-        <v>0.71</v>
+      <c r="B50" s="11524" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11373" t="s">
+      <c r="A51" s="11475" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11423" t="n">
-        <v>1.1</v>
+      <c r="B51" s="11525" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5783" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11526">
+  <cellXfs count="11628">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -35199,410 +35505,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11424" t="s">
+      <c r="A1" s="11526" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11425" t="s">
+      <c r="B1" s="11527" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11426" t="s">
+      <c r="A2" s="11528" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11476" t="n">
-        <v>2.84</v>
+      <c r="B2" s="11578" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11427" t="s">
+      <c r="A3" s="11529" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11477" t="n">
-        <v>1.96</v>
+      <c r="B3" s="11579" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11428" t="s">
+      <c r="A4" s="11530" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11478" t="n">
-        <v>2.53</v>
+      <c r="B4" s="11580" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11429" t="s">
+      <c r="A5" s="11531" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11479" t="n">
-        <v>2.26</v>
+      <c r="B5" s="11581" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11430" t="s">
+      <c r="A6" s="11532" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11480" t="n">
-        <v>1.3</v>
+      <c r="B6" s="11582" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11431" t="s">
+      <c r="A7" s="11533" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11481" t="n">
-        <v>5.27</v>
+      <c r="B7" s="11583" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11432" t="s">
+      <c r="A8" s="11534" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11482" t="n">
-        <v>1.78</v>
+      <c r="B8" s="11584" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11433" t="s">
+      <c r="A9" s="11535" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11483" t="n">
+      <c r="B9" s="11585" t="n">
         <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11434" t="s">
+      <c r="A10" s="11536" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11484" t="n">
-        <v>1.42</v>
+      <c r="B10" s="11586" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11435" t="s">
+      <c r="A11" s="11537" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11485" t="n">
-        <v>2.82</v>
+      <c r="B11" s="11587" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11436" t="s">
+      <c r="A12" s="11538" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11486" t="n">
+      <c r="B12" s="11588" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11437" t="s">
+      <c r="A13" s="11539" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11487" t="n">
+      <c r="B13" s="11589" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11438" t="s">
+      <c r="A14" s="11540" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11488" t="n">
-        <v>0.36</v>
+      <c r="B14" s="11590" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11439" t="s">
+      <c r="A15" s="11541" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11489" t="n">
-        <v>1.02</v>
+      <c r="B15" s="11591" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11440" t="s">
+      <c r="A16" s="11542" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11490" t="n">
-        <v>4.94</v>
+      <c r="B16" s="11592" t="n">
+        <v>4.88</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11441" t="s">
+      <c r="A17" s="11543" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11491" t="n">
-        <v>0.8</v>
+      <c r="B17" s="11593" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11442" t="s">
+      <c r="A18" s="11544" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11492" t="n">
-        <v>1.26</v>
+      <c r="B18" s="11594" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11443" t="s">
+      <c r="A19" s="11545" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11493" t="n">
-        <v>3.59</v>
+      <c r="B19" s="11595" t="n">
+        <v>3.51</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11444" t="s">
+      <c r="A20" s="11546" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11494" t="n">
-        <v>1.98</v>
+      <c r="B20" s="11596" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11445" t="s">
+      <c r="A21" s="11547" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11495" t="n">
-        <v>2.7</v>
+      <c r="B21" s="11597" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11446" t="s">
+      <c r="A22" s="11548" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11496" t="n">
-        <v>0.67</v>
+      <c r="B22" s="11598" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11447" t="s">
+      <c r="A23" s="11549" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11497" t="n">
-        <v>0.65</v>
+      <c r="B23" s="11599" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11448" t="s">
+      <c r="A24" s="11550" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11498" t="n">
+      <c r="B24" s="11600" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11449" t="s">
+      <c r="A25" s="11551" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11499" t="n">
+      <c r="B25" s="11601" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11450" t="s">
+      <c r="A26" s="11552" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11500" t="n">
-        <v>0.39</v>
+      <c r="B26" s="11602" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11451" t="s">
+      <c r="A27" s="11553" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11501" t="n">
-        <v>1.37</v>
+      <c r="B27" s="11603" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11452" t="s">
+      <c r="A28" s="11554" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11502" t="n">
-        <v>1.56</v>
+      <c r="B28" s="11604" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11453" t="s">
+      <c r="A29" s="11555" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11503" t="n">
-        <v>0.52</v>
+      <c r="B29" s="11605" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11454" t="s">
+      <c r="A30" s="11556" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11504" t="n">
-        <v>3.07</v>
+      <c r="B30" s="11606" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11455" t="s">
+      <c r="A31" s="11557" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11505" t="n">
-        <v>10.61</v>
+      <c r="B31" s="11607" t="n">
+        <v>10.4</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11456" t="s">
+      <c r="A32" s="11558" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11506" t="n">
-        <v>1.32</v>
+      <c r="B32" s="11608" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11457" t="s">
+      <c r="A33" s="11559" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11507" t="n">
-        <v>1.92</v>
+      <c r="B33" s="11609" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11458" t="s">
+      <c r="A34" s="11560" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11508" t="n">
-        <v>1.29</v>
+      <c r="B34" s="11610" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11459" t="s">
+      <c r="A35" s="11561" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11509" t="n">
+      <c r="B35" s="11611" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11460" t="s">
+      <c r="A36" s="11562" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11510" t="n">
-        <v>1.37</v>
+      <c r="B36" s="11612" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11461" t="s">
+      <c r="A37" s="11563" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11511" t="n">
-        <v>0.91</v>
+      <c r="B37" s="11613" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11462" t="s">
+      <c r="A38" s="11564" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11512" t="n">
+      <c r="B38" s="11614" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11463" t="s">
+      <c r="A39" s="11565" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11513" t="n">
-        <v>1.7</v>
+      <c r="B39" s="11615" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11464" t="s">
+      <c r="A40" s="11566" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11514" t="n">
-        <v>6.61</v>
+      <c r="B40" s="11616" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11465" t="s">
+      <c r="A41" s="11567" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11515" t="n">
+      <c r="B41" s="11617" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11466" t="s">
+      <c r="A42" s="11568" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11516" t="n">
+      <c r="B42" s="11618" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11467" t="s">
+      <c r="A43" s="11569" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11517" t="n">
-        <v>1.05</v>
+      <c r="B43" s="11619" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11468" t="s">
+      <c r="A44" s="11570" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11518" t="n">
-        <v>1.56</v>
+      <c r="B44" s="11620" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11469" t="s">
+      <c r="A45" s="11571" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11519" t="n">
-        <v>4.04</v>
+      <c r="B45" s="11621" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11470" t="s">
+      <c r="A46" s="11572" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11520" t="n">
-        <v>2.05</v>
+      <c r="B46" s="11622" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11471" t="s">
+      <c r="A47" s="11573" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11521" t="n">
-        <v>2.27</v>
+      <c r="B47" s="11623" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11472" t="s">
+      <c r="A48" s="11574" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11522" t="n">
-        <v>4.35</v>
+      <c r="B48" s="11624" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11473" t="s">
+      <c r="A49" s="11575" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11523" t="n">
-        <v>2.03</v>
+      <c r="B49" s="11625" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11474" t="s">
+      <c r="A50" s="11576" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11524" t="n">
+      <c r="B50" s="11626" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11475" t="s">
+      <c r="A51" s="11577" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11525" t="n">
+      <c r="B51" s="11627" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11628">
+  <cellXfs count="11730">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -35505,411 +35811,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11526" t="s">
+      <c r="A1" s="11628" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11527" t="s">
+      <c r="B1" s="11629" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11528" t="s">
+      <c r="A2" s="11630" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11578" t="n">
-        <v>2.85</v>
+      <c r="B2" s="11680" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11529" t="s">
+      <c r="A3" s="11631" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11579" t="n">
-        <v>1.92</v>
+      <c r="B3" s="11681" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11530" t="s">
+      <c r="A4" s="11632" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11580" t="n">
-        <v>2.54</v>
+      <c r="B4" s="11682" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11531" t="s">
+      <c r="A5" s="11633" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11581" t="n">
-        <v>2.31</v>
+      <c r="B5" s="11683" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11532" t="s">
+      <c r="A6" s="11634" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11582" t="n">
+      <c r="B6" s="11684" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11533" t="s">
+      <c r="A7" s="11635" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11583" t="n">
-        <v>5.42</v>
+      <c r="B7" s="11685" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11534" t="s">
+      <c r="A8" s="11636" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11584" t="n">
+      <c r="B8" s="11686" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11535" t="s">
+      <c r="A9" s="11637" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11585" t="n">
-        <v>1.07</v>
+      <c r="B9" s="11687" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11536" t="s">
+      <c r="A10" s="11638" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11586" t="n">
-        <v>1.4</v>
+      <c r="B10" s="11688" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11537" t="s">
+      <c r="A11" s="11639" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11587" t="n">
-        <v>2.86</v>
+      <c r="B11" s="11689" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11538" t="s">
+      <c r="A12" s="11640" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11588" t="n">
-        <v>1.04</v>
+      <c r="B12" s="11690" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11539" t="s">
+      <c r="A13" s="11641" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11589" t="n">
-        <v>0.9</v>
+      <c r="B13" s="11691" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11540" t="s">
+      <c r="A14" s="11642" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11590" t="n">
+      <c r="B14" s="11692" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11541" t="s">
+      <c r="A15" s="11643" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11591" t="n">
-        <v>1.03</v>
+      <c r="B15" s="11693" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11542" t="s">
+      <c r="A16" s="11644" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11592" t="n">
-        <v>4.88</v>
+      <c r="B16" s="11694" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11543" t="s">
+      <c r="A17" s="11645" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11593" t="n">
+      <c r="B17" s="11695" t="n">
         <v>0.81</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11544" t="s">
+      <c r="A18" s="11646" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11594" t="n">
+      <c r="B18" s="11696" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11545" t="s">
+      <c r="A19" s="11647" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11595" t="n">
-        <v>3.51</v>
+      <c r="B19" s="11697" t="n">
+        <v>3.52</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11546" t="s">
+      <c r="A20" s="11648" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11596" t="n">
+      <c r="B20" s="11698" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11547" t="s">
+      <c r="A21" s="11649" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11597" t="n">
-        <v>2.71</v>
+      <c r="B21" s="11699" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11548" t="s">
+      <c r="A22" s="11650" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11598" t="n">
-        <v>0.66</v>
+      <c r="B22" s="11700" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11549" t="s">
+      <c r="A23" s="11651" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11599" t="n">
-        <v>0.64</v>
+      <c r="B23" s="11701" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11550" t="s">
+      <c r="A24" s="11652" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11600" t="n">
+      <c r="B24" s="11702" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11551" t="s">
+      <c r="A25" s="11653" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11601" t="n">
+      <c r="B25" s="11703" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11552" t="s">
+      <c r="A26" s="11654" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11602" t="n">
+      <c r="B26" s="11704" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11553" t="s">
+      <c r="A27" s="11655" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11603" t="n">
-        <v>1.38</v>
+      <c r="B27" s="11705" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11554" t="s">
+      <c r="A28" s="11656" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11604" t="n">
-        <v>1.58</v>
+      <c r="B28" s="11706" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11555" t="s">
+      <c r="A29" s="11657" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11605" t="n">
-        <v>0.53</v>
+      <c r="B29" s="11707" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11556" t="s">
+      <c r="A30" s="11658" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11606" t="n">
-        <v>3.09</v>
+      <c r="B30" s="11708" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11557" t="s">
+      <c r="A31" s="11659" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11607" t="n">
-        <v>10.4</v>
+      <c r="B31" s="11709" t="n">
+        <v>10.57</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11558" t="s">
+      <c r="A32" s="11660" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11608" t="n">
-        <v>1.34</v>
+      <c r="B32" s="11710" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11559" t="s">
+      <c r="A33" s="11661" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11609" t="n">
-        <v>1.93</v>
+      <c r="B33" s="11711" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11560" t="s">
+      <c r="A34" s="11662" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11610" t="n">
+      <c r="B34" s="11712" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11561" t="s">
+      <c r="A35" s="11663" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11611" t="n">
+      <c r="B35" s="11713" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11562" t="s">
+      <c r="A36" s="11664" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11612" t="n">
-        <v>1.36</v>
+      <c r="B36" s="11714" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11563" t="s">
+      <c r="A37" s="11665" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11613" t="n">
-        <v>0.9</v>
+      <c r="B37" s="11715" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11564" t="s">
+      <c r="A38" s="11666" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11614" t="n">
+      <c r="B38" s="11716" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11565" t="s">
+      <c r="A39" s="11667" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11615" t="n">
+      <c r="B39" s="11717" t="n">
         <v>1.69</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11566" t="s">
+      <c r="A40" s="11668" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11616" t="n">
-        <v>6.5</v>
+      <c r="B40" s="11718" t="n">
+        <v>6.51</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11567" t="s">
+      <c r="A41" s="11669" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11617" t="n">
-        <v>0.33</v>
+      <c r="B41" s="11719" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11568" t="s">
+      <c r="A42" s="11670" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11618" t="n">
+      <c r="B42" s="11720" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11569" t="s">
+      <c r="A43" s="11671" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11619" t="n">
-        <v>1.03</v>
+      <c r="B43" s="11721" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11570" t="s">
+      <c r="A44" s="11672" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11620" t="n">
+      <c r="B44" s="11722" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11571" t="s">
+      <c r="A45" s="11673" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11621" t="n">
-        <v>4.09</v>
+      <c r="B45" s="11723" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11572" t="s">
+      <c r="A46" s="11674" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11622" t="n">
+      <c r="B46" s="11724" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11573" t="s">
+      <c r="A47" s="11675" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11623" t="n">
-        <v>2.23</v>
+      <c r="B47" s="11725" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11574" t="s">
+      <c r="A48" s="11676" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11624" t="n">
-        <v>4.43</v>
+      <c r="B48" s="11726" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11575" t="s">
+      <c r="A49" s="11677" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11625" t="n">
-        <v>2.01</v>
+      <c r="B49" s="11727" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11576" t="s">
+      <c r="A50" s="11678" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11626" t="n">
+      <c r="B50" s="11728" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11577" t="s">
+      <c r="A51" s="11679" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11627" t="n">
-        <v>1.09</v>
+      <c r="B51" s="11729" t="n">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11730">
+  <cellXfs count="11832">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -35811,410 +36117,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11628" t="s">
+      <c r="A1" s="11730" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11629" t="s">
+      <c r="B1" s="11731" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11630" t="s">
+      <c r="A2" s="11732" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11680" t="n">
+      <c r="B2" s="11782" t="n">
         <v>2.87</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11631" t="s">
+      <c r="A3" s="11733" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11681" t="n">
+      <c r="B3" s="11783" t="n">
         <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11632" t="s">
+      <c r="A4" s="11734" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11682" t="n">
+      <c r="B4" s="11784" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11633" t="s">
+      <c r="A5" s="11735" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11683" t="n">
+      <c r="B5" s="11785" t="n">
         <v>2.29</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11634" t="s">
+      <c r="A6" s="11736" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11684" t="n">
+      <c r="B6" s="11786" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11635" t="s">
+      <c r="A7" s="11737" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11685" t="n">
+      <c r="B7" s="11787" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11636" t="s">
+      <c r="A8" s="11738" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11686" t="n">
+      <c r="B8" s="11788" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11637" t="s">
+      <c r="A9" s="11739" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11687" t="n">
+      <c r="B9" s="11789" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11638" t="s">
+      <c r="A10" s="11740" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11688" t="n">
+      <c r="B10" s="11790" t="n">
         <v>1.41</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11639" t="s">
+      <c r="A11" s="11741" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11689" t="n">
+      <c r="B11" s="11791" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11640" t="s">
+      <c r="A12" s="11742" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11690" t="n">
+      <c r="B12" s="11792" t="n">
         <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11641" t="s">
+      <c r="A13" s="11743" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11691" t="n">
+      <c r="B13" s="11793" t="n">
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11642" t="s">
+      <c r="A14" s="11744" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11692" t="n">
+      <c r="B14" s="11794" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11643" t="s">
+      <c r="A15" s="11745" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11693" t="n">
+      <c r="B15" s="11795" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11644" t="s">
+      <c r="A16" s="11746" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11694" t="n">
+      <c r="B16" s="11796" t="n">
         <v>4.83</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11645" t="s">
+      <c r="A17" s="11747" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11695" t="n">
+      <c r="B17" s="11797" t="n">
         <v>0.81</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11646" t="s">
+      <c r="A18" s="11748" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11696" t="n">
+      <c r="B18" s="11798" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11647" t="s">
+      <c r="A19" s="11749" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11697" t="n">
+      <c r="B19" s="11799" t="n">
         <v>3.52</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11648" t="s">
+      <c r="A20" s="11750" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11698" t="n">
+      <c r="B20" s="11800" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11649" t="s">
+      <c r="A21" s="11751" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11699" t="n">
+      <c r="B21" s="11801" t="n">
         <v>2.69</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11650" t="s">
+      <c r="A22" s="11752" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11700" t="n">
+      <c r="B22" s="11802" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11651" t="s">
+      <c r="A23" s="11753" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11701" t="n">
+      <c r="B23" s="11803" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11652" t="s">
+      <c r="A24" s="11754" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11702" t="n">
+      <c r="B24" s="11804" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11653" t="s">
+      <c r="A25" s="11755" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11703" t="n">
+      <c r="B25" s="11805" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11654" t="s">
+      <c r="A26" s="11756" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11704" t="n">
+      <c r="B26" s="11806" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11655" t="s">
+      <c r="A27" s="11757" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11705" t="n">
+      <c r="B27" s="11807" t="n">
         <v>1.41</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11656" t="s">
+      <c r="A28" s="11758" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11706" t="n">
+      <c r="B28" s="11808" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11657" t="s">
+      <c r="A29" s="11759" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11707" t="n">
+      <c r="B29" s="11809" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11658" t="s">
+      <c r="A30" s="11760" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11708" t="n">
+      <c r="B30" s="11810" t="n">
         <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11659" t="s">
+      <c r="A31" s="11761" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11709" t="n">
+      <c r="B31" s="11811" t="n">
         <v>10.57</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11660" t="s">
+      <c r="A32" s="11762" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11710" t="n">
+      <c r="B32" s="11812" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11661" t="s">
+      <c r="A33" s="11763" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11711" t="n">
+      <c r="B33" s="11813" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11662" t="s">
+      <c r="A34" s="11764" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11712" t="n">
+      <c r="B34" s="11814" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11663" t="s">
+      <c r="A35" s="11765" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11713" t="n">
+      <c r="B35" s="11815" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11664" t="s">
+      <c r="A36" s="11766" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11714" t="n">
+      <c r="B36" s="11816" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11665" t="s">
+      <c r="A37" s="11767" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11715" t="n">
+      <c r="B37" s="11817" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11666" t="s">
+      <c r="A38" s="11768" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11716" t="n">
+      <c r="B38" s="11818" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11667" t="s">
+      <c r="A39" s="11769" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11717" t="n">
+      <c r="B39" s="11819" t="n">
         <v>1.69</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11668" t="s">
+      <c r="A40" s="11770" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11718" t="n">
+      <c r="B40" s="11820" t="n">
         <v>6.51</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11669" t="s">
+      <c r="A41" s="11771" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11719" t="n">
+      <c r="B41" s="11821" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11670" t="s">
+      <c r="A42" s="11772" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11720" t="n">
+      <c r="B42" s="11822" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11671" t="s">
+      <c r="A43" s="11773" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11721" t="n">
+      <c r="B43" s="11823" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11672" t="s">
+      <c r="A44" s="11774" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11722" t="n">
+      <c r="B44" s="11824" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11673" t="s">
+      <c r="A45" s="11775" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11723" t="n">
+      <c r="B45" s="11825" t="n">
         <v>4.03</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11674" t="s">
+      <c r="A46" s="11776" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11724" t="n">
+      <c r="B46" s="11826" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11675" t="s">
+      <c r="A47" s="11777" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11725" t="n">
+      <c r="B47" s="11827" t="n">
         <v>2.22</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11676" t="s">
+      <c r="A48" s="11778" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11726" t="n">
+      <c r="B48" s="11828" t="n">
         <v>4.38</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11677" t="s">
+      <c r="A49" s="11779" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11727" t="n">
+      <c r="B49" s="11829" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11678" t="s">
+      <c r="A50" s="11780" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11728" t="n">
+      <c r="B50" s="11830" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11679" t="s">
+      <c r="A51" s="11781" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11729" t="n">
+      <c r="B51" s="11831" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11832">
+  <cellXfs count="12036">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -36117,410 +36729,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11730" t="s">
+      <c r="A1" s="11934" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11731" t="s">
+      <c r="B1" s="11935" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11732" t="s">
+      <c r="A2" s="11936" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11782" t="n">
-        <v>2.87</v>
+      <c r="B2" s="11986" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11733" t="s">
+      <c r="A3" s="11937" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11783" t="n">
-        <v>1.97</v>
+      <c r="B3" s="11987" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11734" t="s">
+      <c r="A4" s="11938" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11784" t="n">
-        <v>2.62</v>
+      <c r="B4" s="11988" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11735" t="s">
+      <c r="A5" s="11939" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11785" t="n">
-        <v>2.29</v>
+      <c r="B5" s="11989" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11736" t="s">
+      <c r="A6" s="11940" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11786" t="n">
-        <v>1.31</v>
+      <c r="B6" s="11990" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11737" t="s">
+      <c r="A7" s="11941" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11787" t="n">
-        <v>5.4</v>
+      <c r="B7" s="11991" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11738" t="s">
+      <c r="A8" s="11942" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11788" t="n">
-        <v>1.8</v>
+      <c r="B8" s="11992" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11739" t="s">
+      <c r="A9" s="11943" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11789" t="n">
+      <c r="B9" s="11993" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11740" t="s">
+      <c r="A10" s="11944" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11790" t="n">
-        <v>1.41</v>
+      <c r="B10" s="11994" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11741" t="s">
+      <c r="A11" s="11945" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11791" t="n">
-        <v>2.85</v>
+      <c r="B11" s="11995" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11742" t="s">
+      <c r="A12" s="11946" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11792" t="n">
-        <v>1.03</v>
+      <c r="B12" s="11996" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11743" t="s">
+      <c r="A13" s="11947" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11793" t="n">
-        <v>0.89</v>
+      <c r="B13" s="11997" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11744" t="s">
+      <c r="A14" s="11948" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11794" t="n">
+      <c r="B14" s="11998" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11745" t="s">
+      <c r="A15" s="11949" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11795" t="n">
-        <v>1.02</v>
+      <c r="B15" s="11999" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11746" t="s">
+      <c r="A16" s="11950" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11796" t="n">
-        <v>4.83</v>
+      <c r="B16" s="12000" t="n">
+        <v>4.71</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11747" t="s">
+      <c r="A17" s="11951" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11797" t="n">
-        <v>0.81</v>
+      <c r="B17" s="12001" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11748" t="s">
+      <c r="A18" s="11952" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11798" t="n">
-        <v>1.27</v>
+      <c r="B18" s="12002" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11749" t="s">
+      <c r="A19" s="11953" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11799" t="n">
-        <v>3.52</v>
+      <c r="B19" s="12003" t="n">
+        <v>3.45</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11750" t="s">
+      <c r="A20" s="11954" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="11800" t="n">
-        <v>1.99</v>
+      <c r="B20" s="12004" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11751" t="s">
+      <c r="A21" s="11955" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11801" t="n">
-        <v>2.69</v>
+      <c r="B21" s="12005" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11752" t="s">
+      <c r="A22" s="11956" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="11802" t="n">
-        <v>0.67</v>
+      <c r="B22" s="12006" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11753" t="s">
+      <c r="A23" s="11957" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11803" t="n">
-        <v>0.63</v>
+      <c r="B23" s="12007" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11754" t="s">
+      <c r="A24" s="11958" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="11804" t="n">
-        <v>1.32</v>
+      <c r="B24" s="12008" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11755" t="s">
+      <c r="A25" s="11959" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11805" t="n">
-        <v>0.72</v>
+      <c r="B25" s="12009" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11756" t="s">
+      <c r="A26" s="11960" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11806" t="n">
+      <c r="B26" s="12010" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11757" t="s">
+      <c r="A27" s="11961" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="11807" t="n">
-        <v>1.41</v>
+      <c r="B27" s="12011" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11758" t="s">
+      <c r="A28" s="11962" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11808" t="n">
-        <v>1.57</v>
+      <c r="B28" s="12012" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11759" t="s">
+      <c r="A29" s="11963" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="11809" t="n">
+      <c r="B29" s="12013" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11760" t="s">
+      <c r="A30" s="11964" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="11810" t="n">
+      <c r="B30" s="12014" t="n">
         <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11761" t="s">
+      <c r="A31" s="11965" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="11811" t="n">
-        <v>10.57</v>
+      <c r="B31" s="12015" t="n">
+        <v>10.39</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11762" t="s">
+      <c r="A32" s="11966" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="11812" t="n">
-        <v>1.28</v>
+      <c r="B32" s="12016" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11763" t="s">
+      <c r="A33" s="11967" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="11813" t="n">
-        <v>1.94</v>
+      <c r="B33" s="12017" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11764" t="s">
+      <c r="A34" s="11968" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="11814" t="n">
-        <v>1.31</v>
+      <c r="B34" s="12018" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11765" t="s">
+      <c r="A35" s="11969" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11815" t="n">
-        <v>1.27</v>
+      <c r="B35" s="12019" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11766" t="s">
+      <c r="A36" s="11970" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="11816" t="n">
-        <v>1.35</v>
+      <c r="B36" s="12020" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11767" t="s">
+      <c r="A37" s="11971" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="11817" t="n">
-        <v>0.91</v>
+      <c r="B37" s="12021" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11768" t="s">
+      <c r="A38" s="11972" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="11818" t="n">
-        <v>1.0</v>
+      <c r="B38" s="12022" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11769" t="s">
+      <c r="A39" s="11973" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="11819" t="n">
-        <v>1.69</v>
+      <c r="B39" s="12023" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11770" t="s">
+      <c r="A40" s="11974" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="11820" t="n">
-        <v>6.51</v>
+      <c r="B40" s="12024" t="n">
+        <v>6.37</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11771" t="s">
+      <c r="A41" s="11975" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="11821" t="n">
+      <c r="B41" s="12025" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11772" t="s">
+      <c r="A42" s="11976" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="11822" t="n">
-        <v>0.44</v>
+      <c r="B42" s="12026" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11773" t="s">
+      <c r="A43" s="11977" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11823" t="n">
-        <v>1.02</v>
+      <c r="B43" s="12027" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11774" t="s">
+      <c r="A44" s="11978" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="11824" t="n">
-        <v>1.57</v>
+      <c r="B44" s="12028" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11775" t="s">
+      <c r="A45" s="11979" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="11825" t="n">
-        <v>4.03</v>
+      <c r="B45" s="12029" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11776" t="s">
+      <c r="A46" s="11980" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="11826" t="n">
-        <v>2.06</v>
+      <c r="B46" s="12030" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11777" t="s">
+      <c r="A47" s="11981" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="11827" t="n">
-        <v>2.22</v>
+      <c r="B47" s="12031" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11778" t="s">
+      <c r="A48" s="11982" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="11828" t="n">
-        <v>4.38</v>
+      <c r="B48" s="12032" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11779" t="s">
+      <c r="A49" s="11983" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="11829" t="n">
-        <v>2.07</v>
+      <c r="B49" s="12033" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11780" t="s">
+      <c r="A50" s="11984" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="11830" t="n">
-        <v>0.7</v>
+      <c r="B50" s="12034" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11781" t="s">
+      <c r="A51" s="11985" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11831" t="n">
+      <c r="B51" s="12035" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12036">
+  <cellXfs count="12138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -36729,410 +37035,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="11934" t="s">
+      <c r="A1" s="12036" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11935" t="s">
+      <c r="B1" s="12037" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11936" t="s">
+      <c r="A2" s="12038" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11986" t="n">
-        <v>2.93</v>
+      <c r="B2" s="12088" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11937" t="s">
+      <c r="A3" s="12039" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11987" t="n">
-        <v>1.96</v>
+      <c r="B3" s="12089" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11938" t="s">
+      <c r="A4" s="12040" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11988" t="n">
-        <v>2.67</v>
+      <c r="B4" s="12090" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11939" t="s">
+      <c r="A5" s="12041" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11989" t="n">
-        <v>2.3</v>
+      <c r="B5" s="12091" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11940" t="s">
+      <c r="A6" s="12042" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="11990" t="n">
-        <v>1.36</v>
+      <c r="B6" s="12092" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11941" t="s">
+      <c r="A7" s="12043" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11991" t="n">
-        <v>5.45</v>
+      <c r="B7" s="12093" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11942" t="s">
+      <c r="A8" s="12044" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11992" t="n">
-        <v>1.83</v>
+      <c r="B8" s="12094" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11943" t="s">
+      <c r="A9" s="12045" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11993" t="n">
-        <v>1.06</v>
+      <c r="B9" s="12095" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11944" t="s">
+      <c r="A10" s="12046" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="11994" t="n">
-        <v>1.4</v>
+      <c r="B10" s="12096" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11945" t="s">
+      <c r="A11" s="12047" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11995" t="n">
-        <v>2.92</v>
+      <c r="B11" s="12097" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11946" t="s">
+      <c r="A12" s="12048" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="11996" t="n">
-        <v>1.05</v>
+      <c r="B12" s="12098" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11947" t="s">
+      <c r="A13" s="12049" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11997" t="n">
+      <c r="B13" s="12099" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11948" t="s">
+      <c r="A14" s="12050" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="11998" t="n">
+      <c r="B14" s="12100" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11949" t="s">
+      <c r="A15" s="12051" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11999" t="n">
-        <v>1.04</v>
+      <c r="B15" s="12101" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11950" t="s">
+      <c r="A16" s="12052" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12000" t="n">
-        <v>4.71</v>
+      <c r="B16" s="12102" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11951" t="s">
+      <c r="A17" s="12053" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12001" t="n">
+      <c r="B17" s="12103" t="n">
         <v>0.84</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11952" t="s">
+      <c r="A18" s="12054" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12002" t="n">
-        <v>1.29</v>
+      <c r="B18" s="12104" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11953" t="s">
+      <c r="A19" s="12055" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12003" t="n">
-        <v>3.45</v>
+      <c r="B19" s="12105" t="n">
+        <v>3.52</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11954" t="s">
+      <c r="A20" s="12056" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12004" t="n">
-        <v>2.02</v>
+      <c r="B20" s="12106" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11955" t="s">
+      <c r="A21" s="12057" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12005" t="n">
-        <v>2.66</v>
+      <c r="B21" s="12107" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11956" t="s">
+      <c r="A22" s="12058" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12006" t="n">
-        <v>0.66</v>
+      <c r="B22" s="12108" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11957" t="s">
+      <c r="A23" s="12059" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12007" t="n">
+      <c r="B23" s="12109" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11958" t="s">
+      <c r="A24" s="12060" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12008" t="n">
-        <v>1.34</v>
+      <c r="B24" s="12110" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11959" t="s">
+      <c r="A25" s="12061" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12009" t="n">
-        <v>0.75</v>
+      <c r="B25" s="12111" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11960" t="s">
+      <c r="A26" s="12062" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12010" t="n">
+      <c r="B26" s="12112" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11961" t="s">
+      <c r="A27" s="12063" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12011" t="n">
-        <v>1.44</v>
+      <c r="B27" s="12113" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11962" t="s">
+      <c r="A28" s="12064" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12012" t="n">
-        <v>1.59</v>
+      <c r="B28" s="12114" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11963" t="s">
+      <c r="A29" s="12065" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12013" t="n">
+      <c r="B29" s="12115" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11964" t="s">
+      <c r="A30" s="12066" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12014" t="n">
-        <v>3.06</v>
+      <c r="B30" s="12116" t="n">
+        <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11965" t="s">
+      <c r="A31" s="12067" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12015" t="n">
-        <v>10.39</v>
+      <c r="B31" s="12117" t="n">
+        <v>10.78</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11966" t="s">
+      <c r="A32" s="12068" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12016" t="n">
-        <v>1.3</v>
+      <c r="B32" s="12118" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11967" t="s">
+      <c r="A33" s="12069" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12017" t="n">
-        <v>1.96</v>
+      <c r="B33" s="12119" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11968" t="s">
+      <c r="A34" s="12070" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12018" t="n">
-        <v>1.32</v>
+      <c r="B34" s="12120" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11969" t="s">
+      <c r="A35" s="12071" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12019" t="n">
+      <c r="B35" s="12121" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11970" t="s">
+      <c r="A36" s="12072" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12020" t="n">
-        <v>1.36</v>
+      <c r="B36" s="12122" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11971" t="s">
+      <c r="A37" s="12073" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12021" t="n">
-        <v>0.92</v>
+      <c r="B37" s="12123" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11972" t="s">
+      <c r="A38" s="12074" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12022" t="n">
-        <v>1.01</v>
+      <c r="B38" s="12124" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11973" t="s">
+      <c r="A39" s="12075" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12023" t="n">
-        <v>1.71</v>
+      <c r="B39" s="12125" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11974" t="s">
+      <c r="A40" s="12076" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12024" t="n">
-        <v>6.37</v>
+      <c r="B40" s="12126" t="n">
+        <v>6.52</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11975" t="s">
+      <c r="A41" s="12077" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12025" t="n">
+      <c r="B41" s="12127" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11976" t="s">
+      <c r="A42" s="12078" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12026" t="n">
-        <v>0.45</v>
+      <c r="B42" s="12128" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11977" t="s">
+      <c r="A43" s="12079" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12027" t="n">
-        <v>0.99</v>
+      <c r="B43" s="12129" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11978" t="s">
+      <c r="A44" s="12080" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12028" t="n">
-        <v>1.58</v>
+      <c r="B44" s="12130" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11979" t="s">
+      <c r="A45" s="12081" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12029" t="n">
-        <v>4.07</v>
+      <c r="B45" s="12131" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11980" t="s">
+      <c r="A46" s="12082" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12030" t="n">
-        <v>2.08</v>
+      <c r="B46" s="12132" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="11981" t="s">
+      <c r="A47" s="12083" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12031" t="n">
+      <c r="B47" s="12133" t="n">
         <v>2.13</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11982" t="s">
+      <c r="A48" s="12084" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12032" t="n">
-        <v>4.44</v>
+      <c r="B48" s="12134" t="n">
+        <v>4.39</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11983" t="s">
+      <c r="A49" s="12085" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12033" t="n">
-        <v>1.97</v>
+      <c r="B49" s="12135" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11984" t="s">
+      <c r="A50" s="12086" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12034" t="n">
-        <v>0.72</v>
+      <c r="B50" s="12136" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11985" t="s">
+      <c r="A51" s="12087" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12035" t="n">
+      <c r="B51" s="12137" t="n">
         <v>1.08</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6095" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12138">
+  <cellXfs count="12240">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -37035,411 +37341,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12036" t="s">
+      <c r="A1" s="12138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12037" t="s">
+      <c r="B1" s="12139" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12038" t="s">
+      <c r="A2" s="12140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12088" t="n">
-        <v>2.88</v>
+      <c r="B2" s="12190" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12039" t="s">
+      <c r="A3" s="12141" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12089" t="n">
-        <v>2.01</v>
+      <c r="B3" s="12191" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12040" t="s">
+      <c r="A4" s="12142" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12090" t="n">
+      <c r="B4" s="12192" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12041" t="s">
+      <c r="A5" s="12143" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12091" t="n">
-        <v>2.29</v>
+      <c r="B5" s="12193" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12042" t="s">
+      <c r="A6" s="12144" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12092" t="n">
-        <v>1.34</v>
+      <c r="B6" s="12194" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12043" t="s">
+      <c r="A7" s="12145" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12093" t="n">
-        <v>5.44</v>
+      <c r="B7" s="12195" t="n">
+        <v>5.52</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12044" t="s">
+      <c r="A8" s="12146" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12094" t="n">
-        <v>1.8</v>
+      <c r="B8" s="12196" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12045" t="s">
+      <c r="A9" s="12147" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12095" t="n">
+      <c r="B9" s="12197" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12046" t="s">
+      <c r="A10" s="12148" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12096" t="n">
-        <v>1.39</v>
+      <c r="B10" s="12198" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12047" t="s">
+      <c r="A11" s="12149" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12097" t="n">
-        <v>2.88</v>
+      <c r="B11" s="12199" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12048" t="s">
+      <c r="A12" s="12150" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12098" t="n">
+      <c r="B12" s="12200" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12049" t="s">
+      <c r="A13" s="12151" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12099" t="n">
+      <c r="B13" s="12201" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12050" t="s">
+      <c r="A14" s="12152" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12100" t="n">
+      <c r="B14" s="12202" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12051" t="s">
+      <c r="A15" s="12153" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12101" t="n">
-        <v>1.02</v>
+      <c r="B15" s="12203" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12052" t="s">
+      <c r="A16" s="12154" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12102" t="n">
-        <v>4.72</v>
+      <c r="B16" s="12204" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12053" t="s">
+      <c r="A17" s="12155" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12103" t="n">
-        <v>0.84</v>
+      <c r="B17" s="12205" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12054" t="s">
+      <c r="A18" s="12156" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12104" t="n">
-        <v>1.27</v>
+      <c r="B18" s="12206" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12055" t="s">
+      <c r="A19" s="12157" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12105" t="n">
-        <v>3.52</v>
+      <c r="B19" s="12207" t="n">
+        <v>3.43</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12056" t="s">
+      <c r="A20" s="12158" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12106" t="n">
+      <c r="B20" s="12208" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12057" t="s">
+      <c r="A21" s="12159" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12107" t="n">
-        <v>2.64</v>
+      <c r="B21" s="12209" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12058" t="s">
+      <c r="A22" s="12160" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12108" t="n">
-        <v>0.7</v>
+      <c r="B22" s="12210" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12059" t="s">
+      <c r="A23" s="12161" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12109" t="n">
-        <v>0.65</v>
+      <c r="B23" s="12211" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12060" t="s">
+      <c r="A24" s="12162" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12110" t="n">
-        <v>1.32</v>
+      <c r="B24" s="12212" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12061" t="s">
+      <c r="A25" s="12163" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12111" t="n">
-        <v>0.73</v>
+      <c r="B25" s="12213" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12062" t="s">
+      <c r="A26" s="12164" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12112" t="n">
-        <v>0.4</v>
+      <c r="B26" s="12214" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12063" t="s">
+      <c r="A27" s="12165" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12113" t="n">
-        <v>1.4</v>
+      <c r="B27" s="12215" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12064" t="s">
+      <c r="A28" s="12166" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12114" t="n">
-        <v>1.57</v>
+      <c r="B28" s="12216" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12065" t="s">
+      <c r="A29" s="12167" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12115" t="n">
+      <c r="B29" s="12217" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12066" t="s">
+      <c r="A30" s="12168" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12116" t="n">
-        <v>3.04</v>
+      <c r="B30" s="12218" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12067" t="s">
+      <c r="A31" s="12169" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12117" t="n">
-        <v>10.78</v>
+      <c r="B31" s="12219" t="n">
+        <v>10.96</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12068" t="s">
+      <c r="A32" s="12170" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12118" t="n">
-        <v>1.27</v>
+      <c r="B32" s="12220" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12069" t="s">
+      <c r="A33" s="12171" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12119" t="n">
-        <v>1.93</v>
+      <c r="B33" s="12221" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12070" t="s">
+      <c r="A34" s="12172" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12120" t="n">
+      <c r="B34" s="12222" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12071" t="s">
+      <c r="A35" s="12173" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12121" t="n">
-        <v>1.26</v>
+      <c r="B35" s="12223" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12072" t="s">
+      <c r="A36" s="12174" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12122" t="n">
-        <v>1.37</v>
+      <c r="B36" s="12224" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12073" t="s">
+      <c r="A37" s="12175" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12123" t="n">
+      <c r="B37" s="12225" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12074" t="s">
+      <c r="A38" s="12176" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12124" t="n">
-        <v>0.98</v>
+      <c r="B38" s="12226" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12075" t="s">
+      <c r="A39" s="12177" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12125" t="n">
-        <v>1.72</v>
+      <c r="B39" s="12227" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12076" t="s">
+      <c r="A40" s="12178" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12126" t="n">
-        <v>6.52</v>
+      <c r="B40" s="12228" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12077" t="s">
+      <c r="A41" s="12179" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12127" t="n">
-        <v>0.32</v>
+      <c r="B41" s="12229" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12078" t="s">
+      <c r="A42" s="12180" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12128" t="n">
-        <v>0.44</v>
+      <c r="B42" s="12230" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12079" t="s">
+      <c r="A43" s="12181" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12129" t="n">
+      <c r="B43" s="12231" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12080" t="s">
+      <c r="A44" s="12182" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12130" t="n">
-        <v>1.55</v>
+      <c r="B44" s="12232" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12081" t="s">
+      <c r="A45" s="12183" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12131" t="n">
-        <v>4.03</v>
+      <c r="B45" s="12233" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12082" t="s">
+      <c r="A46" s="12184" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12132" t="n">
-        <v>2.05</v>
+      <c r="B46" s="12234" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12083" t="s">
+      <c r="A47" s="12185" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12133" t="n">
-        <v>2.13</v>
+      <c r="B47" s="12235" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12084" t="s">
+      <c r="A48" s="12186" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12134" t="n">
-        <v>4.39</v>
+      <c r="B48" s="12236" t="n">
+        <v>4.32</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12085" t="s">
+      <c r="A49" s="12187" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12135" t="n">
-        <v>1.98</v>
+      <c r="B49" s="12237" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12086" t="s">
+      <c r="A50" s="12188" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12136" t="n">
-        <v>0.71</v>
+      <c r="B50" s="12238" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12087" t="s">
+      <c r="A51" s="12189" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12137" t="n">
-        <v>1.08</v>
+      <c r="B51" s="12239" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12240">
+  <cellXfs count="12342">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -37341,410 +37647,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12138" t="s">
+      <c r="A1" s="12240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12139" t="s">
+      <c r="B1" s="12241" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12140" t="s">
+      <c r="A2" s="12242" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12190" t="n">
+      <c r="B2" s="12292" t="n">
         <v>2.91</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12141" t="s">
+      <c r="A3" s="12243" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12191" t="n">
+      <c r="B3" s="12293" t="n">
         <v>2.04</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12142" t="s">
+      <c r="A4" s="12244" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12192" t="n">
+      <c r="B4" s="12294" t="n">
         <v>2.62</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12143" t="s">
+      <c r="A5" s="12245" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12193" t="n">
+      <c r="B5" s="12295" t="n">
         <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12144" t="s">
+      <c r="A6" s="12246" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12194" t="n">
+      <c r="B6" s="12296" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12145" t="s">
+      <c r="A7" s="12247" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12195" t="n">
+      <c r="B7" s="12297" t="n">
         <v>5.52</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12146" t="s">
+      <c r="A8" s="12248" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12196" t="n">
+      <c r="B8" s="12298" t="n">
         <v>1.81</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12147" t="s">
+      <c r="A9" s="12249" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12197" t="n">
+      <c r="B9" s="12299" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12148" t="s">
+      <c r="A10" s="12250" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12198" t="n">
+      <c r="B10" s="12300" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12149" t="s">
+      <c r="A11" s="12251" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12199" t="n">
+      <c r="B11" s="12301" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12150" t="s">
+      <c r="A12" s="12252" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12200" t="n">
+      <c r="B12" s="12302" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12151" t="s">
+      <c r="A13" s="12253" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12201" t="n">
+      <c r="B13" s="12303" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12152" t="s">
+      <c r="A14" s="12254" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12202" t="n">
+      <c r="B14" s="12304" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12153" t="s">
+      <c r="A15" s="12255" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12203" t="n">
+      <c r="B15" s="12305" t="n">
         <v>1.03</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12154" t="s">
+      <c r="A16" s="12256" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12204" t="n">
+      <c r="B16" s="12306" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12155" t="s">
+      <c r="A17" s="12257" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12205" t="n">
+      <c r="B17" s="12307" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12156" t="s">
+      <c r="A18" s="12258" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12206" t="n">
+      <c r="B18" s="12308" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12157" t="s">
+      <c r="A19" s="12259" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12207" t="n">
+      <c r="B19" s="12309" t="n">
         <v>3.43</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12158" t="s">
+      <c r="A20" s="12260" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12208" t="n">
+      <c r="B20" s="12310" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12159" t="s">
+      <c r="A21" s="12261" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12209" t="n">
+      <c r="B21" s="12311" t="n">
         <v>2.63</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12160" t="s">
+      <c r="A22" s="12262" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12210" t="n">
+      <c r="B22" s="12312" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12161" t="s">
+      <c r="A23" s="12263" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12211" t="n">
+      <c r="B23" s="12313" t="n">
         <v>0.64</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12162" t="s">
+      <c r="A24" s="12264" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12212" t="n">
+      <c r="B24" s="12314" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12163" t="s">
+      <c r="A25" s="12265" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12213" t="n">
+      <c r="B25" s="12315" t="n">
         <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12164" t="s">
+      <c r="A26" s="12266" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12214" t="n">
+      <c r="B26" s="12316" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12165" t="s">
+      <c r="A27" s="12267" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12215" t="n">
+      <c r="B27" s="12317" t="n">
         <v>1.42</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12166" t="s">
+      <c r="A28" s="12268" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12216" t="n">
+      <c r="B28" s="12318" t="n">
         <v>1.59</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12167" t="s">
+      <c r="A29" s="12269" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12217" t="n">
+      <c r="B29" s="12319" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12168" t="s">
+      <c r="A30" s="12270" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12218" t="n">
+      <c r="B30" s="12320" t="n">
         <v>3.07</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12169" t="s">
+      <c r="A31" s="12271" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12219" t="n">
+      <c r="B31" s="12321" t="n">
         <v>10.96</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12170" t="s">
+      <c r="A32" s="12272" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12220" t="n">
+      <c r="B32" s="12322" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12171" t="s">
+      <c r="A33" s="12273" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12221" t="n">
+      <c r="B33" s="12323" t="n">
         <v>1.95</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12172" t="s">
+      <c r="A34" s="12274" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12222" t="n">
+      <c r="B34" s="12324" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12173" t="s">
+      <c r="A35" s="12275" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12223" t="n">
+      <c r="B35" s="12325" t="n">
         <v>1.18</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12174" t="s">
+      <c r="A36" s="12276" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12224" t="n">
+      <c r="B36" s="12326" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12175" t="s">
+      <c r="A37" s="12277" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12225" t="n">
+      <c r="B37" s="12327" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12176" t="s">
+      <c r="A38" s="12278" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12226" t="n">
+      <c r="B38" s="12328" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12177" t="s">
+      <c r="A39" s="12279" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12227" t="n">
+      <c r="B39" s="12329" t="n">
         <v>1.76</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12178" t="s">
+      <c r="A40" s="12280" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12228" t="n">
+      <c r="B40" s="12330" t="n">
         <v>6.38</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12179" t="s">
+      <c r="A41" s="12281" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12229" t="n">
+      <c r="B41" s="12331" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12180" t="s">
+      <c r="A42" s="12282" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12230" t="n">
+      <c r="B42" s="12332" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12181" t="s">
+      <c r="A43" s="12283" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12231" t="n">
+      <c r="B43" s="12333" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12182" t="s">
+      <c r="A44" s="12284" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12232" t="n">
+      <c r="B44" s="12334" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12183" t="s">
+      <c r="A45" s="12285" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12233" t="n">
+      <c r="B45" s="12335" t="n">
         <v>4.05</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12184" t="s">
+      <c r="A46" s="12286" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12234" t="n">
+      <c r="B46" s="12336" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12185" t="s">
+      <c r="A47" s="12287" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12235" t="n">
+      <c r="B47" s="12337" t="n">
         <v>2.08</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12186" t="s">
+      <c r="A48" s="12288" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12236" t="n">
+      <c r="B48" s="12338" t="n">
         <v>4.32</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12187" t="s">
+      <c r="A49" s="12289" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12237" t="n">
+      <c r="B49" s="12339" t="n">
         <v>1.95</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12188" t="s">
+      <c r="A50" s="12290" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12238" t="n">
+      <c r="B50" s="12340" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12189" t="s">
+      <c r="A51" s="12291" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12239" t="n">
+      <c r="B51" s="12341" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6199" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6251" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12342">
+  <cellXfs count="12444">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -37647,411 +37953,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12240" t="s">
+      <c r="A1" s="12342" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12241" t="s">
+      <c r="B1" s="12343" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12242" t="s">
+      <c r="A2" s="12344" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12292" t="n">
-        <v>2.91</v>
+      <c r="B2" s="12394" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12243" t="s">
+      <c r="A3" s="12345" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12293" t="n">
-        <v>2.04</v>
+      <c r="B3" s="12395" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12244" t="s">
+      <c r="A4" s="12346" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12294" t="n">
-        <v>2.62</v>
+      <c r="B4" s="12396" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12245" t="s">
+      <c r="A5" s="12347" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12295" t="n">
-        <v>2.31</v>
+      <c r="B5" s="12397" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12246" t="s">
+      <c r="A6" s="12348" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12296" t="n">
-        <v>1.35</v>
+      <c r="B6" s="12398" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12247" t="s">
+      <c r="A7" s="12349" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12297" t="n">
-        <v>5.52</v>
+      <c r="B7" s="12399" t="n">
+        <v>5.53</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12248" t="s">
+      <c r="A8" s="12350" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12298" t="n">
+      <c r="B8" s="12400" t="n">
         <v>1.81</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12249" t="s">
+      <c r="A9" s="12351" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12299" t="n">
-        <v>1.05</v>
+      <c r="B9" s="12401" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12250" t="s">
+      <c r="A10" s="12352" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12300" t="n">
-        <v>1.37</v>
+      <c r="B10" s="12402" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12251" t="s">
+      <c r="A11" s="12353" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12301" t="n">
+      <c r="B11" s="12403" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12252" t="s">
+      <c r="A12" s="12354" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12302" t="n">
+      <c r="B12" s="12404" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12253" t="s">
+      <c r="A13" s="12355" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12303" t="n">
+      <c r="B13" s="12405" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12254" t="s">
+      <c r="A14" s="12356" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12304" t="n">
+      <c r="B14" s="12406" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12255" t="s">
+      <c r="A15" s="12357" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12305" t="n">
-        <v>1.03</v>
+      <c r="B15" s="12407" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12256" t="s">
+      <c r="A16" s="12358" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12306" t="n">
-        <v>4.6</v>
+      <c r="B16" s="12408" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12257" t="s">
+      <c r="A17" s="12359" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12307" t="n">
-        <v>0.85</v>
+      <c r="B17" s="12409" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12258" t="s">
+      <c r="A18" s="12360" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12308" t="n">
-        <v>1.28</v>
+      <c r="B18" s="12410" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12259" t="s">
+      <c r="A19" s="12361" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12309" t="n">
-        <v>3.43</v>
+      <c r="B19" s="12411" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12260" t="s">
+      <c r="A20" s="12362" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12310" t="n">
-        <v>2.0</v>
+      <c r="B20" s="12412" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12261" t="s">
+      <c r="A21" s="12363" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12311" t="n">
-        <v>2.63</v>
+      <c r="B21" s="12413" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12262" t="s">
+      <c r="A22" s="12364" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12312" t="n">
+      <c r="B22" s="12414" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12263" t="s">
+      <c r="A23" s="12365" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12313" t="n">
-        <v>0.64</v>
+      <c r="B23" s="12415" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12264" t="s">
+      <c r="A24" s="12366" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12314" t="n">
+      <c r="B24" s="12416" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12265" t="s">
+      <c r="A25" s="12367" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12315" t="n">
+      <c r="B25" s="12417" t="n">
         <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12266" t="s">
+      <c r="A26" s="12368" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12316" t="n">
+      <c r="B26" s="12418" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12267" t="s">
+      <c r="A27" s="12369" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12317" t="n">
-        <v>1.42</v>
+      <c r="B27" s="12419" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12268" t="s">
+      <c r="A28" s="12370" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12318" t="n">
-        <v>1.59</v>
+      <c r="B28" s="12420" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12269" t="s">
+      <c r="A29" s="12371" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12319" t="n">
-        <v>0.52</v>
+      <c r="B29" s="12421" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12270" t="s">
+      <c r="A30" s="12372" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12320" t="n">
-        <v>3.07</v>
+      <c r="B30" s="12422" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12271" t="s">
+      <c r="A31" s="12373" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12321" t="n">
-        <v>10.96</v>
+      <c r="B31" s="12423" t="n">
+        <v>10.97</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12272" t="s">
+      <c r="A32" s="12374" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12322" t="n">
-        <v>1.28</v>
+      <c r="B32" s="12424" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12273" t="s">
+      <c r="A33" s="12375" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12323" t="n">
-        <v>1.95</v>
+      <c r="B33" s="12425" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12274" t="s">
+      <c r="A34" s="12376" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12324" t="n">
-        <v>1.28</v>
+      <c r="B34" s="12426" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12275" t="s">
+      <c r="A35" s="12377" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12325" t="n">
+      <c r="B35" s="12427" t="n">
         <v>1.18</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12276" t="s">
+      <c r="A36" s="12378" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12326" t="n">
-        <v>1.4</v>
+      <c r="B36" s="12428" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12277" t="s">
+      <c r="A37" s="12379" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12327" t="n">
-        <v>0.93</v>
+      <c r="B37" s="12429" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12278" t="s">
+      <c r="A38" s="12380" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12328" t="n">
+      <c r="B38" s="12430" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12279" t="s">
+      <c r="A39" s="12381" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12329" t="n">
-        <v>1.76</v>
+      <c r="B39" s="12431" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12280" t="s">
+      <c r="A40" s="12382" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12330" t="n">
-        <v>6.38</v>
+      <c r="B40" s="12432" t="n">
+        <v>6.37</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12281" t="s">
+      <c r="A41" s="12383" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12331" t="n">
-        <v>0.33</v>
+      <c r="B41" s="12433" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12282" t="s">
+      <c r="A42" s="12384" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12332" t="n">
-        <v>0.45</v>
+      <c r="B42" s="12434" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12283" t="s">
+      <c r="A43" s="12385" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12333" t="n">
-        <v>0.98</v>
+      <c r="B43" s="12435" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12284" t="s">
+      <c r="A44" s="12386" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12334" t="n">
-        <v>1.57</v>
+      <c r="B44" s="12436" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12285" t="s">
+      <c r="A45" s="12387" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12335" t="n">
-        <v>4.05</v>
+      <c r="B45" s="12437" t="n">
+        <v>4.02</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12286" t="s">
+      <c r="A46" s="12388" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12336" t="n">
-        <v>2.07</v>
+      <c r="B46" s="12438" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12287" t="s">
+      <c r="A47" s="12389" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12337" t="n">
-        <v>2.08</v>
+      <c r="B47" s="12439" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12288" t="s">
+      <c r="A48" s="12390" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12338" t="n">
+      <c r="B48" s="12440" t="n">
         <v>4.32</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12289" t="s">
+      <c r="A49" s="12391" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12339" t="n">
-        <v>1.95</v>
+      <c r="B49" s="12441" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12290" t="s">
+      <c r="A50" s="12392" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12340" t="n">
+      <c r="B50" s="12442" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12291" t="s">
+      <c r="A51" s="12393" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12341" t="n">
-        <v>1.09</v>
+      <c r="B51" s="12443" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6251" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12444">
+  <cellXfs count="12546">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -37953,410 +38259,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12342" t="s">
+      <c r="A1" s="12444" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12343" t="s">
+      <c r="B1" s="12445" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12344" t="s">
+      <c r="A2" s="12446" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12394" t="n">
-        <v>2.9</v>
+      <c r="B2" s="12496" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12345" t="s">
+      <c r="A3" s="12447" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12395" t="n">
-        <v>2.05</v>
+      <c r="B3" s="12497" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12346" t="s">
+      <c r="A4" s="12448" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12396" t="n">
-        <v>2.63</v>
+      <c r="B4" s="12498" t="n">
+        <v>2.51</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12347" t="s">
+      <c r="A5" s="12449" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12397" t="n">
-        <v>2.3</v>
+      <c r="B5" s="12499" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12348" t="s">
+      <c r="A6" s="12450" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12398" t="n">
+      <c r="B6" s="12500" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="12451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12501" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="12452" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12502" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="12453" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12503" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="12454" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="12504" t="n">
         <v>1.37</v>
       </c>
     </row>
-    <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12349" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12399" t="n">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12350" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12400" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12351" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="12401" t="n">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12352" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="12402" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12353" t="s">
+      <c r="A11" s="12455" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12403" t="n">
+      <c r="B11" s="12505" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12354" t="s">
+      <c r="A12" s="12456" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12404" t="n">
-        <v>1.04</v>
+      <c r="B12" s="12506" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12355" t="s">
+      <c r="A13" s="12457" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12405" t="n">
-        <v>0.87</v>
+      <c r="B13" s="12507" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12356" t="s">
+      <c r="A14" s="12458" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12406" t="n">
+      <c r="B14" s="12508" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12357" t="s">
+      <c r="A15" s="12459" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12407" t="n">
-        <v>0.89</v>
+      <c r="B15" s="12509" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12358" t="s">
+      <c r="A16" s="12460" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12408" t="n">
-        <v>4.68</v>
+      <c r="B16" s="12510" t="n">
+        <v>4.71</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12359" t="s">
+      <c r="A17" s="12461" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12409" t="n">
-        <v>0.88</v>
+      <c r="B17" s="12511" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12360" t="s">
+      <c r="A18" s="12462" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12410" t="n">
-        <v>1.27</v>
+      <c r="B18" s="12512" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12361" t="s">
+      <c r="A19" s="12463" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12411" t="n">
-        <v>3.4</v>
+      <c r="B19" s="12513" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12362" t="s">
+      <c r="A20" s="12464" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12412" t="n">
-        <v>1.94</v>
+      <c r="B20" s="12514" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12363" t="s">
+      <c r="A21" s="12465" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12413" t="n">
-        <v>2.71</v>
+      <c r="B21" s="12515" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12364" t="s">
+      <c r="A22" s="12466" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12414" t="n">
-        <v>0.73</v>
+      <c r="B22" s="12516" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12365" t="s">
+      <c r="A23" s="12467" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12415" t="n">
+      <c r="B23" s="12517" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12366" t="s">
+      <c r="A24" s="12468" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12416" t="n">
-        <v>1.33</v>
+      <c r="B24" s="12518" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12367" t="s">
+      <c r="A25" s="12469" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12417" t="n">
-        <v>0.74</v>
+      <c r="B25" s="12519" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12368" t="s">
+      <c r="A26" s="12470" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12418" t="n">
-        <v>0.39</v>
+      <c r="B26" s="12520" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12369" t="s">
+      <c r="A27" s="12471" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12419" t="n">
-        <v>1.43</v>
+      <c r="B27" s="12521" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12370" t="s">
+      <c r="A28" s="12472" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12420" t="n">
-        <v>1.61</v>
+      <c r="B28" s="12522" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12371" t="s">
+      <c r="A29" s="12473" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12421" t="n">
-        <v>0.54</v>
+      <c r="B29" s="12523" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12372" t="s">
+      <c r="A30" s="12474" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12422" t="n">
-        <v>3.08</v>
+      <c r="B30" s="12524" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12373" t="s">
+      <c r="A31" s="12475" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12423" t="n">
-        <v>10.97</v>
+      <c r="B31" s="12525" t="n">
+        <v>10.86</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12374" t="s">
+      <c r="A32" s="12476" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12424" t="n">
-        <v>1.27</v>
+      <c r="B32" s="12526" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12375" t="s">
+      <c r="A33" s="12477" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12425" t="n">
-        <v>1.94</v>
+      <c r="B33" s="12527" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12376" t="s">
+      <c r="A34" s="12478" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12426" t="n">
+      <c r="B34" s="12528" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12377" t="s">
+      <c r="A35" s="12479" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12427" t="n">
-        <v>1.18</v>
+      <c r="B35" s="12529" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12378" t="s">
+      <c r="A36" s="12480" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12428" t="n">
-        <v>1.41</v>
+      <c r="B36" s="12530" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12379" t="s">
+      <c r="A37" s="12481" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12429" t="n">
-        <v>0.92</v>
+      <c r="B37" s="12531" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12380" t="s">
+      <c r="A38" s="12482" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12430" t="n">
-        <v>1.0</v>
+      <c r="B38" s="12532" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12381" t="s">
+      <c r="A39" s="12483" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12431" t="n">
+      <c r="B39" s="12533" t="n">
         <v>1.73</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12382" t="s">
+      <c r="A40" s="12484" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12432" t="n">
-        <v>6.37</v>
+      <c r="B40" s="12534" t="n">
+        <v>6.52</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12383" t="s">
+      <c r="A41" s="12485" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12433" t="n">
+      <c r="B41" s="12535" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12384" t="s">
+      <c r="A42" s="12486" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12434" t="n">
+      <c r="B42" s="12536" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12385" t="s">
+      <c r="A43" s="12487" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12435" t="n">
-        <v>0.99</v>
+      <c r="B43" s="12537" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12386" t="s">
+      <c r="A44" s="12488" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12436" t="n">
-        <v>1.56</v>
+      <c r="B44" s="12538" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12387" t="s">
+      <c r="A45" s="12489" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12437" t="n">
-        <v>4.02</v>
+      <c r="B45" s="12539" t="n">
+        <v>4.06</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12388" t="s">
+      <c r="A46" s="12490" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12438" t="n">
-        <v>2.08</v>
+      <c r="B46" s="12540" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12389" t="s">
+      <c r="A47" s="12491" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12439" t="n">
-        <v>2.12</v>
+      <c r="B47" s="12541" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12390" t="s">
+      <c r="A48" s="12492" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12440" t="n">
-        <v>4.32</v>
+      <c r="B48" s="12542" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12391" t="s">
+      <c r="A49" s="12493" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12441" t="n">
-        <v>1.9</v>
+      <c r="B49" s="12543" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12392" t="s">
+      <c r="A50" s="12494" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12442" t="n">
-        <v>0.72</v>
+      <c r="B50" s="12544" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12393" t="s">
+      <c r="A51" s="12495" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12443" t="n">
+      <c r="B51" s="12545" t="n">
         <v>1.11</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6303" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12546">
+  <cellXfs count="12648">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -38259,411 +38565,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12444" t="s">
+      <c r="A1" s="12546" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12445" t="s">
+      <c r="B1" s="12547" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12446" t="s">
+      <c r="A2" s="12548" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12496" t="n">
-        <v>2.91</v>
+      <c r="B2" s="12598" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12447" t="s">
+      <c r="A3" s="12549" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12497" t="n">
-        <v>2.06</v>
+      <c r="B3" s="12599" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12448" t="s">
+      <c r="A4" s="12550" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12498" t="n">
-        <v>2.51</v>
+      <c r="B4" s="12600" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12449" t="s">
+      <c r="A5" s="12551" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12499" t="n">
-        <v>2.33</v>
+      <c r="B5" s="12601" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12450" t="s">
+      <c r="A6" s="12552" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12500" t="n">
-        <v>1.35</v>
+      <c r="B6" s="12602" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12451" t="s">
+      <c r="A7" s="12553" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12501" t="n">
-        <v>5.55</v>
+      <c r="B7" s="12603" t="n">
+        <v>5.64</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12452" t="s">
+      <c r="A8" s="12554" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12502" t="n">
-        <v>1.8</v>
+      <c r="B8" s="12604" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12453" t="s">
+      <c r="A9" s="12555" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12503" t="n">
-        <v>1.06</v>
+      <c r="B9" s="12605" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12454" t="s">
+      <c r="A10" s="12556" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12504" t="n">
+      <c r="B10" s="12606" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12455" t="s">
+      <c r="A11" s="12557" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12505" t="n">
-        <v>2.76</v>
+      <c r="B11" s="12607" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12456" t="s">
+      <c r="A12" s="12558" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12506" t="n">
-        <v>1.02</v>
+      <c r="B12" s="12608" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12457" t="s">
+      <c r="A13" s="12559" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12507" t="n">
+      <c r="B13" s="12609" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12458" t="s">
+      <c r="A14" s="12560" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12508" t="n">
-        <v>0.35</v>
+      <c r="B14" s="12610" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12459" t="s">
+      <c r="A15" s="12561" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12509" t="n">
+      <c r="B15" s="12611" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12460" t="s">
+      <c r="A16" s="12562" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12510" t="n">
-        <v>4.71</v>
+      <c r="B16" s="12612" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12461" t="s">
+      <c r="A17" s="12563" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12511" t="n">
-        <v>0.87</v>
+      <c r="B17" s="12613" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12462" t="s">
+      <c r="A18" s="12564" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12512" t="n">
+      <c r="B18" s="12614" t="n">
         <v>1.26</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12463" t="s">
+      <c r="A19" s="12565" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12513" t="n">
-        <v>3.49</v>
+      <c r="B19" s="12615" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12464" t="s">
+      <c r="A20" s="12566" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12514" t="n">
-        <v>1.92</v>
+      <c r="B20" s="12616" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12465" t="s">
+      <c r="A21" s="12567" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12515" t="n">
-        <v>2.66</v>
+      <c r="B21" s="12617" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12466" t="s">
+      <c r="A22" s="12568" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12516" t="n">
-        <v>0.72</v>
+      <c r="B22" s="12618" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12467" t="s">
+      <c r="A23" s="12569" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12517" t="n">
+      <c r="B23" s="12619" t="n">
         <v>0.63</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12468" t="s">
+      <c r="A24" s="12570" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12518" t="n">
-        <v>1.31</v>
+      <c r="B24" s="12620" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12469" t="s">
+      <c r="A25" s="12571" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12519" t="n">
+      <c r="B25" s="12621" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12470" t="s">
+      <c r="A26" s="12572" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12520" t="n">
+      <c r="B26" s="12622" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12471" t="s">
+      <c r="A27" s="12573" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12521" t="n">
-        <v>1.42</v>
+      <c r="B27" s="12623" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12472" t="s">
+      <c r="A28" s="12574" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12522" t="n">
-        <v>1.7</v>
+      <c r="B28" s="12624" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12473" t="s">
+      <c r="A29" s="12575" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12523" t="n">
-        <v>0.53</v>
+      <c r="B29" s="12625" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12474" t="s">
+      <c r="A30" s="12576" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12524" t="n">
-        <v>3.07</v>
+      <c r="B30" s="12626" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12475" t="s">
+      <c r="A31" s="12577" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12525" t="n">
-        <v>10.86</v>
+      <c r="B31" s="12627" t="n">
+        <v>10.76</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12476" t="s">
+      <c r="A32" s="12578" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12526" t="n">
-        <v>1.28</v>
+      <c r="B32" s="12628" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12477" t="s">
+      <c r="A33" s="12579" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12527" t="n">
-        <v>1.92</v>
+      <c r="B33" s="12629" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12478" t="s">
+      <c r="A34" s="12580" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12528" t="n">
-        <v>1.29</v>
+      <c r="B34" s="12630" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12479" t="s">
+      <c r="A35" s="12581" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12529" t="n">
+      <c r="B35" s="12631" t="n">
         <v>1.15</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12480" t="s">
+      <c r="A36" s="12582" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12530" t="n">
+      <c r="B36" s="12632" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12481" t="s">
+      <c r="A37" s="12583" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12531" t="n">
-        <v>0.95</v>
+      <c r="B37" s="12633" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12482" t="s">
+      <c r="A38" s="12584" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12532" t="n">
+      <c r="B38" s="12634" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12483" t="s">
+      <c r="A39" s="12585" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12533" t="n">
-        <v>1.73</v>
+      <c r="B39" s="12635" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12484" t="s">
+      <c r="A40" s="12586" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12534" t="n">
-        <v>6.52</v>
+      <c r="B40" s="12636" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12485" t="s">
+      <c r="A41" s="12587" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12535" t="n">
-        <v>0.31</v>
+      <c r="B41" s="12637" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12486" t="s">
+      <c r="A42" s="12588" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12536" t="n">
+      <c r="B42" s="12638" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12487" t="s">
+      <c r="A43" s="12589" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12537" t="n">
-        <v>0.98</v>
+      <c r="B43" s="12639" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12488" t="s">
+      <c r="A44" s="12590" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12538" t="n">
+      <c r="B44" s="12640" t="n">
         <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12489" t="s">
+      <c r="A45" s="12591" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12539" t="n">
-        <v>4.06</v>
+      <c r="B45" s="12641" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12490" t="s">
+      <c r="A46" s="12592" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12540" t="n">
+      <c r="B46" s="12642" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12491" t="s">
+      <c r="A47" s="12593" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12541" t="n">
-        <v>2.13</v>
+      <c r="B47" s="12643" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12492" t="s">
+      <c r="A48" s="12594" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12542" t="n">
-        <v>4.31</v>
+      <c r="B48" s="12644" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12493" t="s">
+      <c r="A49" s="12595" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12543" t="n">
-        <v>1.95</v>
+      <c r="B49" s="12645" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12494" t="s">
+      <c r="A50" s="12596" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12544" t="n">
-        <v>0.71</v>
+      <c r="B50" s="12646" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12495" t="s">
+      <c r="A51" s="12597" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12545" t="n">
-        <v>1.11</v>
+      <c r="B51" s="12647" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12648">
+  <cellXfs count="12750">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -38565,411 +38871,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12546" t="s">
+      <c r="A1" s="12648" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12547" t="s">
+      <c r="B1" s="12649" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12548" t="s">
+      <c r="A2" s="12650" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12598" t="n">
-        <v>2.93</v>
+      <c r="B2" s="12700" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12549" t="s">
+      <c r="A3" s="12651" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12599" t="n">
-        <v>2.0</v>
+      <c r="B3" s="12701" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12550" t="s">
+      <c r="A4" s="12652" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12600" t="n">
-        <v>2.53</v>
+      <c r="B4" s="12702" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12551" t="s">
+      <c r="A5" s="12653" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12601" t="n">
-        <v>2.29</v>
+      <c r="B5" s="12703" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12552" t="s">
+      <c r="A6" s="12654" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12602" t="n">
+      <c r="B6" s="12704" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12553" t="s">
+      <c r="A7" s="12655" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12603" t="n">
-        <v>5.64</v>
+      <c r="B7" s="12705" t="n">
+        <v>5.61</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12554" t="s">
+      <c r="A8" s="12656" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12604" t="n">
-        <v>1.83</v>
+      <c r="B8" s="12706" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12555" t="s">
+      <c r="A9" s="12657" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12605" t="n">
-        <v>1.07</v>
+      <c r="B9" s="12707" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12556" t="s">
+      <c r="A10" s="12658" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12606" t="n">
-        <v>1.37</v>
+      <c r="B10" s="12708" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12557" t="s">
+      <c r="A11" s="12659" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12607" t="n">
-        <v>2.79</v>
+      <c r="B11" s="12709" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12558" t="s">
+      <c r="A12" s="12660" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12608" t="n">
+      <c r="B12" s="12710" t="n">
         <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12559" t="s">
+      <c r="A13" s="12661" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12609" t="n">
+      <c r="B13" s="12711" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="12662" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="12712" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="12663" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12713" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12560" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="12610" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12561" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12611" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12562" t="s">
+      <c r="A16" s="12664" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12612" t="n">
-        <v>4.67</v>
+      <c r="B16" s="12714" t="n">
+        <v>4.56</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12563" t="s">
+      <c r="A17" s="12665" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12613" t="n">
+      <c r="B17" s="12715" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12564" t="s">
+      <c r="A18" s="12666" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12614" t="n">
-        <v>1.26</v>
+      <c r="B18" s="12716" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12565" t="s">
+      <c r="A19" s="12667" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12615" t="n">
-        <v>3.4</v>
+      <c r="B19" s="12717" t="n">
+        <v>3.37</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12566" t="s">
+      <c r="A20" s="12668" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12616" t="n">
+      <c r="B20" s="12718" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12567" t="s">
+      <c r="A21" s="12669" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12617" t="n">
-        <v>2.71</v>
+      <c r="B21" s="12719" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12568" t="s">
+      <c r="A22" s="12670" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12618" t="n">
-        <v>0.71</v>
+      <c r="B22" s="12720" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12569" t="s">
+      <c r="A23" s="12671" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12619" t="n">
-        <v>0.63</v>
+      <c r="B23" s="12721" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12570" t="s">
+      <c r="A24" s="12672" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12620" t="n">
-        <v>1.32</v>
+      <c r="B24" s="12722" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12571" t="s">
+      <c r="A25" s="12673" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12621" t="n">
-        <v>0.73</v>
+      <c r="B25" s="12723" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12572" t="s">
+      <c r="A26" s="12674" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12622" t="n">
-        <v>0.4</v>
+      <c r="B26" s="12724" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12573" t="s">
+      <c r="A27" s="12675" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12623" t="n">
-        <v>1.4</v>
+      <c r="B27" s="12725" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12574" t="s">
+      <c r="A28" s="12676" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12624" t="n">
-        <v>1.72</v>
+      <c r="B28" s="12726" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12575" t="s">
+      <c r="A29" s="12677" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12625" t="n">
+      <c r="B29" s="12727" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12576" t="s">
+      <c r="A30" s="12678" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12626" t="n">
-        <v>3.09</v>
+      <c r="B30" s="12728" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12577" t="s">
+      <c r="A31" s="12679" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12627" t="n">
-        <v>10.76</v>
+      <c r="B31" s="12729" t="n">
+        <v>10.99</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12578" t="s">
+      <c r="A32" s="12680" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12628" t="n">
-        <v>1.3</v>
+      <c r="B32" s="12730" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12579" t="s">
+      <c r="A33" s="12681" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12629" t="n">
+      <c r="B33" s="12731" t="n">
         <v>1.91</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12580" t="s">
+      <c r="A34" s="12682" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12630" t="n">
-        <v>1.31</v>
+      <c r="B34" s="12732" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12581" t="s">
+      <c r="A35" s="12683" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12631" t="n">
-        <v>1.15</v>
+      <c r="B35" s="12733" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12582" t="s">
+      <c r="A36" s="12684" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12632" t="n">
-        <v>1.4</v>
+      <c r="B36" s="12734" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12583" t="s">
+      <c r="A37" s="12685" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12633" t="n">
-        <v>0.94</v>
+      <c r="B37" s="12735" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12584" t="s">
+      <c r="A38" s="12686" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12634" t="n">
+      <c r="B38" s="12736" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12585" t="s">
+      <c r="A39" s="12687" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12635" t="n">
-        <v>1.72</v>
+      <c r="B39" s="12737" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12586" t="s">
+      <c r="A40" s="12688" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12636" t="n">
-        <v>6.61</v>
+      <c r="B40" s="12738" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12587" t="s">
+      <c r="A41" s="12689" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12637" t="n">
-        <v>0.32</v>
+      <c r="B41" s="12739" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12588" t="s">
+      <c r="A42" s="12690" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12638" t="n">
-        <v>0.46</v>
+      <c r="B42" s="12740" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12589" t="s">
+      <c r="A43" s="12691" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12639" t="n">
-        <v>1.01</v>
+      <c r="B43" s="12741" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12590" t="s">
+      <c r="A44" s="12692" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12640" t="n">
+      <c r="B44" s="12742" t="n">
         <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12591" t="s">
+      <c r="A45" s="12693" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12641" t="n">
-        <v>4.09</v>
+      <c r="B45" s="12743" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12592" t="s">
+      <c r="A46" s="12694" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12642" t="n">
+      <c r="B46" s="12744" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12593" t="s">
+      <c r="A47" s="12695" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12643" t="n">
-        <v>2.07</v>
+      <c r="B47" s="12745" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12594" t="s">
+      <c r="A48" s="12696" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12644" t="n">
-        <v>4.36</v>
+      <c r="B48" s="12746" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12595" t="s">
+      <c r="A49" s="12697" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12645" t="n">
-        <v>1.9</v>
+      <c r="B49" s="12747" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12596" t="s">
+      <c r="A50" s="12698" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12646" t="n">
+      <c r="B50" s="12748" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12597" t="s">
+      <c r="A51" s="12699" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12647" t="n">
-        <v>1.12</v>
+      <c r="B51" s="12749" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6407" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6511" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12750">
+  <cellXfs count="12954">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -38871,411 +39483,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12648" t="s">
+      <c r="A1" s="12852" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12649" t="s">
+      <c r="B1" s="12853" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12650" t="s">
+      <c r="A2" s="12854" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12700" t="n">
-        <v>2.79</v>
+      <c r="B2" s="12904" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12651" t="s">
+      <c r="A3" s="12855" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12701" t="n">
-        <v>2.01</v>
+      <c r="B3" s="12905" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12652" t="s">
+      <c r="A4" s="12856" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12702" t="n">
-        <v>2.52</v>
+      <c r="B4" s="12906" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12653" t="s">
+      <c r="A5" s="12857" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12703" t="n">
-        <v>2.3</v>
+      <c r="B5" s="12907" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12654" t="s">
+      <c r="A6" s="12858" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="12704" t="n">
-        <v>1.34</v>
+      <c r="B6" s="12908" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12655" t="s">
+      <c r="A7" s="12859" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12705" t="n">
-        <v>5.61</v>
+      <c r="B7" s="12909" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12656" t="s">
+      <c r="A8" s="12860" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12706" t="n">
-        <v>1.75</v>
+      <c r="B8" s="12910" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12657" t="s">
+      <c r="A9" s="12861" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12707" t="n">
+      <c r="B9" s="12911" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12658" t="s">
+      <c r="A10" s="12862" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12708" t="n">
+      <c r="B10" s="12912" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12659" t="s">
+      <c r="A11" s="12863" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="12709" t="n">
-        <v>2.8</v>
+      <c r="B11" s="12913" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12660" t="s">
+      <c r="A12" s="12864" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12710" t="n">
-        <v>1.03</v>
+      <c r="B12" s="12914" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12661" t="s">
+      <c r="A13" s="12865" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12711" t="n">
-        <v>0.83</v>
+      <c r="B13" s="12915" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12662" t="s">
+      <c r="A14" s="12866" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12712" t="n">
-        <v>0.35</v>
+      <c r="B14" s="12916" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12663" t="s">
+      <c r="A15" s="12867" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12713" t="n">
+      <c r="B15" s="12917" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12664" t="s">
+      <c r="A16" s="12868" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12714" t="n">
-        <v>4.56</v>
+      <c r="B16" s="12918" t="n">
+        <v>4.49</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12665" t="s">
+      <c r="A17" s="12869" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12715" t="n">
-        <v>0.85</v>
+      <c r="B17" s="12919" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12666" t="s">
+      <c r="A18" s="12870" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12716" t="n">
-        <v>1.24</v>
+      <c r="B18" s="12920" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12667" t="s">
+      <c r="A19" s="12871" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12717" t="n">
-        <v>3.37</v>
+      <c r="B19" s="12921" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12668" t="s">
+      <c r="A20" s="12872" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12718" t="n">
-        <v>1.88</v>
+      <c r="B20" s="12922" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12669" t="s">
+      <c r="A21" s="12873" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12719" t="n">
-        <v>2.75</v>
+      <c r="B21" s="12923" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12670" t="s">
+      <c r="A22" s="12874" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12720" t="n">
-        <v>0.73</v>
+      <c r="B22" s="12924" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12671" t="s">
+      <c r="A23" s="12875" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12721" t="n">
-        <v>0.62</v>
+      <c r="B23" s="12925" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12672" t="s">
+      <c r="A24" s="12876" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12722" t="n">
+      <c r="B24" s="12926" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12673" t="s">
+      <c r="A25" s="12877" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12723" t="n">
-        <v>0.72</v>
+      <c r="B25" s="12927" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12674" t="s">
+      <c r="A26" s="12878" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12724" t="n">
-        <v>0.41</v>
+      <c r="B26" s="12928" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12675" t="s">
+      <c r="A27" s="12879" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12725" t="n">
-        <v>1.33</v>
+      <c r="B27" s="12929" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12676" t="s">
+      <c r="A28" s="12880" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="12726" t="n">
-        <v>1.78</v>
+      <c r="B28" s="12930" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12677" t="s">
+      <c r="A29" s="12881" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="12727" t="n">
-        <v>0.54</v>
+      <c r="B29" s="12931" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12678" t="s">
+      <c r="A30" s="12882" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12728" t="n">
-        <v>3.06</v>
+      <c r="B30" s="12932" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12679" t="s">
+      <c r="A31" s="12883" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12729" t="n">
-        <v>10.99</v>
+      <c r="B31" s="12933" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12680" t="s">
+      <c r="A32" s="12884" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="12730" t="n">
-        <v>1.29</v>
+      <c r="B32" s="12934" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12681" t="s">
+      <c r="A33" s="12885" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="12731" t="n">
-        <v>1.91</v>
+      <c r="B33" s="12935" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12682" t="s">
+      <c r="A34" s="12886" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="12732" t="n">
-        <v>1.32</v>
+      <c r="B34" s="12936" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12683" t="s">
+      <c r="A35" s="12887" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12733" t="n">
-        <v>1.12</v>
+      <c r="B35" s="12937" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12684" t="s">
+      <c r="A36" s="12888" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="12734" t="n">
-        <v>1.44</v>
+      <c r="B36" s="12938" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12685" t="s">
+      <c r="A37" s="12889" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="12735" t="n">
-        <v>0.96</v>
+      <c r="B37" s="12939" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12686" t="s">
+      <c r="A38" s="12890" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="12736" t="n">
-        <v>0.99</v>
+      <c r="B38" s="12940" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12687" t="s">
+      <c r="A39" s="12891" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="12737" t="n">
-        <v>1.7</v>
+      <c r="B39" s="12941" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12688" t="s">
+      <c r="A40" s="12892" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="12738" t="n">
-        <v>6.7</v>
+      <c r="B40" s="12942" t="n">
+        <v>6.66</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12689" t="s">
+      <c r="A41" s="12893" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="12739" t="n">
+      <c r="B41" s="12943" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12690" t="s">
+      <c r="A42" s="12894" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="12740" t="n">
-        <v>0.45</v>
+      <c r="B42" s="12944" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12691" t="s">
+      <c r="A43" s="12895" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12741" t="n">
-        <v>0.96</v>
+      <c r="B43" s="12945" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12692" t="s">
+      <c r="A44" s="12896" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12742" t="n">
-        <v>1.58</v>
+      <c r="B44" s="12946" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12693" t="s">
+      <c r="A45" s="12897" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12743" t="n">
-        <v>4.23</v>
+      <c r="B45" s="12947" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12694" t="s">
+      <c r="A46" s="12898" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12744" t="n">
-        <v>2.06</v>
+      <c r="B46" s="12948" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12695" t="s">
+      <c r="A47" s="12899" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12745" t="n">
-        <v>2.05</v>
+      <c r="B47" s="12949" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12696" t="s">
+      <c r="A48" s="12900" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12746" t="n">
+      <c r="B48" s="12950" t="n">
         <v>4.46</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12697" t="s">
+      <c r="A49" s="12901" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12747" t="n">
-        <v>1.89</v>
+      <c r="B49" s="12951" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12698" t="s">
+      <c r="A50" s="12902" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12748" t="n">
-        <v>0.7</v>
+      <c r="B50" s="12952" t="n">
+        <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12699" t="s">
+      <c r="A51" s="12903" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12749" t="n">
-        <v>1.13</v>
+      <c r="B51" s="12953" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6511" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12954">
+  <cellXfs count="13056">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -39483,411 +39789,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12852" t="s">
+      <c r="A1" s="12954" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12853" t="s">
+      <c r="B1" s="12955" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12854" t="s">
+      <c r="A2" s="12956" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12904" t="n">
+      <c r="B2" s="13006" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="12957" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13007" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="12958" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="13008" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="12959" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13009" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="12960" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="13010" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="12961" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13011" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="12962" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13012" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="12963" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="13013" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="12964" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="13014" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="12965" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13015" t="n">
         <v>2.86</v>
       </c>
     </row>
-    <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12855" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="12905" t="n">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12856" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="12906" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12857" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12907" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12858" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="12908" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12859" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12909" t="n">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12860" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12910" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12861" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="12911" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12862" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="12912" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12863" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12913" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12864" t="s">
+      <c r="A12" s="12966" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12914" t="n">
-        <v>1.01</v>
+      <c r="B12" s="13016" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12865" t="s">
+      <c r="A13" s="12967" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12915" t="n">
-        <v>0.82</v>
+      <c r="B13" s="13017" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12866" t="s">
+      <c r="A14" s="12968" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="12916" t="n">
+      <c r="B14" s="13018" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12867" t="s">
+      <c r="A15" s="12969" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12917" t="n">
-        <v>0.86</v>
+      <c r="B15" s="13019" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12868" t="s">
+      <c r="A16" s="12970" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12918" t="n">
-        <v>4.49</v>
+      <c r="B16" s="13020" t="n">
+        <v>4.51</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12869" t="s">
+      <c r="A17" s="12971" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12919" t="n">
-        <v>0.84</v>
+      <c r="B17" s="13021" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12870" t="s">
+      <c r="A18" s="12972" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12920" t="n">
-        <v>1.23</v>
+      <c r="B18" s="13022" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12871" t="s">
+      <c r="A19" s="12973" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12921" t="n">
-        <v>3.32</v>
+      <c r="B19" s="13023" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12872" t="s">
+      <c r="A20" s="12974" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12922" t="n">
-        <v>1.82</v>
+      <c r="B20" s="13024" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12873" t="s">
+      <c r="A21" s="12975" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12923" t="n">
-        <v>2.69</v>
+      <c r="B21" s="13025" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12874" t="s">
+      <c r="A22" s="12976" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12924" t="n">
+      <c r="B22" s="13026" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12875" t="s">
+      <c r="A23" s="12977" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12925" t="n">
+      <c r="B23" s="13027" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12876" t="s">
+      <c r="A24" s="12978" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="12926" t="n">
-        <v>1.29</v>
+      <c r="B24" s="13028" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12877" t="s">
+      <c r="A25" s="12979" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="12927" t="n">
-        <v>0.74</v>
+      <c r="B25" s="13029" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12878" t="s">
+      <c r="A26" s="12980" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12928" t="n">
+      <c r="B26" s="13030" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="12981" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="13031" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="12982" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="13032" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="12983" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="13033" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="12984" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="13034" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="12985" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13035" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="12986" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="13036" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="12987" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="13037" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="12988" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="13038" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="12989" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="13039" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="12990" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="13040" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="12991" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="13041" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="12992" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="13042" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="12993" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="13043" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="12994" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="13044" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="12995" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="13045" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="12996" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="13046" t="n">
         <v>0.44</v>
       </c>
     </row>
-    <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12879" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="12929" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12880" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12930" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12881" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="12931" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12882" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="12932" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12883" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="12933" t="n">
-        <v>11.19</v>
-      </c>
-    </row>
-    <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12884" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="12934" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12885" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="12935" t="n">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12886" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="12936" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12887" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="12937" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12888" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="12938" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12889" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="12939" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12890" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="12940" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12891" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="12941" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12892" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="12942" t="n">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12893" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="12943" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12894" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="12944" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12895" t="s">
+      <c r="A43" s="12997" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="12945" t="n">
-        <v>0.92</v>
+      <c r="B43" s="13047" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12896" t="s">
+      <c r="A44" s="12998" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="12946" t="n">
-        <v>1.55</v>
+      <c r="B44" s="13048" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12897" t="s">
+      <c r="A45" s="12999" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="12947" t="n">
-        <v>4.27</v>
+      <c r="B45" s="13049" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12898" t="s">
+      <c r="A46" s="13000" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12948" t="n">
-        <v>2.01</v>
+      <c r="B46" s="13050" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="12899" t="s">
+      <c r="A47" s="13001" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12949" t="n">
-        <v>2.0</v>
+      <c r="B47" s="13051" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="12900" t="s">
+      <c r="A48" s="13002" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12950" t="n">
+      <c r="B48" s="13052" t="n">
         <v>4.46</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="12901" t="s">
+      <c r="A49" s="13003" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="12951" t="n">
+      <c r="B49" s="13053" t="n">
         <v>1.86</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="12902" t="s">
+      <c r="A50" s="13004" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="12952" t="n">
-        <v>0.69</v>
+      <c r="B50" s="13054" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="12903" t="s">
+      <c r="A51" s="13005" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12953" t="n">
-        <v>1.09</v>
+      <c r="B51" s="13055" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6615" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13056">
+  <cellXfs count="13158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -39789,411 +40095,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="12954" t="s">
+      <c r="A1" s="13056" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12955" t="s">
+      <c r="B1" s="13057" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12956" t="s">
+      <c r="A2" s="13058" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13006" t="n">
-        <v>2.81</v>
+      <c r="B2" s="13108" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="12957" t="s">
+      <c r="A3" s="13059" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13007" t="n">
-        <v>2.0</v>
+      <c r="B3" s="13109" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="12958" t="s">
+      <c r="A4" s="13060" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13008" t="n">
-        <v>2.54</v>
+      <c r="B4" s="13110" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="12959" t="s">
+      <c r="A5" s="13061" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13009" t="n">
-        <v>2.33</v>
+      <c r="B5" s="13111" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="12960" t="s">
+      <c r="A6" s="13062" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13010" t="n">
-        <v>1.3</v>
+      <c r="B6" s="13112" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="12961" t="s">
+      <c r="A7" s="13063" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13011" t="n">
-        <v>5.6</v>
+      <c r="B7" s="13113" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="12962" t="s">
+      <c r="A8" s="13064" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13012" t="n">
-        <v>1.77</v>
+      <c r="B8" s="13114" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="12963" t="s">
+      <c r="A9" s="13065" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13013" t="n">
-        <v>1.13</v>
+      <c r="B9" s="13115" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="12964" t="s">
+      <c r="A10" s="13066" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13014" t="n">
-        <v>1.36</v>
+      <c r="B10" s="13116" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12965" t="s">
+      <c r="A11" s="13067" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13015" t="n">
-        <v>2.86</v>
+      <c r="B11" s="13117" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="12966" t="s">
+      <c r="A12" s="13068" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13016" t="n">
-        <v>1.03</v>
+      <c r="B12" s="13118" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="12967" t="s">
+      <c r="A13" s="13069" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13017" t="n">
-        <v>0.83</v>
+      <c r="B13" s="13119" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="12968" t="s">
+      <c r="A14" s="13070" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13018" t="n">
-        <v>0.36</v>
+      <c r="B14" s="13120" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12969" t="s">
+      <c r="A15" s="13071" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13019" t="n">
-        <v>0.85</v>
+      <c r="B15" s="13121" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12970" t="s">
+      <c r="A16" s="13072" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13020" t="n">
-        <v>4.51</v>
+      <c r="B16" s="13122" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12971" t="s">
+      <c r="A17" s="13073" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13021" t="n">
+      <c r="B17" s="13123" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="12972" t="s">
+      <c r="A18" s="13074" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13022" t="n">
-        <v>1.22</v>
+      <c r="B18" s="13124" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="12973" t="s">
+      <c r="A19" s="13075" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13023" t="n">
-        <v>3.25</v>
+      <c r="B19" s="13125" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="12974" t="s">
+      <c r="A20" s="13076" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13024" t="n">
-        <v>1.86</v>
+      <c r="B20" s="13126" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="12975" t="s">
+      <c r="A21" s="13077" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13025" t="n">
-        <v>2.79</v>
+      <c r="B21" s="13127" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="12976" t="s">
+      <c r="A22" s="13078" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13026" t="n">
-        <v>0.77</v>
+      <c r="B22" s="13128" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="12977" t="s">
+      <c r="A23" s="13079" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13027" t="n">
-        <v>0.6</v>
+      <c r="B23" s="13129" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="12978" t="s">
+      <c r="A24" s="13080" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13028" t="n">
-        <v>1.27</v>
+      <c r="B24" s="13130" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="12979" t="s">
+      <c r="A25" s="13081" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13029" t="n">
+      <c r="B25" s="13131" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="12980" t="s">
+      <c r="A26" s="13082" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13030" t="n">
+      <c r="B26" s="13132" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="12981" t="s">
+      <c r="A27" s="13083" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13031" t="n">
-        <v>1.32</v>
+      <c r="B27" s="13133" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="12982" t="s">
+      <c r="A28" s="13084" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13032" t="n">
-        <v>1.79</v>
+      <c r="B28" s="13134" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="12983" t="s">
+      <c r="A29" s="13085" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13033" t="n">
+      <c r="B29" s="13135" t="n">
         <v>0.55</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12984" t="s">
+      <c r="A30" s="13086" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13034" t="n">
-        <v>3.09</v>
+      <c r="B30" s="13136" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="12985" t="s">
+      <c r="A31" s="13087" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13035" t="n">
-        <v>11.08</v>
+      <c r="B31" s="13137" t="n">
+        <v>10.76</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="12986" t="s">
+      <c r="A32" s="13088" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13036" t="n">
-        <v>1.3</v>
+      <c r="B32" s="13138" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="12987" t="s">
+      <c r="A33" s="13089" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13037" t="n">
-        <v>1.89</v>
+      <c r="B33" s="13139" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="12988" t="s">
+      <c r="A34" s="13090" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13038" t="n">
-        <v>1.34</v>
+      <c r="B34" s="13140" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="12989" t="s">
+      <c r="A35" s="13091" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13039" t="n">
+      <c r="B35" s="13141" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="12990" t="s">
+      <c r="A36" s="13092" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13040" t="n">
-        <v>1.42</v>
+      <c r="B36" s="13142" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="12991" t="s">
+      <c r="A37" s="13093" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13041" t="n">
-        <v>0.96</v>
+      <c r="B37" s="13143" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12992" t="s">
+      <c r="A38" s="13094" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13042" t="n">
+      <c r="B38" s="13144" t="n">
         <v>1.01</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="12993" t="s">
+      <c r="A39" s="13095" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13043" t="n">
-        <v>1.65</v>
+      <c r="B39" s="13145" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="12994" t="s">
+      <c r="A40" s="13096" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13044" t="n">
-        <v>6.63</v>
+      <c r="B40" s="13146" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12995" t="s">
+      <c r="A41" s="13097" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13045" t="n">
-        <v>0.3</v>
+      <c r="B41" s="13147" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12996" t="s">
+      <c r="A42" s="13098" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13046" t="n">
-        <v>0.44</v>
+      <c r="B42" s="13148" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="12997" t="s">
+      <c r="A43" s="13099" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13047" t="n">
+      <c r="B43" s="13149" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="12998" t="s">
+      <c r="A44" s="13100" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13048" t="n">
+      <c r="B44" s="13150" t="n">
         <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="12999" t="s">
+      <c r="A45" s="13101" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13049" t="n">
-        <v>4.21</v>
+      <c r="B45" s="13151" t="n">
+        <v>4.16</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13000" t="s">
+      <c r="A46" s="13102" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13050" t="n">
-        <v>2.06</v>
+      <c r="B46" s="13152" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13001" t="s">
+      <c r="A47" s="13103" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13051" t="n">
-        <v>2.07</v>
+      <c r="B47" s="13153" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13002" t="s">
+      <c r="A48" s="13104" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13052" t="n">
-        <v>4.46</v>
+      <c r="B48" s="13154" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13003" t="s">
+      <c r="A49" s="13105" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13053" t="n">
-        <v>1.86</v>
+      <c r="B49" s="13155" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13004" t="s">
+      <c r="A50" s="13106" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13054" t="n">
+      <c r="B50" s="13156" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13005" t="s">
+      <c r="A51" s="13107" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13055" t="n">
-        <v>1.16</v>
+      <c r="B51" s="13157" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6615" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13158">
+  <cellXfs count="13362">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -40095,411 +40707,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13056" t="s">
+      <c r="A1" s="13260" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13057" t="s">
+      <c r="B1" s="13261" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13058" t="s">
+      <c r="A2" s="13262" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13108" t="n">
-        <v>2.86</v>
+      <c r="B2" s="13312" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13059" t="s">
+      <c r="A3" s="13263" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13109" t="n">
-        <v>1.97</v>
+      <c r="B3" s="13313" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13060" t="s">
+      <c r="A4" s="13264" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13110" t="n">
-        <v>2.58</v>
+      <c r="B4" s="13314" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13061" t="s">
+      <c r="A5" s="13265" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13111" t="n">
+      <c r="B5" s="13315" t="n">
         <v>2.31</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13062" t="s">
+      <c r="A6" s="13266" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13112" t="n">
-        <v>1.33</v>
+      <c r="B6" s="13316" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13063" t="s">
+      <c r="A7" s="13267" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13113" t="n">
-        <v>5.55</v>
+      <c r="B7" s="13317" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13064" t="s">
+      <c r="A8" s="13268" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13114" t="n">
+      <c r="B8" s="13318" t="n">
         <v>1.79</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13065" t="s">
+      <c r="A9" s="13269" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13115" t="n">
-        <v>1.14</v>
+      <c r="B9" s="13319" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13066" t="s">
+      <c r="A10" s="13270" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13116" t="n">
+      <c r="B10" s="13320" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13067" t="s">
+      <c r="A11" s="13271" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13117" t="n">
-        <v>2.85</v>
+      <c r="B11" s="13321" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13068" t="s">
+      <c r="A12" s="13272" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13118" t="n">
-        <v>1.04</v>
+      <c r="B12" s="13322" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13069" t="s">
+      <c r="A13" s="13273" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13119" t="n">
-        <v>0.86</v>
+      <c r="B13" s="13323" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13070" t="s">
+      <c r="A14" s="13274" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13120" t="n">
+      <c r="B14" s="13324" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13071" t="s">
+      <c r="A15" s="13275" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13121" t="n">
-        <v>0.86</v>
+      <c r="B15" s="13325" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13072" t="s">
+      <c r="A16" s="13276" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13122" t="n">
-        <v>4.7</v>
+      <c r="B16" s="13326" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13073" t="s">
+      <c r="A17" s="13277" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13123" t="n">
-        <v>0.88</v>
+      <c r="B17" s="13327" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13074" t="s">
+      <c r="A18" s="13278" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13124" t="n">
-        <v>1.23</v>
+      <c r="B18" s="13328" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13075" t="s">
+      <c r="A19" s="13279" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13125" t="n">
-        <v>3.33</v>
+      <c r="B19" s="13329" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13076" t="s">
+      <c r="A20" s="13280" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13126" t="n">
-        <v>1.85</v>
+      <c r="B20" s="13330" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13077" t="s">
+      <c r="A21" s="13281" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13127" t="n">
-        <v>2.89</v>
+      <c r="B21" s="13331" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13078" t="s">
+      <c r="A22" s="13282" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13128" t="n">
+      <c r="B22" s="13332" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13079" t="s">
+      <c r="A23" s="13283" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13129" t="n">
-        <v>0.62</v>
+      <c r="B23" s="13333" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13080" t="s">
+      <c r="A24" s="13284" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13130" t="n">
-        <v>1.28</v>
+      <c r="B24" s="13334" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13081" t="s">
+      <c r="A25" s="13285" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13131" t="n">
-        <v>0.73</v>
+      <c r="B25" s="13335" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13082" t="s">
+      <c r="A26" s="13286" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13132" t="n">
-        <v>0.43</v>
+      <c r="B26" s="13336" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13083" t="s">
+      <c r="A27" s="13287" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13133" t="n">
-        <v>1.34</v>
+      <c r="B27" s="13337" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13084" t="s">
+      <c r="A28" s="13288" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13134" t="n">
-        <v>1.77</v>
+      <c r="B28" s="13338" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13085" t="s">
+      <c r="A29" s="13289" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13135" t="n">
-        <v>0.55</v>
+      <c r="B29" s="13339" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13086" t="s">
+      <c r="A30" s="13290" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13136" t="n">
-        <v>3.06</v>
+      <c r="B30" s="13340" t="n">
+        <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13087" t="s">
+      <c r="A31" s="13291" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13137" t="n">
-        <v>10.76</v>
+      <c r="B31" s="13341" t="n">
+        <v>10.81</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13088" t="s">
+      <c r="A32" s="13292" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13138" t="n">
-        <v>1.31</v>
+      <c r="B32" s="13342" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13089" t="s">
+      <c r="A33" s="13293" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13139" t="n">
-        <v>1.9</v>
+      <c r="B33" s="13343" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13090" t="s">
+      <c r="A34" s="13294" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13140" t="n">
+      <c r="B34" s="13344" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13091" t="s">
+      <c r="A35" s="13295" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13141" t="n">
-        <v>1.1</v>
+      <c r="B35" s="13345" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13092" t="s">
+      <c r="A36" s="13296" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13142" t="n">
-        <v>1.44</v>
+      <c r="B36" s="13346" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13093" t="s">
+      <c r="A37" s="13297" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13143" t="n">
-        <v>0.94</v>
+      <c r="B37" s="13347" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13094" t="s">
+      <c r="A38" s="13298" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13144" t="n">
-        <v>1.01</v>
+      <c r="B38" s="13348" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13095" t="s">
+      <c r="A39" s="13299" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13145" t="n">
-        <v>1.66</v>
+      <c r="B39" s="13349" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13096" t="s">
+      <c r="A40" s="13300" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13146" t="n">
-        <v>6.54</v>
+      <c r="B40" s="13350" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13097" t="s">
+      <c r="A41" s="13301" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13147" t="n">
+      <c r="B41" s="13351" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13098" t="s">
+      <c r="A42" s="13302" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13148" t="n">
+      <c r="B42" s="13352" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13099" t="s">
+      <c r="A43" s="13303" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13149" t="n">
-        <v>0.93</v>
+      <c r="B43" s="13353" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13100" t="s">
+      <c r="A44" s="13304" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13150" t="n">
-        <v>1.58</v>
+      <c r="B44" s="13354" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13101" t="s">
+      <c r="A45" s="13305" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13151" t="n">
-        <v>4.16</v>
+      <c r="B45" s="13355" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13102" t="s">
+      <c r="A46" s="13306" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13152" t="n">
-        <v>2.04</v>
+      <c r="B46" s="13356" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13103" t="s">
+      <c r="A47" s="13307" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13153" t="n">
-        <v>2.12</v>
+      <c r="B47" s="13357" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13104" t="s">
+      <c r="A48" s="13308" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13154" t="n">
-        <v>4.42</v>
+      <c r="B48" s="13358" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13105" t="s">
+      <c r="A49" s="13309" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13155" t="n">
-        <v>1.91</v>
+      <c r="B49" s="13359" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13106" t="s">
+      <c r="A50" s="13310" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13156" t="n">
-        <v>0.7</v>
+      <c r="B50" s="13360" t="n">
+        <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13107" t="s">
+      <c r="A51" s="13311" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13157" t="n">
-        <v>1.15</v>
+      <c r="B51" s="13361" t="n">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13362">
+  <cellXfs count="13464">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -40707,411 +41013,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13260" t="s">
+      <c r="A1" s="13362" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13261" t="s">
+      <c r="B1" s="13363" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13262" t="s">
+      <c r="A2" s="13364" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13312" t="n">
-        <v>2.84</v>
+      <c r="B2" s="13414" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13263" t="s">
+      <c r="A3" s="13365" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13313" t="n">
-        <v>1.94</v>
+      <c r="B3" s="13415" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13264" t="s">
+      <c r="A4" s="13366" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13314" t="n">
-        <v>2.6</v>
+      <c r="B4" s="13416" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13265" t="s">
+      <c r="A5" s="13367" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13315" t="n">
-        <v>2.31</v>
+      <c r="B5" s="13417" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13266" t="s">
+      <c r="A6" s="13368" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13316" t="n">
-        <v>1.29</v>
+      <c r="B6" s="13418" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13267" t="s">
+      <c r="A7" s="13369" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13317" t="n">
+      <c r="B7" s="13419" t="n">
         <v>5.57</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13268" t="s">
+      <c r="A8" s="13370" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13318" t="n">
-        <v>1.79</v>
+      <c r="B8" s="13420" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13269" t="s">
+      <c r="A9" s="13371" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13319" t="n">
-        <v>1.13</v>
+      <c r="B9" s="13421" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13270" t="s">
+      <c r="A10" s="13372" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13320" t="n">
+      <c r="B10" s="13422" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13271" t="s">
+      <c r="A11" s="13373" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13321" t="n">
-        <v>2.84</v>
+      <c r="B11" s="13423" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13272" t="s">
+      <c r="A12" s="13374" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13322" t="n">
-        <v>1.03</v>
+      <c r="B12" s="13424" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13273" t="s">
+      <c r="A13" s="13375" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13323" t="n">
+      <c r="B13" s="13425" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13274" t="s">
+      <c r="A14" s="13376" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13324" t="n">
+      <c r="B14" s="13426" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13275" t="s">
+      <c r="A15" s="13377" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13325" t="n">
-        <v>0.85</v>
+      <c r="B15" s="13427" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13276" t="s">
+      <c r="A16" s="13378" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13326" t="n">
-        <v>4.72</v>
+      <c r="B16" s="13428" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13277" t="s">
+      <c r="A17" s="13379" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13327" t="n">
-        <v>0.85</v>
+      <c r="B17" s="13429" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13278" t="s">
+      <c r="A18" s="13380" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13328" t="n">
-        <v>1.22</v>
+      <c r="B18" s="13430" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13279" t="s">
+      <c r="A19" s="13381" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13329" t="n">
-        <v>3.42</v>
+      <c r="B19" s="13431" t="n">
+        <v>3.43</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13280" t="s">
+      <c r="A20" s="13382" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13330" t="n">
-        <v>1.86</v>
+      <c r="B20" s="13432" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13281" t="s">
+      <c r="A21" s="13383" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13331" t="n">
-        <v>2.82</v>
+      <c r="B21" s="13433" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13282" t="s">
+      <c r="A22" s="13384" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13332" t="n">
+      <c r="B22" s="13434" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13283" t="s">
+      <c r="A23" s="13385" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13333" t="n">
-        <v>0.61</v>
+      <c r="B23" s="13435" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13284" t="s">
+      <c r="A24" s="13386" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13334" t="n">
-        <v>1.27</v>
+      <c r="B24" s="13436" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13285" t="s">
+      <c r="A25" s="13387" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13335" t="n">
-        <v>0.72</v>
+      <c r="B25" s="13437" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13286" t="s">
+      <c r="A26" s="13388" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13336" t="n">
+      <c r="B26" s="13438" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13287" t="s">
+      <c r="A27" s="13389" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13337" t="n">
+      <c r="B27" s="13439" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13288" t="s">
+      <c r="A28" s="13390" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13338" t="n">
-        <v>1.76</v>
+      <c r="B28" s="13440" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13289" t="s">
+      <c r="A29" s="13391" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13339" t="n">
-        <v>0.53</v>
+      <c r="B29" s="13441" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13290" t="s">
+      <c r="A30" s="13392" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13340" t="n">
-        <v>3.04</v>
+      <c r="B30" s="13442" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13291" t="s">
+      <c r="A31" s="13393" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13341" t="n">
-        <v>10.81</v>
+      <c r="B31" s="13443" t="n">
+        <v>10.78</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13292" t="s">
+      <c r="A32" s="13394" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13342" t="n">
-        <v>1.3</v>
+      <c r="B32" s="13444" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13293" t="s">
+      <c r="A33" s="13395" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13343" t="n">
-        <v>1.88</v>
+      <c r="B33" s="13445" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13294" t="s">
+      <c r="A34" s="13396" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13344" t="n">
+      <c r="B34" s="13446" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13295" t="s">
+      <c r="A35" s="13397" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13345" t="n">
-        <v>1.08</v>
+      <c r="B35" s="13447" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13296" t="s">
+      <c r="A36" s="13398" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13346" t="n">
-        <v>1.4</v>
+      <c r="B36" s="13448" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13297" t="s">
+      <c r="A37" s="13399" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13347" t="n">
+      <c r="B37" s="13449" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13298" t="s">
+      <c r="A38" s="13400" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13348" t="n">
-        <v>1.0</v>
+      <c r="B38" s="13450" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13299" t="s">
+      <c r="A39" s="13401" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13349" t="n">
+      <c r="B39" s="13451" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13300" t="s">
+      <c r="A40" s="13402" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13350" t="n">
-        <v>6.75</v>
+      <c r="B40" s="13452" t="n">
+        <v>6.72</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13301" t="s">
+      <c r="A41" s="13403" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13351" t="n">
-        <v>0.31</v>
+      <c r="B41" s="13453" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13302" t="s">
+      <c r="A42" s="13404" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13352" t="n">
-        <v>0.45</v>
+      <c r="B42" s="13454" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13303" t="s">
+      <c r="A43" s="13405" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13353" t="n">
-        <v>0.92</v>
+      <c r="B43" s="13455" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13304" t="s">
+      <c r="A44" s="13406" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13354" t="n">
+      <c r="B44" s="13456" t="n">
         <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13305" t="s">
+      <c r="A45" s="13407" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13355" t="n">
-        <v>4.2</v>
+      <c r="B45" s="13457" t="n">
+        <v>4.16</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13306" t="s">
+      <c r="A46" s="13408" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13356" t="n">
-        <v>2.03</v>
+      <c r="B46" s="13458" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13307" t="s">
+      <c r="A47" s="13409" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13357" t="n">
-        <v>2.15</v>
+      <c r="B47" s="13459" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13308" t="s">
+      <c r="A48" s="13410" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13358" t="n">
-        <v>4.47</v>
+      <c r="B48" s="13460" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13309" t="s">
+      <c r="A49" s="13411" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13359" t="n">
+      <c r="B49" s="13461" t="n">
         <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13310" t="s">
+      <c r="A50" s="13412" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13360" t="n">
-        <v>0.69</v>
+      <c r="B50" s="13462" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13311" t="s">
+      <c r="A51" s="13413" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13361" t="n">
-        <v>1.14</v>
+      <c r="B51" s="13463" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6771" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6823" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13464">
+  <cellXfs count="13566">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -41013,411 +41319,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13362" t="s">
+      <c r="A1" s="13464" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13363" t="s">
+      <c r="B1" s="13465" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13364" t="s">
+      <c r="A2" s="13466" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13414" t="n">
-        <v>2.91</v>
+      <c r="B2" s="13516" t="n">
+        <v>2.97</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13365" t="s">
+      <c r="A3" s="13467" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13415" t="n">
-        <v>1.95</v>
+      <c r="B3" s="13517" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13366" t="s">
+      <c r="A4" s="13468" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13416" t="n">
-        <v>2.65</v>
+      <c r="B4" s="13518" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13367" t="s">
+      <c r="A5" s="13469" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13417" t="n">
-        <v>2.33</v>
+      <c r="B5" s="13519" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13368" t="s">
+      <c r="A6" s="13470" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13418" t="n">
-        <v>1.3</v>
+      <c r="B6" s="13520" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13369" t="s">
+      <c r="A7" s="13471" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13419" t="n">
-        <v>5.57</v>
+      <c r="B7" s="13521" t="n">
+        <v>5.52</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13370" t="s">
+      <c r="A8" s="13472" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13420" t="n">
-        <v>1.82</v>
+      <c r="B8" s="13522" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13371" t="s">
+      <c r="A9" s="13473" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13421" t="n">
+      <c r="B9" s="13523" t="n">
         <v>1.12</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13372" t="s">
+      <c r="A10" s="13474" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13422" t="n">
-        <v>1.35</v>
+      <c r="B10" s="13524" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13373" t="s">
+      <c r="A11" s="13475" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13423" t="n">
-        <v>2.89</v>
+      <c r="B11" s="13525" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13374" t="s">
+      <c r="A12" s="13476" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13424" t="n">
-        <v>1.02</v>
+      <c r="B12" s="13526" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13375" t="s">
+      <c r="A13" s="13477" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13425" t="n">
-        <v>0.87</v>
+      <c r="B13" s="13527" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13376" t="s">
+      <c r="A14" s="13478" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13426" t="n">
+      <c r="B14" s="13528" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13377" t="s">
+      <c r="A15" s="13479" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13427" t="n">
+      <c r="B15" s="13529" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13378" t="s">
+      <c r="A16" s="13480" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13428" t="n">
-        <v>4.73</v>
+      <c r="B16" s="13530" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13379" t="s">
+      <c r="A17" s="13481" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13429" t="n">
-        <v>0.84</v>
+      <c r="B17" s="13531" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13380" t="s">
+      <c r="A18" s="13482" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13430" t="n">
+      <c r="B18" s="13532" t="n">
         <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13381" t="s">
+      <c r="A19" s="13483" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13431" t="n">
-        <v>3.43</v>
+      <c r="B19" s="13533" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13382" t="s">
+      <c r="A20" s="13484" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13432" t="n">
-        <v>1.84</v>
+      <c r="B20" s="13534" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13383" t="s">
+      <c r="A21" s="13485" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13433" t="n">
-        <v>2.79</v>
+      <c r="B21" s="13535" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13384" t="s">
+      <c r="A22" s="13486" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13434" t="n">
+      <c r="B22" s="13536" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13385" t="s">
+      <c r="A23" s="13487" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13435" t="n">
+      <c r="B23" s="13537" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13386" t="s">
+      <c r="A24" s="13488" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13436" t="n">
+      <c r="B24" s="13538" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13387" t="s">
+      <c r="A25" s="13489" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13437" t="n">
-        <v>0.73</v>
+      <c r="B25" s="13539" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13388" t="s">
+      <c r="A26" s="13490" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13438" t="n">
+      <c r="B26" s="13540" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13389" t="s">
+      <c r="A27" s="13491" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13439" t="n">
-        <v>1.32</v>
+      <c r="B27" s="13541" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13390" t="s">
+      <c r="A28" s="13492" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13440" t="n">
-        <v>1.78</v>
+      <c r="B28" s="13542" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13391" t="s">
+      <c r="A29" s="13493" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13441" t="n">
+      <c r="B29" s="13543" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13392" t="s">
+      <c r="A30" s="13494" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13442" t="n">
-        <v>3.03</v>
+      <c r="B30" s="13544" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13393" t="s">
+      <c r="A31" s="13495" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13443" t="n">
-        <v>10.78</v>
+      <c r="B31" s="13545" t="n">
+        <v>10.74</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13394" t="s">
+      <c r="A32" s="13496" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13444" t="n">
-        <v>1.34</v>
+      <c r="B32" s="13546" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13395" t="s">
+      <c r="A33" s="13497" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13445" t="n">
+      <c r="B33" s="13547" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13396" t="s">
+      <c r="A34" s="13498" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13446" t="n">
-        <v>1.33</v>
+      <c r="B34" s="13548" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13397" t="s">
+      <c r="A35" s="13499" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13447" t="n">
-        <v>1.09</v>
+      <c r="B35" s="13549" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13398" t="s">
+      <c r="A36" s="13500" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13448" t="n">
-        <v>1.38</v>
+      <c r="B36" s="13550" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13399" t="s">
+      <c r="A37" s="13501" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13449" t="n">
-        <v>0.92</v>
+      <c r="B37" s="13551" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13400" t="s">
+      <c r="A38" s="13502" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13450" t="n">
+      <c r="B38" s="13552" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13401" t="s">
+      <c r="A39" s="13503" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13451" t="n">
-        <v>1.67</v>
+      <c r="B39" s="13553" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13402" t="s">
+      <c r="A40" s="13504" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13452" t="n">
-        <v>6.72</v>
+      <c r="B40" s="13554" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13403" t="s">
+      <c r="A41" s="13505" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13453" t="n">
+      <c r="B41" s="13555" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13404" t="s">
+      <c r="A42" s="13506" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13454" t="n">
+      <c r="B42" s="13556" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13405" t="s">
+      <c r="A43" s="13507" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13455" t="n">
-        <v>0.9</v>
+      <c r="B43" s="13557" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13406" t="s">
+      <c r="A44" s="13508" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13456" t="n">
-        <v>1.54</v>
+      <c r="B44" s="13558" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13407" t="s">
+      <c r="A45" s="13509" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13457" t="n">
-        <v>4.16</v>
+      <c r="B45" s="13559" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13408" t="s">
+      <c r="A46" s="13510" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13458" t="n">
-        <v>2.01</v>
+      <c r="B46" s="13560" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13409" t="s">
+      <c r="A47" s="13511" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13459" t="n">
-        <v>2.13</v>
+      <c r="B47" s="13561" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13410" t="s">
+      <c r="A48" s="13512" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13460" t="n">
+      <c r="B48" s="13562" t="n">
         <v>4.45</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13411" t="s">
+      <c r="A49" s="13513" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13461" t="n">
-        <v>1.89</v>
+      <c r="B49" s="13563" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13412" t="s">
+      <c r="A50" s="13514" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13462" t="n">
+      <c r="B50" s="13564" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13413" t="s">
+      <c r="A51" s="13515" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13463" t="n">
-        <v>1.12</v>
+      <c r="B51" s="13565" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6823" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6979" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13566">
+  <cellXfs count="13872">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -41319,411 +42237,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13464" t="s">
+      <c r="A1" s="13770" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13465" t="s">
+      <c r="B1" s="13771" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13466" t="s">
+      <c r="A2" s="13772" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13516" t="n">
-        <v>2.97</v>
+      <c r="B2" s="13822" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13467" t="s">
+      <c r="A3" s="13773" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13517" t="n">
-        <v>1.94</v>
+      <c r="B3" s="13823" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13468" t="s">
+      <c r="A4" s="13774" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13518" t="n">
-        <v>2.72</v>
+      <c r="B4" s="13824" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13469" t="s">
+      <c r="A5" s="13775" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13519" t="n">
-        <v>2.32</v>
+      <c r="B5" s="13825" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13470" t="s">
+      <c r="A6" s="13776" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13520" t="n">
-        <v>1.32</v>
+      <c r="B6" s="13826" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13471" t="s">
+      <c r="A7" s="13777" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13521" t="n">
-        <v>5.52</v>
+      <c r="B7" s="13827" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13472" t="s">
+      <c r="A8" s="13778" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13522" t="n">
-        <v>1.85</v>
+      <c r="B8" s="13828" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13473" t="s">
+      <c r="A9" s="13779" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13523" t="n">
-        <v>1.12</v>
+      <c r="B9" s="13829" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13474" t="s">
+      <c r="A10" s="13780" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13524" t="n">
-        <v>1.36</v>
+      <c r="B10" s="13830" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13475" t="s">
+      <c r="A11" s="13781" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13525" t="n">
-        <v>2.92</v>
+      <c r="B11" s="13831" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13476" t="s">
+      <c r="A12" s="13782" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13526" t="n">
-        <v>1.03</v>
+      <c r="B12" s="13832" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13477" t="s">
+      <c r="A13" s="13783" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13527" t="n">
-        <v>0.85</v>
+      <c r="B13" s="13833" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13478" t="s">
+      <c r="A14" s="13784" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13528" t="n">
+      <c r="B14" s="13834" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13479" t="s">
+      <c r="A15" s="13785" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13529" t="n">
+      <c r="B15" s="13835" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13480" t="s">
+      <c r="A16" s="13786" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13530" t="n">
-        <v>4.69</v>
+      <c r="B16" s="13836" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13481" t="s">
+      <c r="A17" s="13787" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13531" t="n">
-        <v>0.85</v>
+      <c r="B17" s="13837" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13482" t="s">
+      <c r="A18" s="13788" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13532" t="n">
+      <c r="B18" s="13838" t="n">
         <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13483" t="s">
+      <c r="A19" s="13789" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13533" t="n">
-        <v>3.36</v>
+      <c r="B19" s="13839" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13484" t="s">
+      <c r="A20" s="13790" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13534" t="n">
-        <v>1.83</v>
+      <c r="B20" s="13840" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13485" t="s">
+      <c r="A21" s="13791" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13535" t="n">
-        <v>2.8</v>
+      <c r="B21" s="13841" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13486" t="s">
+      <c r="A22" s="13792" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13536" t="n">
-        <v>0.75</v>
+      <c r="B22" s="13842" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13487" t="s">
+      <c r="A23" s="13793" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13537" t="n">
+      <c r="B23" s="13843" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13488" t="s">
+      <c r="A24" s="13794" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13538" t="n">
+      <c r="B24" s="13844" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13489" t="s">
+      <c r="A25" s="13795" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13539" t="n">
-        <v>0.75</v>
+      <c r="B25" s="13845" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13490" t="s">
+      <c r="A26" s="13796" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13540" t="n">
+      <c r="B26" s="13846" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13491" t="s">
+      <c r="A27" s="13797" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13541" t="n">
-        <v>1.33</v>
+      <c r="B27" s="13847" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13492" t="s">
+      <c r="A28" s="13798" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13542" t="n">
+      <c r="B28" s="13848" t="n">
         <v>1.74</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13493" t="s">
+      <c r="A29" s="13799" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13543" t="n">
+      <c r="B29" s="13849" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13494" t="s">
+      <c r="A30" s="13800" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13544" t="n">
-        <v>3.06</v>
+      <c r="B30" s="13850" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13495" t="s">
+      <c r="A31" s="13801" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13545" t="n">
-        <v>10.74</v>
+      <c r="B31" s="13851" t="n">
+        <v>10.73</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13496" t="s">
+      <c r="A32" s="13802" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13546" t="n">
-        <v>1.37</v>
+      <c r="B32" s="13852" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13497" t="s">
+      <c r="A33" s="13803" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13547" t="n">
+      <c r="B33" s="13853" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13498" t="s">
+      <c r="A34" s="13804" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13548" t="n">
-        <v>1.34</v>
+      <c r="B34" s="13854" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13499" t="s">
+      <c r="A35" s="13805" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13549" t="n">
-        <v>1.1</v>
+      <c r="B35" s="13855" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13500" t="s">
+      <c r="A36" s="13806" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13550" t="n">
-        <v>1.37</v>
+      <c r="B36" s="13856" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13501" t="s">
+      <c r="A37" s="13807" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13551" t="n">
-        <v>0.93</v>
+      <c r="B37" s="13857" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13502" t="s">
+      <c r="A38" s="13808" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13552" t="n">
+      <c r="B38" s="13858" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13503" t="s">
+      <c r="A39" s="13809" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13553" t="n">
-        <v>1.62</v>
+      <c r="B39" s="13859" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13504" t="s">
+      <c r="A40" s="13810" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13554" t="n">
-        <v>6.73</v>
+      <c r="B40" s="13860" t="n">
+        <v>6.81</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13505" t="s">
+      <c r="A41" s="13811" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13555" t="n">
-        <v>0.3</v>
+      <c r="B41" s="13861" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13506" t="s">
+      <c r="A42" s="13812" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13556" t="n">
+      <c r="B42" s="13862" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13507" t="s">
+      <c r="A43" s="13813" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13557" t="n">
-        <v>0.89</v>
+      <c r="B43" s="13863" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13508" t="s">
+      <c r="A44" s="13814" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13558" t="n">
-        <v>1.56</v>
+      <c r="B44" s="13864" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13509" t="s">
+      <c r="A45" s="13815" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13559" t="n">
-        <v>4.14</v>
+      <c r="B45" s="13865" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13510" t="s">
+      <c r="A46" s="13816" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13560" t="n">
-        <v>2.02</v>
+      <c r="B46" s="13866" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13511" t="s">
+      <c r="A47" s="13817" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13561" t="n">
-        <v>2.09</v>
+      <c r="B47" s="13867" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13512" t="s">
+      <c r="A48" s="13818" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13562" t="n">
-        <v>4.45</v>
+      <c r="B48" s="13868" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13513" t="s">
+      <c r="A49" s="13819" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13563" t="n">
-        <v>1.85</v>
+      <c r="B49" s="13869" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13514" t="s">
+      <c r="A50" s="13820" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13564" t="n">
-        <v>0.7</v>
+      <c r="B50" s="13870" t="n">
+        <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13515" t="s">
+      <c r="A51" s="13821" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13565" t="n">
-        <v>1.16</v>
+      <c r="B51" s="13871" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6979" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13872">
+  <cellXfs count="14076">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -42237,411 +42849,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13770" t="s">
+      <c r="A1" s="13974" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13771" t="s">
+      <c r="B1" s="13975" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13772" t="s">
+      <c r="A2" s="13976" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13822" t="n">
-        <v>2.95</v>
+      <c r="B2" s="14026" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13773" t="s">
+      <c r="A3" s="13977" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13823" t="n">
+      <c r="B3" s="14027" t="n">
         <v>1.93</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13774" t="s">
+      <c r="A4" s="13978" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13824" t="n">
-        <v>2.69</v>
+      <c r="B4" s="14028" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13775" t="s">
+      <c r="A5" s="13979" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13825" t="n">
-        <v>2.28</v>
+      <c r="B5" s="14029" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13776" t="s">
+      <c r="A6" s="13980" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13826" t="n">
+      <c r="B6" s="14030" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13777" t="s">
+      <c r="A7" s="13981" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13827" t="n">
-        <v>5.56</v>
+      <c r="B7" s="14031" t="n">
+        <v>5.53</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13778" t="s">
+      <c r="A8" s="13982" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13828" t="n">
-        <v>1.84</v>
+      <c r="B8" s="14032" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13779" t="s">
+      <c r="A9" s="13983" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13829" t="n">
-        <v>1.1</v>
+      <c r="B9" s="14033" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13780" t="s">
+      <c r="A10" s="13984" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="13830" t="n">
-        <v>1.38</v>
+      <c r="B10" s="14034" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13781" t="s">
+      <c r="A11" s="13985" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13831" t="n">
-        <v>2.89</v>
+      <c r="B11" s="14035" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13782" t="s">
+      <c r="A12" s="13986" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13832" t="n">
+      <c r="B12" s="14036" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13783" t="s">
+      <c r="A13" s="13987" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13833" t="n">
+      <c r="B13" s="14037" t="n">
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13784" t="s">
+      <c r="A14" s="13988" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13834" t="n">
+      <c r="B14" s="14038" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13785" t="s">
+      <c r="A15" s="13989" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="13835" t="n">
+      <c r="B15" s="14039" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13786" t="s">
+      <c r="A16" s="13990" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13836" t="n">
-        <v>4.8</v>
+      <c r="B16" s="14040" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13787" t="s">
+      <c r="A17" s="13991" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="13837" t="n">
-        <v>0.83</v>
+      <c r="B17" s="14041" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13788" t="s">
+      <c r="A18" s="13992" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13838" t="n">
+      <c r="B18" s="14042" t="n">
         <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13789" t="s">
+      <c r="A19" s="13993" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13839" t="n">
-        <v>3.28</v>
+      <c r="B19" s="14043" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13790" t="s">
+      <c r="A20" s="13994" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="13840" t="n">
-        <v>1.82</v>
+      <c r="B20" s="14044" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13791" t="s">
+      <c r="A21" s="13995" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="13841" t="n">
-        <v>2.77</v>
+      <c r="B21" s="14045" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13792" t="s">
+      <c r="A22" s="13996" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="13842" t="n">
-        <v>0.74</v>
+      <c r="B22" s="14046" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13793" t="s">
+      <c r="A23" s="13997" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13843" t="n">
+      <c r="B23" s="14047" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13794" t="s">
+      <c r="A24" s="13998" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13844" t="n">
+      <c r="B24" s="14048" t="n">
         <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13795" t="s">
+      <c r="A25" s="13999" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="13845" t="n">
+      <c r="B25" s="14049" t="n">
         <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13796" t="s">
+      <c r="A26" s="14000" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="13846" t="n">
+      <c r="B26" s="14050" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13797" t="s">
+      <c r="A27" s="14001" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13847" t="n">
-        <v>1.36</v>
+      <c r="B27" s="14051" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13798" t="s">
+      <c r="A28" s="14002" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13848" t="n">
-        <v>1.74</v>
+      <c r="B28" s="14052" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13799" t="s">
+      <c r="A29" s="14003" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="13849" t="n">
+      <c r="B29" s="14053" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13800" t="s">
+      <c r="A30" s="14004" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13850" t="n">
-        <v>3.02</v>
+      <c r="B30" s="14054" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13801" t="s">
+      <c r="A31" s="14005" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13851" t="n">
-        <v>10.73</v>
+      <c r="B31" s="14055" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13802" t="s">
+      <c r="A32" s="14006" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="13852" t="n">
-        <v>1.38</v>
+      <c r="B32" s="14056" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13803" t="s">
+      <c r="A33" s="14007" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="13853" t="n">
+      <c r="B33" s="14057" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13804" t="s">
+      <c r="A34" s="14008" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="13854" t="n">
-        <v>1.32</v>
+      <c r="B34" s="14058" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13805" t="s">
+      <c r="A35" s="14009" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13855" t="n">
-        <v>1.14</v>
+      <c r="B35" s="14059" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13806" t="s">
+      <c r="A36" s="14010" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="13856" t="n">
-        <v>1.4</v>
+      <c r="B36" s="14060" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13807" t="s">
+      <c r="A37" s="14011" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="13857" t="n">
-        <v>0.91</v>
+      <c r="B37" s="14061" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13808" t="s">
+      <c r="A38" s="14012" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="13858" t="n">
-        <v>0.99</v>
+      <c r="B38" s="14062" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13809" t="s">
+      <c r="A39" s="14013" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="13859" t="n">
-        <v>1.61</v>
+      <c r="B39" s="14063" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13810" t="s">
+      <c r="A40" s="14014" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="13860" t="n">
-        <v>6.81</v>
+      <c r="B40" s="14064" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13811" t="s">
+      <c r="A41" s="14015" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="13861" t="n">
+      <c r="B41" s="14065" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13812" t="s">
+      <c r="A42" s="14016" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="13862" t="n">
+      <c r="B42" s="14066" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13813" t="s">
+      <c r="A43" s="14017" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="13863" t="n">
-        <v>0.91</v>
+      <c r="B43" s="14067" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13814" t="s">
+      <c r="A44" s="14018" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="13864" t="n">
-        <v>1.54</v>
+      <c r="B44" s="14068" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13815" t="s">
+      <c r="A45" s="14019" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="13865" t="n">
-        <v>4.17</v>
+      <c r="B45" s="14069" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13816" t="s">
+      <c r="A46" s="14020" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="13866" t="n">
+      <c r="B46" s="14070" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13817" t="s">
+      <c r="A47" s="14021" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="13867" t="n">
-        <v>2.15</v>
+      <c r="B47" s="14071" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13818" t="s">
+      <c r="A48" s="14022" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="13868" t="n">
-        <v>4.41</v>
+      <c r="B48" s="14072" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13819" t="s">
+      <c r="A49" s="14023" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="13869" t="n">
-        <v>1.86</v>
+      <c r="B49" s="14073" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13820" t="s">
+      <c r="A50" s="14024" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13870" t="n">
-        <v>0.69</v>
+      <c r="B50" s="14074" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13821" t="s">
+      <c r="A51" s="14025" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="13871" t="n">
-        <v>1.15</v>
+      <c r="B51" s="14075" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7187" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14076">
+  <cellXfs count="14280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -42849,410 +43461,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13974" t="s">
+      <c r="A1" s="14178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13975" t="s">
+      <c r="B1" s="14179" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13976" t="s">
+      <c r="A2" s="14180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14026" t="n">
-        <v>2.94</v>
+      <c r="B2" s="14230" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13977" t="s">
+      <c r="A3" s="14181" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14027" t="n">
-        <v>1.93</v>
+      <c r="B3" s="14231" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13978" t="s">
+      <c r="A4" s="14182" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="14028" t="n">
-        <v>2.67</v>
+      <c r="B4" s="14232" t="n">
+        <v>2.66</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13979" t="s">
+      <c r="A5" s="14183" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14029" t="n">
-        <v>2.27</v>
+      <c r="B5" s="14233" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13980" t="s">
+      <c r="A6" s="14184" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="14030" t="n">
-        <v>1.31</v>
+      <c r="B6" s="14234" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13981" t="s">
+      <c r="A7" s="14185" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14031" t="n">
-        <v>5.53</v>
+      <c r="B7" s="14235" t="n">
+        <v>5.54</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13982" t="s">
+      <c r="A8" s="14186" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14032" t="n">
-        <v>1.86</v>
+      <c r="B8" s="14236" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13983" t="s">
+      <c r="A9" s="14187" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14033" t="n">
-        <v>1.12</v>
+      <c r="B9" s="14237" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13984" t="s">
+      <c r="A10" s="14188" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="14034" t="n">
-        <v>1.39</v>
+      <c r="B10" s="14238" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13985" t="s">
+      <c r="A11" s="14189" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14035" t="n">
-        <v>2.88</v>
+      <c r="B11" s="14239" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13986" t="s">
+      <c r="A12" s="14190" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14036" t="n">
-        <v>1.02</v>
+      <c r="B12" s="14240" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13987" t="s">
+      <c r="A13" s="14191" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14037" t="n">
-        <v>0.89</v>
+      <c r="B13" s="14241" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13988" t="s">
+      <c r="A14" s="14192" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="14038" t="n">
-        <v>0.35</v>
+      <c r="B14" s="14242" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13989" t="s">
+      <c r="A15" s="14193" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14039" t="n">
+      <c r="B15" s="14243" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="14194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14244" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="14195" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="14245" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13990" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14040" t="n">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13991" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="14041" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13992" t="s">
+      <c r="A18" s="14196" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14042" t="n">
-        <v>1.23</v>
+      <c r="B18" s="14246" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13993" t="s">
+      <c r="A19" s="14197" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14043" t="n">
-        <v>3.27</v>
+      <c r="B19" s="14247" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13994" t="s">
+      <c r="A20" s="14198" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="14044" t="n">
-        <v>1.84</v>
+      <c r="B20" s="14248" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13995" t="s">
+      <c r="A21" s="14199" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="14045" t="n">
-        <v>2.78</v>
+      <c r="B21" s="14249" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13996" t="s">
+      <c r="A22" s="14200" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="14046" t="n">
-        <v>0.73</v>
+      <c r="B22" s="14250" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13997" t="s">
+      <c r="A23" s="14201" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="14047" t="n">
-        <v>0.6</v>
+      <c r="B23" s="14251" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13998" t="s">
+      <c r="A24" s="14202" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="14048" t="n">
-        <v>1.28</v>
+      <c r="B24" s="14252" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13999" t="s">
+      <c r="A25" s="14203" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14049" t="n">
+      <c r="B25" s="14253" t="n">
         <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="14000" t="s">
+      <c r="A26" s="14204" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="14050" t="n">
+      <c r="B26" s="14254" t="n">
         <v>0.41</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="14001" t="s">
+      <c r="A27" s="14205" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="14051" t="n">
-        <v>1.35</v>
+      <c r="B27" s="14255" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="14002" t="s">
+      <c r="A28" s="14206" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="14052" t="n">
-        <v>1.73</v>
+      <c r="B28" s="14256" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="14003" t="s">
+      <c r="A29" s="14207" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="14053" t="n">
+      <c r="B29" s="14257" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="14004" t="s">
+      <c r="A30" s="14208" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="14054" t="n">
-        <v>3.03</v>
+      <c r="B30" s="14258" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="14005" t="s">
+      <c r="A31" s="14209" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14055" t="n">
-        <v>10.77</v>
+      <c r="B31" s="14259" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="14006" t="s">
+      <c r="A32" s="14210" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="14056" t="n">
+      <c r="B32" s="14260" t="n">
         <v>1.36</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="14007" t="s">
+      <c r="A33" s="14211" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="14057" t="n">
-        <v>1.87</v>
+      <c r="B33" s="14261" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="14008" t="s">
+      <c r="A34" s="14212" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="14058" t="n">
-        <v>1.33</v>
+      <c r="B34" s="14262" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="14009" t="s">
+      <c r="A35" s="14213" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="14059" t="n">
-        <v>1.12</v>
+      <c r="B35" s="14263" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="14010" t="s">
+      <c r="A36" s="14214" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="14060" t="n">
-        <v>1.38</v>
+      <c r="B36" s="14264" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="14011" t="s">
+      <c r="A37" s="14215" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="14061" t="n">
-        <v>0.9</v>
+      <c r="B37" s="14265" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="14012" t="s">
+      <c r="A38" s="14216" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="14062" t="n">
+      <c r="B38" s="14266" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="14013" t="s">
+      <c r="A39" s="14217" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="14063" t="n">
-        <v>1.6</v>
+      <c r="B39" s="14267" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="14014" t="s">
+      <c r="A40" s="14218" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="14064" t="n">
-        <v>6.76</v>
+      <c r="B40" s="14268" t="n">
+        <v>6.81</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="14015" t="s">
+      <c r="A41" s="14219" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="14065" t="n">
+      <c r="B41" s="14269" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="14016" t="s">
+      <c r="A42" s="14220" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14066" t="n">
-        <v>0.46</v>
+      <c r="B42" s="14270" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="14017" t="s">
+      <c r="A43" s="14221" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="14067" t="n">
-        <v>0.9</v>
+      <c r="B43" s="14271" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="14018" t="s">
+      <c r="A44" s="14222" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="14068" t="n">
-        <v>1.55</v>
+      <c r="B44" s="14272" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="14019" t="s">
+      <c r="A45" s="14223" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="14069" t="n">
-        <v>4.14</v>
+      <c r="B45" s="14273" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="14020" t="s">
+      <c r="A46" s="14224" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="14070" t="n">
-        <v>2.0</v>
+      <c r="B46" s="14274" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="14021" t="s">
+      <c r="A47" s="14225" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="14071" t="n">
+      <c r="B47" s="14275" t="n">
         <v>2.16</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="14022" t="s">
+      <c r="A48" s="14226" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="14072" t="n">
-        <v>4.46</v>
+      <c r="B48" s="14276" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="14023" t="s">
+      <c r="A49" s="14227" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="14073" t="n">
-        <v>1.87</v>
+      <c r="B49" s="14277" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="14024" t="s">
+      <c r="A50" s="14228" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="14074" t="n">
+      <c r="B50" s="14278" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="14025" t="s">
+      <c r="A51" s="14229" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="14075" t="n">
+      <c r="B51" s="14279" t="n">
         <v>1.17</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7967" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14280">
+  <cellXfs count="15810">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,4596 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -43461,411 +48051,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="14178" t="s">
+      <c r="A1" s="15708" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14179" t="s">
+      <c r="B1" s="15709" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="14180" t="s">
+      <c r="A2" s="15710" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14230" t="n">
-        <v>2.92</v>
+      <c r="B2" s="15760" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="14181" t="s">
+      <c r="A3" s="15711" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="14231" t="n">
-        <v>1.99</v>
+      <c r="B3" s="15761" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="14182" t="s">
+      <c r="A4" s="15712" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="14232" t="n">
-        <v>2.66</v>
+      <c r="B4" s="15762" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="14183" t="s">
+      <c r="A5" s="15713" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14233" t="n">
-        <v>2.26</v>
+      <c r="B5" s="15763" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="14184" t="s">
+      <c r="A6" s="15714" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="14234" t="n">
-        <v>1.32</v>
+      <c r="B6" s="15764" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="14185" t="s">
+      <c r="A7" s="15715" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14235" t="n">
-        <v>5.54</v>
+      <c r="B7" s="15765" t="n">
+        <v>5.53</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="14186" t="s">
+      <c r="A8" s="15716" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14236" t="n">
-        <v>1.85</v>
+      <c r="B8" s="15766" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="14187" t="s">
+      <c r="A9" s="15717" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14237" t="n">
-        <v>1.1</v>
+      <c r="B9" s="15767" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="14188" t="s">
+      <c r="A10" s="15718" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="14238" t="n">
-        <v>1.37</v>
+      <c r="B10" s="15768" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="14189" t="s">
+      <c r="A11" s="15719" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14239" t="n">
-        <v>2.86</v>
+      <c r="B11" s="15769" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="14190" t="s">
+      <c r="A12" s="15720" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14240" t="n">
-        <v>1.01</v>
+      <c r="B12" s="15770" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="14191" t="s">
+      <c r="A13" s="15721" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14241" t="n">
-        <v>0.87</v>
+      <c r="B13" s="15771" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="14192" t="s">
+      <c r="A14" s="15722" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="14242" t="n">
-        <v>0.34</v>
+      <c r="B14" s="15772" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="14193" t="s">
+      <c r="A15" s="15723" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14243" t="n">
-        <v>0.85</v>
+      <c r="B15" s="15773" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="14194" t="s">
+      <c r="A16" s="15724" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14244" t="n">
-        <v>4.7</v>
+      <c r="B16" s="15774" t="n">
+        <v>4.74</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="14195" t="s">
+      <c r="A17" s="15725" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="14245" t="n">
-        <v>0.86</v>
+      <c r="B17" s="15775" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="14196" t="s">
+      <c r="A18" s="15726" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14246" t="n">
-        <v>1.21</v>
+      <c r="B18" s="15776" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="14197" t="s">
+      <c r="A19" s="15727" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14247" t="n">
-        <v>3.22</v>
+      <c r="B19" s="15777" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="14198" t="s">
+      <c r="A20" s="15728" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="14248" t="n">
-        <v>1.8</v>
+      <c r="B20" s="15778" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="14199" t="s">
+      <c r="A21" s="15729" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="14249" t="n">
-        <v>2.79</v>
+      <c r="B21" s="15779" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="14200" t="s">
+      <c r="A22" s="15730" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="14250" t="n">
-        <v>0.79</v>
+      <c r="B22" s="15780" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="14201" t="s">
+      <c r="A23" s="15731" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="14251" t="n">
-        <v>0.59</v>
+      <c r="B23" s="15781" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="14202" t="s">
+      <c r="A24" s="15732" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="14252" t="n">
-        <v>1.26</v>
+      <c r="B24" s="15782" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="14203" t="s">
+      <c r="A25" s="15733" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="14253" t="n">
+      <c r="B25" s="15783" t="n">
         <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="14204" t="s">
+      <c r="A26" s="15734" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="14254" t="n">
-        <v>0.41</v>
+      <c r="B26" s="15784" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="14205" t="s">
+      <c r="A27" s="15735" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="14255" t="n">
-        <v>1.34</v>
+      <c r="B27" s="15785" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="14206" t="s">
+      <c r="A28" s="15736" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="14256" t="n">
-        <v>1.76</v>
+      <c r="B28" s="15786" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="14207" t="s">
+      <c r="A29" s="15737" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="14257" t="n">
-        <v>0.52</v>
+      <c r="B29" s="15787" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="14208" t="s">
+      <c r="A30" s="15738" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="14258" t="n">
-        <v>3.02</v>
+      <c r="B30" s="15788" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="14209" t="s">
+      <c r="A31" s="15739" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="14259" t="n">
-        <v>11.19</v>
+      <c r="B31" s="15789" t="n">
+        <v>10.96</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="14210" t="s">
+      <c r="A32" s="15740" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="14260" t="n">
-        <v>1.36</v>
+      <c r="B32" s="15790" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="14211" t="s">
+      <c r="A33" s="15741" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="14261" t="n">
-        <v>1.85</v>
+      <c r="B33" s="15791" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="14212" t="s">
+      <c r="A34" s="15742" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="14262" t="n">
-        <v>1.32</v>
+      <c r="B34" s="15792" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="14213" t="s">
+      <c r="A35" s="15743" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="14263" t="n">
-        <v>1.09</v>
+      <c r="B35" s="15793" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="14214" t="s">
+      <c r="A36" s="15744" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="14264" t="n">
-        <v>1.37</v>
+      <c r="B36" s="15794" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="14215" t="s">
+      <c r="A37" s="15745" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="14265" t="n">
-        <v>0.93</v>
+      <c r="B37" s="15795" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="14216" t="s">
+      <c r="A38" s="15746" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="14266" t="n">
-        <v>1.0</v>
+      <c r="B38" s="15796" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="14217" t="s">
+      <c r="A39" s="15747" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="14267" t="n">
-        <v>1.57</v>
+      <c r="B39" s="15797" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="14218" t="s">
+      <c r="A40" s="15748" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="14268" t="n">
-        <v>6.81</v>
+      <c r="B40" s="15798" t="n">
+        <v>6.85</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="14219" t="s">
+      <c r="A41" s="15749" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="14269" t="n">
+      <c r="B41" s="15799" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="14220" t="s">
+      <c r="A42" s="15750" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="14270" t="n">
+      <c r="B42" s="15800" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="14221" t="s">
+      <c r="A43" s="15751" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="14271" t="n">
-        <v>0.89</v>
+      <c r="B43" s="15801" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="14222" t="s">
+      <c r="A44" s="15752" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="14272" t="n">
-        <v>1.54</v>
+      <c r="B44" s="15802" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="14223" t="s">
+      <c r="A45" s="15753" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="14273" t="n">
-        <v>4.1</v>
+      <c r="B45" s="15803" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="14224" t="s">
+      <c r="A46" s="15754" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="14274" t="n">
-        <v>1.99</v>
+      <c r="B46" s="15804" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="14225" t="s">
+      <c r="A47" s="15755" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="14275" t="n">
-        <v>2.16</v>
+      <c r="B47" s="15805" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="14226" t="s">
+      <c r="A48" s="15756" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="14276" t="n">
-        <v>4.44</v>
+      <c r="B48" s="15806" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="14227" t="s">
+      <c r="A49" s="15757" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="14277" t="n">
-        <v>1.82</v>
+      <c r="B49" s="15807" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="14228" t="s">
+      <c r="A50" s="15758" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="14278" t="n">
-        <v>0.68</v>
+      <c r="B50" s="15808" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="14229" t="s">
+      <c r="A51" s="15759" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="14279" t="n">
-        <v>1.17</v>
+      <c r="B51" s="15809" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7967" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8123" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15810">
+  <cellXfs count="16116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -48051,411 +48969,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="15708" t="s">
+      <c r="A1" s="16014" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15709" t="s">
+      <c r="B1" s="16015" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="15710" t="s">
+      <c r="A2" s="16016" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15760" t="n">
-        <v>2.98</v>
+      <c r="B2" s="16066" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="15711" t="s">
+      <c r="A3" s="16017" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="15761" t="n">
-        <v>1.95</v>
+      <c r="B3" s="16067" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="15712" t="s">
+      <c r="A4" s="16018" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="15762" t="n">
-        <v>2.75</v>
+      <c r="B4" s="16068" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="15713" t="s">
+      <c r="A5" s="16019" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15763" t="n">
-        <v>2.28</v>
+      <c r="B5" s="16069" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="15714" t="s">
+      <c r="A6" s="16020" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="15764" t="n">
-        <v>1.31</v>
+      <c r="B6" s="16070" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="15715" t="s">
+      <c r="A7" s="16021" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15765" t="n">
-        <v>5.53</v>
+      <c r="B7" s="16071" t="n">
+        <v>5.51</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="15716" t="s">
+      <c r="A8" s="16022" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15766" t="n">
+      <c r="B8" s="16072" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="15717" t="s">
+      <c r="A9" s="16023" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="15767" t="n">
+      <c r="B9" s="16073" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="15718" t="s">
+      <c r="A10" s="16024" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="15768" t="n">
-        <v>1.36</v>
+      <c r="B10" s="16074" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="15719" t="s">
+      <c r="A11" s="16025" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15769" t="n">
+      <c r="B11" s="16075" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="15720" t="s">
+      <c r="A12" s="16026" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15770" t="n">
+      <c r="B12" s="16076" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="15721" t="s">
+      <c r="A13" s="16027" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15771" t="n">
-        <v>0.86</v>
+      <c r="B13" s="16077" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="15722" t="s">
+      <c r="A14" s="16028" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="15772" t="n">
-        <v>0.33</v>
+      <c r="B14" s="16078" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="15723" t="s">
+      <c r="A15" s="16029" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="15773" t="n">
-        <v>0.86</v>
+      <c r="B15" s="16079" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="15724" t="s">
+      <c r="A16" s="16030" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="15774" t="n">
+      <c r="B16" s="16080" t="n">
         <v>4.74</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="15725" t="s">
+      <c r="A17" s="16031" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="15775" t="n">
-        <v>0.91</v>
+      <c r="B17" s="16081" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="15726" t="s">
+      <c r="A18" s="16032" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15776" t="n">
-        <v>1.23</v>
+      <c r="B18" s="16082" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="15727" t="s">
+      <c r="A19" s="16033" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15777" t="n">
-        <v>3.18</v>
+      <c r="B19" s="16083" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="15728" t="s">
+      <c r="A20" s="16034" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="15778" t="n">
-        <v>1.82</v>
+      <c r="B20" s="16084" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="15729" t="s">
+      <c r="A21" s="16035" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="15779" t="n">
-        <v>2.7</v>
+      <c r="B21" s="16085" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="15730" t="s">
+      <c r="A22" s="16036" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="15780" t="n">
-        <v>0.78</v>
+      <c r="B22" s="16086" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="15731" t="s">
+      <c r="A23" s="16037" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="15781" t="n">
+      <c r="B23" s="16087" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="15732" t="s">
+      <c r="A24" s="16038" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="15782" t="n">
-        <v>1.28</v>
+      <c r="B24" s="16088" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="15733" t="s">
+      <c r="A25" s="16039" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15783" t="n">
-        <v>0.74</v>
+      <c r="B25" s="16089" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="15734" t="s">
+      <c r="A26" s="16040" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="15784" t="n">
+      <c r="B26" s="16090" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="15735" t="s">
+      <c r="A27" s="16041" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="15785" t="n">
-        <v>1.38</v>
+      <c r="B27" s="16091" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="15736" t="s">
+      <c r="A28" s="16042" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="15786" t="n">
-        <v>1.79</v>
+      <c r="B28" s="16092" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="15737" t="s">
+      <c r="A29" s="16043" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="15787" t="n">
+      <c r="B29" s="16093" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="15738" t="s">
+      <c r="A30" s="16044" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="15788" t="n">
-        <v>3.06</v>
+      <c r="B30" s="16094" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="15739" t="s">
+      <c r="A31" s="16045" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="15789" t="n">
-        <v>10.96</v>
+      <c r="B31" s="16095" t="n">
+        <v>10.83</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="15740" t="s">
+      <c r="A32" s="16046" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="15790" t="n">
-        <v>1.39</v>
+      <c r="B32" s="16096" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="15741" t="s">
+      <c r="A33" s="16047" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="15791" t="n">
-        <v>1.87</v>
+      <c r="B33" s="16097" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="15742" t="s">
+      <c r="A34" s="16048" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="15792" t="n">
-        <v>1.33</v>
+      <c r="B34" s="16098" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="15743" t="s">
+      <c r="A35" s="16049" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="15793" t="n">
+      <c r="B35" s="16099" t="n">
         <v>1.08</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="15744" t="s">
+      <c r="A36" s="16050" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="15794" t="n">
-        <v>1.33</v>
+      <c r="B36" s="16100" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="15745" t="s">
+      <c r="A37" s="16051" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="15795" t="n">
-        <v>0.91</v>
+      <c r="B37" s="16101" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="15746" t="s">
+      <c r="A38" s="16052" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="15796" t="n">
-        <v>1.01</v>
+      <c r="B38" s="16102" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="15747" t="s">
+      <c r="A39" s="16053" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="15797" t="n">
-        <v>1.54</v>
+      <c r="B39" s="16103" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="15748" t="s">
+      <c r="A40" s="16054" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="15798" t="n">
-        <v>6.85</v>
+      <c r="B40" s="16104" t="n">
+        <v>6.79</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="15749" t="s">
+      <c r="A41" s="16055" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="15799" t="n">
+      <c r="B41" s="16105" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="15750" t="s">
+      <c r="A42" s="16056" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="15800" t="n">
+      <c r="B42" s="16106" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="15751" t="s">
+      <c r="A43" s="16057" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="15801" t="n">
+      <c r="B43" s="16107" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="15752" t="s">
+      <c r="A44" s="16058" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="15802" t="n">
-        <v>1.55</v>
+      <c r="B44" s="16108" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="15753" t="s">
+      <c r="A45" s="16059" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="15803" t="n">
-        <v>4.05</v>
+      <c r="B45" s="16109" t="n">
+        <v>4.01</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="15754" t="s">
+      <c r="A46" s="16060" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="15804" t="n">
-        <v>2.02</v>
+      <c r="B46" s="16110" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="15755" t="s">
+      <c r="A47" s="16061" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="15805" t="n">
+      <c r="B47" s="16111" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="15756" t="s">
+      <c r="A48" s="16062" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="15806" t="n">
-        <v>4.45</v>
+      <c r="B48" s="16112" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="15757" t="s">
+      <c r="A49" s="16063" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="15807" t="n">
-        <v>1.79</v>
+      <c r="B49" s="16113" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="15758" t="s">
+      <c r="A50" s="16064" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="15808" t="n">
+      <c r="B50" s="16114" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="15759" t="s">
+      <c r="A51" s="16065" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="15809" t="n">
-        <v>1.21</v>
+      <c r="B51" s="16115" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8227" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16116">
+  <cellXfs count="16320">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -48969,410 +49581,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16014" t="s">
+      <c r="A1" s="16218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16015" t="s">
+      <c r="B1" s="16219" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16016" t="s">
+      <c r="A2" s="16220" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16066" t="n">
+      <c r="B2" s="16270" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16017" t="s">
+      <c r="A3" s="16221" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16067" t="n">
+      <c r="B3" s="16271" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16018" t="s">
+      <c r="A4" s="16222" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16068" t="n">
+      <c r="B4" s="16272" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16019" t="s">
+      <c r="A5" s="16223" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16069" t="n">
+      <c r="B5" s="16273" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16020" t="s">
+      <c r="A6" s="16224" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16070" t="n">
+      <c r="B6" s="16274" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16021" t="s">
+      <c r="A7" s="16225" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16071" t="n">
+      <c r="B7" s="16275" t="n">
         <v>5.51</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16022" t="s">
+      <c r="A8" s="16226" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16072" t="n">
+      <c r="B8" s="16276" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16023" t="s">
+      <c r="A9" s="16227" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16073" t="n">
+      <c r="B9" s="16277" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16024" t="s">
+      <c r="A10" s="16228" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16074" t="n">
+      <c r="B10" s="16278" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16025" t="s">
+      <c r="A11" s="16229" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16075" t="n">
+      <c r="B11" s="16279" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16026" t="s">
+      <c r="A12" s="16230" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16076" t="n">
+      <c r="B12" s="16280" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16027" t="s">
+      <c r="A13" s="16231" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16077" t="n">
+      <c r="B13" s="16281" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16028" t="s">
+      <c r="A14" s="16232" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16078" t="n">
+      <c r="B14" s="16282" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16029" t="s">
+      <c r="A15" s="16233" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16079" t="n">
+      <c r="B15" s="16283" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16030" t="s">
+      <c r="A16" s="16234" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16080" t="n">
+      <c r="B16" s="16284" t="n">
         <v>4.74</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16031" t="s">
+      <c r="A17" s="16235" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16081" t="n">
+      <c r="B17" s="16285" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16032" t="s">
+      <c r="A18" s="16236" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16082" t="n">
+      <c r="B18" s="16286" t="n">
         <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16033" t="s">
+      <c r="A19" s="16237" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16083" t="n">
+      <c r="B19" s="16287" t="n">
         <v>3.15</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16034" t="s">
+      <c r="A20" s="16238" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="16084" t="n">
+      <c r="B20" s="16288" t="n">
         <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16035" t="s">
+      <c r="A21" s="16239" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="16085" t="n">
+      <c r="B21" s="16289" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16036" t="s">
+      <c r="A22" s="16240" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16086" t="n">
+      <c r="B22" s="16290" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16037" t="s">
+      <c r="A23" s="16241" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16087" t="n">
+      <c r="B23" s="16291" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16038" t="s">
+      <c r="A24" s="16242" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="16088" t="n">
+      <c r="B24" s="16292" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16039" t="s">
+      <c r="A25" s="16243" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16089" t="n">
+      <c r="B25" s="16293" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16040" t="s">
+      <c r="A26" s="16244" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16090" t="n">
+      <c r="B26" s="16294" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16041" t="s">
+      <c r="A27" s="16245" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16091" t="n">
+      <c r="B27" s="16295" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16042" t="s">
+      <c r="A28" s="16246" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16092" t="n">
+      <c r="B28" s="16296" t="n">
         <v>1.82</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16043" t="s">
+      <c r="A29" s="16247" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16093" t="n">
+      <c r="B29" s="16297" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16044" t="s">
+      <c r="A30" s="16248" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="16094" t="n">
+      <c r="B30" s="16298" t="n">
         <v>3.09</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16045" t="s">
+      <c r="A31" s="16249" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16095" t="n">
+      <c r="B31" s="16299" t="n">
         <v>10.83</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16046" t="s">
+      <c r="A32" s="16250" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="16096" t="n">
+      <c r="B32" s="16300" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16047" t="s">
+      <c r="A33" s="16251" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16097" t="n">
+      <c r="B33" s="16301" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16048" t="s">
+      <c r="A34" s="16252" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16098" t="n">
+      <c r="B34" s="16302" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16049" t="s">
+      <c r="A35" s="16253" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16099" t="n">
+      <c r="B35" s="16303" t="n">
         <v>1.08</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16050" t="s">
+      <c r="A36" s="16254" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="16100" t="n">
+      <c r="B36" s="16304" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16051" t="s">
+      <c r="A37" s="16255" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="16101" t="n">
+      <c r="B37" s="16305" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16052" t="s">
+      <c r="A38" s="16256" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16102" t="n">
+      <c r="B38" s="16306" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16053" t="s">
+      <c r="A39" s="16257" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="16103" t="n">
+      <c r="B39" s="16307" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16054" t="s">
+      <c r="A40" s="16258" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16104" t="n">
+      <c r="B40" s="16308" t="n">
         <v>6.79</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16055" t="s">
+      <c r="A41" s="16259" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16105" t="n">
+      <c r="B41" s="16309" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16056" t="s">
+      <c r="A42" s="16260" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="16106" t="n">
+      <c r="B42" s="16310" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16057" t="s">
+      <c r="A43" s="16261" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16107" t="n">
+      <c r="B43" s="16311" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16058" t="s">
+      <c r="A44" s="16262" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16108" t="n">
+      <c r="B44" s="16312" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16059" t="s">
+      <c r="A45" s="16263" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16109" t="n">
+      <c r="B45" s="16313" t="n">
         <v>4.01</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16060" t="s">
+      <c r="A46" s="16264" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="16110" t="n">
+      <c r="B46" s="16314" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16061" t="s">
+      <c r="A47" s="16265" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="16111" t="n">
+      <c r="B47" s="16315" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16062" t="s">
+      <c r="A48" s="16266" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16112" t="n">
+      <c r="B48" s="16316" t="n">
         <v>4.47</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16063" t="s">
+      <c r="A49" s="16267" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16113" t="n">
+      <c r="B49" s="16317" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16064" t="s">
+      <c r="A50" s="16268" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16114" t="n">
+      <c r="B50" s="16318" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16065" t="s">
+      <c r="A51" s="16269" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16115" t="n">
+      <c r="B51" s="16319" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8279" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16320">
+  <cellXfs count="16422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -49581,410 +49887,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16218" t="s">
+      <c r="A1" s="16320" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16219" t="s">
+      <c r="B1" s="16321" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16220" t="s">
+      <c r="A2" s="16322" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16270" t="n">
+      <c r="B2" s="16372" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16221" t="s">
+      <c r="A3" s="16323" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16271" t="n">
+      <c r="B3" s="16373" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16222" t="s">
+      <c r="A4" s="16324" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16272" t="n">
+      <c r="B4" s="16374" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16223" t="s">
+      <c r="A5" s="16325" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16273" t="n">
+      <c r="B5" s="16375" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16224" t="s">
+      <c r="A6" s="16326" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16274" t="n">
+      <c r="B6" s="16376" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16225" t="s">
+      <c r="A7" s="16327" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16275" t="n">
+      <c r="B7" s="16377" t="n">
         <v>5.51</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16226" t="s">
+      <c r="A8" s="16328" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16276" t="n">
+      <c r="B8" s="16378" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16227" t="s">
+      <c r="A9" s="16329" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16277" t="n">
+      <c r="B9" s="16379" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16228" t="s">
+      <c r="A10" s="16330" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16278" t="n">
+      <c r="B10" s="16380" t="n">
         <v>1.37</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16229" t="s">
+      <c r="A11" s="16331" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16279" t="n">
+      <c r="B11" s="16381" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16230" t="s">
+      <c r="A12" s="16332" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16280" t="n">
+      <c r="B12" s="16382" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16231" t="s">
+      <c r="A13" s="16333" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16281" t="n">
+      <c r="B13" s="16383" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16232" t="s">
+      <c r="A14" s="16334" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16282" t="n">
+      <c r="B14" s="16384" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16233" t="s">
+      <c r="A15" s="16335" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16283" t="n">
+      <c r="B15" s="16385" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16234" t="s">
+      <c r="A16" s="16336" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16284" t="n">
+      <c r="B16" s="16386" t="n">
         <v>4.74</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16235" t="s">
+      <c r="A17" s="16337" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16285" t="n">
+      <c r="B17" s="16387" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16236" t="s">
+      <c r="A18" s="16338" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16286" t="n">
+      <c r="B18" s="16388" t="n">
         <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16237" t="s">
+      <c r="A19" s="16339" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16287" t="n">
+      <c r="B19" s="16389" t="n">
         <v>3.15</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16238" t="s">
+      <c r="A20" s="16340" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="16288" t="n">
+      <c r="B20" s="16390" t="n">
         <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16239" t="s">
+      <c r="A21" s="16341" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="16289" t="n">
+      <c r="B21" s="16391" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16240" t="s">
+      <c r="A22" s="16342" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16290" t="n">
+      <c r="B22" s="16392" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16241" t="s">
+      <c r="A23" s="16343" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16291" t="n">
+      <c r="B23" s="16393" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16242" t="s">
+      <c r="A24" s="16344" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="16292" t="n">
+      <c r="B24" s="16394" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16243" t="s">
+      <c r="A25" s="16345" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16293" t="n">
+      <c r="B25" s="16395" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16244" t="s">
+      <c r="A26" s="16346" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16294" t="n">
+      <c r="B26" s="16396" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16245" t="s">
+      <c r="A27" s="16347" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16295" t="n">
+      <c r="B27" s="16397" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16246" t="s">
+      <c r="A28" s="16348" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16296" t="n">
+      <c r="B28" s="16398" t="n">
         <v>1.82</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16247" t="s">
+      <c r="A29" s="16349" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16297" t="n">
+      <c r="B29" s="16399" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16248" t="s">
+      <c r="A30" s="16350" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="16298" t="n">
+      <c r="B30" s="16400" t="n">
         <v>3.09</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16249" t="s">
+      <c r="A31" s="16351" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16299" t="n">
+      <c r="B31" s="16401" t="n">
         <v>10.83</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16250" t="s">
+      <c r="A32" s="16352" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="16300" t="n">
+      <c r="B32" s="16402" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16251" t="s">
+      <c r="A33" s="16353" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16301" t="n">
+      <c r="B33" s="16403" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16252" t="s">
+      <c r="A34" s="16354" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16302" t="n">
+      <c r="B34" s="16404" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16253" t="s">
+      <c r="A35" s="16355" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16303" t="n">
+      <c r="B35" s="16405" t="n">
         <v>1.08</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16254" t="s">
+      <c r="A36" s="16356" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="16304" t="n">
+      <c r="B36" s="16406" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16255" t="s">
+      <c r="A37" s="16357" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="16305" t="n">
+      <c r="B37" s="16407" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16256" t="s">
+      <c r="A38" s="16358" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16306" t="n">
+      <c r="B38" s="16408" t="n">
         <v>1.02</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16257" t="s">
+      <c r="A39" s="16359" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="16307" t="n">
+      <c r="B39" s="16409" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16258" t="s">
+      <c r="A40" s="16360" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16308" t="n">
+      <c r="B40" s="16410" t="n">
         <v>6.79</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16259" t="s">
+      <c r="A41" s="16361" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16309" t="n">
+      <c r="B41" s="16411" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16260" t="s">
+      <c r="A42" s="16362" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="16310" t="n">
+      <c r="B42" s="16412" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16261" t="s">
+      <c r="A43" s="16363" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16311" t="n">
+      <c r="B43" s="16413" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16262" t="s">
+      <c r="A44" s="16364" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16312" t="n">
+      <c r="B44" s="16414" t="n">
         <v>1.56</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16263" t="s">
+      <c r="A45" s="16365" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16313" t="n">
+      <c r="B45" s="16415" t="n">
         <v>4.01</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16264" t="s">
+      <c r="A46" s="16366" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="16314" t="n">
+      <c r="B46" s="16416" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16265" t="s">
+      <c r="A47" s="16367" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="16315" t="n">
+      <c r="B47" s="16417" t="n">
         <v>2.11</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16266" t="s">
+      <c r="A48" s="16368" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16316" t="n">
+      <c r="B48" s="16418" t="n">
         <v>4.47</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16267" t="s">
+      <c r="A49" s="16369" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16317" t="n">
+      <c r="B49" s="16419" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16268" t="s">
+      <c r="A50" s="16370" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16318" t="n">
+      <c r="B50" s="16420" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16269" t="s">
+      <c r="A51" s="16371" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16319" t="n">
+      <c r="B51" s="16421" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8279" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16422">
+  <cellXfs count="16728">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -49887,411 +50805,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16320" t="s">
+      <c r="A1" s="16626" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16321" t="s">
+      <c r="B1" s="16627" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16322" t="s">
+      <c r="A2" s="16628" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16372" t="n">
-        <v>3.0</v>
+      <c r="B2" s="16678" t="n">
+        <v>2.96</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16323" t="s">
+      <c r="A3" s="16629" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16373" t="n">
-        <v>1.94</v>
+      <c r="B3" s="16679" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16324" t="s">
+      <c r="A4" s="16630" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16374" t="n">
+      <c r="B4" s="16680" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16325" t="s">
+      <c r="A5" s="16631" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16375" t="n">
-        <v>2.27</v>
+      <c r="B5" s="16681" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16326" t="s">
+      <c r="A6" s="16632" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16376" t="n">
-        <v>1.32</v>
+      <c r="B6" s="16682" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16327" t="s">
+      <c r="A7" s="16633" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16377" t="n">
-        <v>5.51</v>
+      <c r="B7" s="16683" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16328" t="s">
+      <c r="A8" s="16634" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16378" t="n">
-        <v>1.92</v>
+      <c r="B8" s="16684" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16329" t="s">
+      <c r="A9" s="16635" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16379" t="n">
+      <c r="B9" s="16685" t="n">
         <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16330" t="s">
+      <c r="A10" s="16636" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16380" t="n">
-        <v>1.37</v>
+      <c r="B10" s="16686" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16331" t="s">
+      <c r="A11" s="16637" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16381" t="n">
-        <v>2.93</v>
+      <c r="B11" s="16687" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16332" t="s">
+      <c r="A12" s="16638" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16382" t="n">
+      <c r="B12" s="16688" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16333" t="s">
+      <c r="A13" s="16639" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16383" t="n">
-        <v>0.87</v>
+      <c r="B13" s="16689" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16334" t="s">
+      <c r="A14" s="16640" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16384" t="n">
-        <v>0.34</v>
+      <c r="B14" s="16690" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16335" t="s">
+      <c r="A15" s="16641" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16385" t="n">
-        <v>0.87</v>
+      <c r="B15" s="16691" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16336" t="s">
+      <c r="A16" s="16642" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16386" t="n">
-        <v>4.74</v>
+      <c r="B16" s="16692" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16337" t="s">
+      <c r="A17" s="16643" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16387" t="n">
-        <v>0.96</v>
+      <c r="B17" s="16693" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16338" t="s">
+      <c r="A18" s="16644" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16388" t="n">
+      <c r="B18" s="16694" t="n">
         <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16339" t="s">
+      <c r="A19" s="16645" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16389" t="n">
-        <v>3.15</v>
+      <c r="B19" s="16695" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16340" t="s">
+      <c r="A20" s="16646" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="16390" t="n">
-        <v>1.81</v>
+      <c r="B20" s="16696" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16341" t="s">
+      <c r="A21" s="16647" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="16391" t="n">
-        <v>2.71</v>
+      <c r="B21" s="16697" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16342" t="s">
+      <c r="A22" s="16648" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16392" t="n">
-        <v>0.77</v>
+      <c r="B22" s="16698" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16343" t="s">
+      <c r="A23" s="16649" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16393" t="n">
+      <c r="B23" s="16699" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16344" t="s">
+      <c r="A24" s="16650" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="16394" t="n">
+      <c r="B24" s="16700" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16345" t="s">
+      <c r="A25" s="16651" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16395" t="n">
+      <c r="B25" s="16701" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16346" t="s">
+      <c r="A26" s="16652" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16396" t="n">
+      <c r="B26" s="16702" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16347" t="s">
+      <c r="A27" s="16653" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16397" t="n">
-        <v>1.34</v>
+      <c r="B27" s="16703" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16348" t="s">
+      <c r="A28" s="16654" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16398" t="n">
-        <v>1.82</v>
+      <c r="B28" s="16704" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16349" t="s">
+      <c r="A29" s="16655" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16399" t="n">
+      <c r="B29" s="16705" t="n">
         <v>0.49</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16350" t="s">
+      <c r="A30" s="16656" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="16400" t="n">
-        <v>3.09</v>
+      <c r="B30" s="16706" t="n">
+        <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16351" t="s">
+      <c r="A31" s="16657" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16401" t="n">
-        <v>10.83</v>
+      <c r="B31" s="16707" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16352" t="s">
+      <c r="A32" s="16658" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="16402" t="n">
+      <c r="B32" s="16708" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16353" t="s">
+      <c r="A33" s="16659" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16403" t="n">
-        <v>1.9</v>
+      <c r="B33" s="16709" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16354" t="s">
+      <c r="A34" s="16660" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16404" t="n">
-        <v>1.32</v>
+      <c r="B34" s="16710" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16355" t="s">
+      <c r="A35" s="16661" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16405" t="n">
-        <v>1.08</v>
+      <c r="B35" s="16711" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16356" t="s">
+      <c r="A36" s="16662" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="16406" t="n">
-        <v>1.34</v>
+      <c r="B36" s="16712" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16357" t="s">
+      <c r="A37" s="16663" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="16407" t="n">
+      <c r="B37" s="16713" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16358" t="s">
+      <c r="A38" s="16664" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16408" t="n">
-        <v>1.02</v>
+      <c r="B38" s="16714" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16359" t="s">
+      <c r="A39" s="16665" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="16409" t="n">
-        <v>1.56</v>
+      <c r="B39" s="16715" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16360" t="s">
+      <c r="A40" s="16666" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16410" t="n">
-        <v>6.79</v>
+      <c r="B40" s="16716" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16361" t="s">
+      <c r="A41" s="16667" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16411" t="n">
+      <c r="B41" s="16717" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16362" t="s">
+      <c r="A42" s="16668" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="16412" t="n">
+      <c r="B42" s="16718" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16363" t="s">
+      <c r="A43" s="16669" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16413" t="n">
-        <v>0.88</v>
+      <c r="B43" s="16719" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16364" t="s">
+      <c r="A44" s="16670" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16414" t="n">
-        <v>1.56</v>
+      <c r="B44" s="16720" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16365" t="s">
+      <c r="A45" s="16671" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16415" t="n">
-        <v>4.01</v>
+      <c r="B45" s="16721" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16366" t="s">
+      <c r="A46" s="16672" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="16416" t="n">
-        <v>2.05</v>
+      <c r="B46" s="16722" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16367" t="s">
+      <c r="A47" s="16673" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="16417" t="n">
-        <v>2.11</v>
+      <c r="B47" s="16723" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16368" t="s">
+      <c r="A48" s="16674" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16418" t="n">
-        <v>4.47</v>
+      <c r="B48" s="16724" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16369" t="s">
+      <c r="A49" s="16675" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16419" t="n">
-        <v>1.8</v>
+      <c r="B49" s="16725" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16370" t="s">
+      <c r="A50" s="16676" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16420" t="n">
+      <c r="B50" s="16726" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16371" t="s">
+      <c r="A51" s="16677" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16421" t="n">
-        <v>1.2</v>
+      <c r="B51" s="16727" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16728">
+  <cellXfs count="16932">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -50805,411 +51417,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16626" t="s">
+      <c r="A1" s="16830" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16627" t="s">
+      <c r="B1" s="16831" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16628" t="s">
+      <c r="A2" s="16832" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16678" t="n">
-        <v>2.96</v>
+      <c r="B2" s="16882" t="n">
+        <v>2.98</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16629" t="s">
+      <c r="A3" s="16833" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16679" t="n">
-        <v>1.97</v>
+      <c r="B3" s="16883" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16630" t="s">
+      <c r="A4" s="16834" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16680" t="n">
+      <c r="B4" s="16884" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16631" t="s">
+      <c r="A5" s="16835" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16681" t="n">
-        <v>2.24</v>
+      <c r="B5" s="16885" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16632" t="s">
+      <c r="A6" s="16836" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16682" t="n">
-        <v>1.3</v>
+      <c r="B6" s="16886" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16633" t="s">
+      <c r="A7" s="16837" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16683" t="n">
-        <v>5.45</v>
+      <c r="B7" s="16887" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16634" t="s">
+      <c r="A8" s="16838" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16684" t="n">
-        <v>1.94</v>
+      <c r="B8" s="16888" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16635" t="s">
+      <c r="A9" s="16839" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16685" t="n">
-        <v>1.06</v>
+      <c r="B9" s="16889" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16636" t="s">
+      <c r="A10" s="16840" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16686" t="n">
-        <v>1.38</v>
+      <c r="B10" s="16890" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16637" t="s">
+      <c r="A11" s="16841" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16687" t="n">
-        <v>2.91</v>
+      <c r="B11" s="16891" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16638" t="s">
+      <c r="A12" s="16842" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16688" t="n">
+      <c r="B12" s="16892" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16639" t="s">
+      <c r="A13" s="16843" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16689" t="n">
-        <v>0.88</v>
+      <c r="B13" s="16893" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16640" t="s">
+      <c r="A14" s="16844" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16690" t="n">
+      <c r="B14" s="16894" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16641" t="s">
+      <c r="A15" s="16845" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16691" t="n">
-        <v>0.86</v>
+      <c r="B15" s="16895" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16642" t="s">
+      <c r="A16" s="16846" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16692" t="n">
-        <v>4.82</v>
+      <c r="B16" s="16896" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16643" t="s">
+      <c r="A17" s="16847" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16693" t="n">
-        <v>1.0</v>
+      <c r="B17" s="16897" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16644" t="s">
+      <c r="A18" s="16848" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16694" t="n">
-        <v>1.24</v>
+      <c r="B18" s="16898" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16645" t="s">
+      <c r="A19" s="16849" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16695" t="n">
-        <v>3.19</v>
+      <c r="B19" s="16899" t="n">
+        <v>3.24</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16646" t="s">
+      <c r="A20" s="16850" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="16696" t="n">
-        <v>1.79</v>
+      <c r="B20" s="16900" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16647" t="s">
+      <c r="A21" s="16851" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="16697" t="n">
-        <v>2.73</v>
+      <c r="B21" s="16901" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16648" t="s">
+      <c r="A22" s="16852" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16698" t="n">
+      <c r="B22" s="16902" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16649" t="s">
+      <c r="A23" s="16853" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16699" t="n">
+      <c r="B23" s="16903" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16650" t="s">
+      <c r="A24" s="16854" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="16700" t="n">
-        <v>1.29</v>
+      <c r="B24" s="16904" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16651" t="s">
+      <c r="A25" s="16855" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16701" t="n">
+      <c r="B25" s="16905" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16652" t="s">
+      <c r="A26" s="16856" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16702" t="n">
+      <c r="B26" s="16906" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16653" t="s">
+      <c r="A27" s="16857" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16703" t="n">
-        <v>1.33</v>
+      <c r="B27" s="16907" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16654" t="s">
+      <c r="A28" s="16858" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16704" t="n">
-        <v>1.8</v>
+      <c r="B28" s="16908" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16655" t="s">
+      <c r="A29" s="16859" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16705" t="n">
-        <v>0.49</v>
+      <c r="B29" s="16909" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16656" t="s">
+      <c r="A30" s="16860" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="16706" t="n">
+      <c r="B30" s="16910" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16657" t="s">
+      <c r="A31" s="16861" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16707" t="n">
-        <v>10.9</v>
+      <c r="B31" s="16911" t="n">
+        <v>10.57</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16658" t="s">
+      <c r="A32" s="16862" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="16708" t="n">
-        <v>1.4</v>
+      <c r="B32" s="16912" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16659" t="s">
+      <c r="A33" s="16863" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16709" t="n">
-        <v>1.92</v>
+      <c r="B33" s="16913" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16660" t="s">
+      <c r="A34" s="16864" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16710" t="n">
-        <v>1.31</v>
+      <c r="B34" s="16914" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16661" t="s">
+      <c r="A35" s="16865" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16711" t="n">
-        <v>1.1</v>
+      <c r="B35" s="16915" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16662" t="s">
+      <c r="A36" s="16866" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="16712" t="n">
+      <c r="B36" s="16916" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16663" t="s">
+      <c r="A37" s="16867" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="16713" t="n">
-        <v>0.9</v>
+      <c r="B37" s="16917" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16664" t="s">
+      <c r="A38" s="16868" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16714" t="n">
-        <v>1.0</v>
+      <c r="B38" s="16918" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16665" t="s">
+      <c r="A39" s="16869" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="16715" t="n">
-        <v>1.54</v>
+      <c r="B39" s="16919" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16666" t="s">
+      <c r="A40" s="16870" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16716" t="n">
-        <v>6.86</v>
+      <c r="B40" s="16920" t="n">
+        <v>6.67</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16667" t="s">
+      <c r="A41" s="16871" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16717" t="n">
+      <c r="B41" s="16921" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16668" t="s">
+      <c r="A42" s="16872" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="16718" t="n">
-        <v>0.45</v>
+      <c r="B42" s="16922" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16669" t="s">
+      <c r="A43" s="16873" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16719" t="n">
-        <v>0.89</v>
+      <c r="B43" s="16923" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16670" t="s">
+      <c r="A44" s="16874" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16720" t="n">
-        <v>1.51</v>
+      <c r="B44" s="16924" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16671" t="s">
+      <c r="A45" s="16875" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16721" t="n">
-        <v>4.0</v>
+      <c r="B45" s="16925" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16672" t="s">
+      <c r="A46" s="16876" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="16722" t="n">
-        <v>2.02</v>
+      <c r="B46" s="16926" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16673" t="s">
+      <c r="A47" s="16877" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="16723" t="n">
-        <v>2.17</v>
+      <c r="B47" s="16927" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16674" t="s">
+      <c r="A48" s="16878" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16724" t="n">
-        <v>4.45</v>
+      <c r="B48" s="16928" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16675" t="s">
+      <c r="A49" s="16879" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16725" t="n">
-        <v>1.79</v>
+      <c r="B49" s="16929" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16676" t="s">
+      <c r="A50" s="16880" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16726" t="n">
-        <v>0.67</v>
+      <c r="B50" s="16930" t="n">
+        <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16677" t="s">
+      <c r="A51" s="16881" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16727" t="n">
-        <v>1.15</v>
+      <c r="B51" s="16931" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16932">
+  <cellXfs count="17034">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -51417,410 +51723,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16830" t="s">
+      <c r="A1" s="16932" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16831" t="s">
+      <c r="B1" s="16933" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16832" t="s">
+      <c r="A2" s="16934" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16882" t="n">
+      <c r="B2" s="16984" t="n">
         <v>2.98</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16833" t="s">
+      <c r="A3" s="16935" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16883" t="n">
+      <c r="B3" s="16985" t="n">
         <v>1.98</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16834" t="s">
+      <c r="A4" s="16936" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16884" t="n">
+      <c r="B4" s="16986" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16835" t="s">
+      <c r="A5" s="16937" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16885" t="n">
+      <c r="B5" s="16987" t="n">
         <v>2.21</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16836" t="s">
+      <c r="A6" s="16938" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16886" t="n">
+      <c r="B6" s="16988" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16837" t="s">
+      <c r="A7" s="16939" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16887" t="n">
+      <c r="B7" s="16989" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16838" t="s">
+      <c r="A8" s="16940" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16888" t="n">
+      <c r="B8" s="16990" t="n">
         <v>1.93</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16839" t="s">
+      <c r="A9" s="16941" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16889" t="n">
+      <c r="B9" s="16991" t="n">
         <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16840" t="s">
+      <c r="A10" s="16942" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16890" t="n">
+      <c r="B10" s="16992" t="n">
         <v>1.48</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16841" t="s">
+      <c r="A11" s="16943" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16891" t="n">
+      <c r="B11" s="16993" t="n">
         <v>2.92</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16842" t="s">
+      <c r="A12" s="16944" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16892" t="n">
+      <c r="B12" s="16994" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16843" t="s">
+      <c r="A13" s="16945" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16893" t="n">
+      <c r="B13" s="16995" t="n">
         <v>0.92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16844" t="s">
+      <c r="A14" s="16946" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16894" t="n">
+      <c r="B14" s="16996" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16845" t="s">
+      <c r="A15" s="16947" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16895" t="n">
+      <c r="B15" s="16997" t="n">
         <v>0.89</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16846" t="s">
+      <c r="A16" s="16948" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16896" t="n">
+      <c r="B16" s="16998" t="n">
         <v>4.95</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16847" t="s">
+      <c r="A17" s="16949" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16897" t="n">
+      <c r="B17" s="16999" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16848" t="s">
+      <c r="A18" s="16950" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16898" t="n">
+      <c r="B18" s="17000" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16849" t="s">
+      <c r="A19" s="16951" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16899" t="n">
+      <c r="B19" s="17001" t="n">
         <v>3.24</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16850" t="s">
+      <c r="A20" s="16952" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="16900" t="n">
+      <c r="B20" s="17002" t="n">
         <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16851" t="s">
+      <c r="A21" s="16953" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="16901" t="n">
+      <c r="B21" s="17003" t="n">
         <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16852" t="s">
+      <c r="A22" s="16954" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16902" t="n">
+      <c r="B22" s="17004" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16853" t="s">
+      <c r="A23" s="16955" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16903" t="n">
+      <c r="B23" s="17005" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16854" t="s">
+      <c r="A24" s="16956" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="16904" t="n">
+      <c r="B24" s="17006" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16855" t="s">
+      <c r="A25" s="16957" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16905" t="n">
+      <c r="B25" s="17007" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16856" t="s">
+      <c r="A26" s="16958" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="16906" t="n">
+      <c r="B26" s="17008" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16857" t="s">
+      <c r="A27" s="16959" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="16907" t="n">
+      <c r="B27" s="17009" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16858" t="s">
+      <c r="A28" s="16960" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16908" t="n">
+      <c r="B28" s="17010" t="n">
         <v>1.67</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16859" t="s">
+      <c r="A29" s="16961" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16909" t="n">
+      <c r="B29" s="17011" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16860" t="s">
+      <c r="A30" s="16962" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="16910" t="n">
+      <c r="B30" s="17012" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16861" t="s">
+      <c r="A31" s="16963" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="16911" t="n">
+      <c r="B31" s="17013" t="n">
         <v>10.57</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16862" t="s">
+      <c r="A32" s="16964" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="16912" t="n">
+      <c r="B32" s="17014" t="n">
         <v>1.38</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16863" t="s">
+      <c r="A33" s="16965" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="16913" t="n">
+      <c r="B33" s="17015" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16864" t="s">
+      <c r="A34" s="16966" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="16914" t="n">
+      <c r="B34" s="17016" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16865" t="s">
+      <c r="A35" s="16967" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16915" t="n">
+      <c r="B35" s="17017" t="n">
         <v>1.17</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16866" t="s">
+      <c r="A36" s="16968" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="16916" t="n">
+      <c r="B36" s="17018" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16867" t="s">
+      <c r="A37" s="16969" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="16917" t="n">
+      <c r="B37" s="17019" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16868" t="s">
+      <c r="A38" s="16970" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="16918" t="n">
+      <c r="B38" s="17020" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16869" t="s">
+      <c r="A39" s="16971" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="16919" t="n">
+      <c r="B39" s="17021" t="n">
         <v>1.62</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16870" t="s">
+      <c r="A40" s="16972" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="16920" t="n">
+      <c r="B40" s="17022" t="n">
         <v>6.67</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16871" t="s">
+      <c r="A41" s="16973" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="16921" t="n">
+      <c r="B41" s="17023" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16872" t="s">
+      <c r="A42" s="16974" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="16922" t="n">
+      <c r="B42" s="17024" t="n">
         <v>0.46</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16873" t="s">
+      <c r="A43" s="16975" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="16923" t="n">
+      <c r="B43" s="17025" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16874" t="s">
+      <c r="A44" s="16976" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="16924" t="n">
+      <c r="B44" s="17026" t="n">
         <v>1.53</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16875" t="s">
+      <c r="A45" s="16977" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="16925" t="n">
+      <c r="B45" s="17027" t="n">
         <v>4.04</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16876" t="s">
+      <c r="A46" s="16978" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="16926" t="n">
+      <c r="B46" s="17028" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16877" t="s">
+      <c r="A47" s="16979" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="16927" t="n">
+      <c r="B47" s="17029" t="n">
         <v>2.23</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16878" t="s">
+      <c r="A48" s="16980" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16928" t="n">
+      <c r="B48" s="17030" t="n">
         <v>4.36</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16879" t="s">
+      <c r="A49" s="16981" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="16929" t="n">
+      <c r="B49" s="17031" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16880" t="s">
+      <c r="A50" s="16982" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16930" t="n">
+      <c r="B50" s="17032" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16881" t="s">
+      <c r="A51" s="16983" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16931" t="n">
+      <c r="B51" s="17033" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8643" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17034">
+  <cellXfs count="17136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -51723,411 +52029,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="16932" t="s">
+      <c r="A1" s="17034" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16933" t="s">
+      <c r="B1" s="17035" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="16934" t="s">
+      <c r="A2" s="17036" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16984" t="n">
-        <v>2.98</v>
+      <c r="B2" s="17086" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="16935" t="s">
+      <c r="A3" s="17037" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16985" t="n">
-        <v>1.98</v>
+      <c r="B3" s="17087" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="16936" t="s">
+      <c r="A4" s="17038" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="16986" t="n">
-        <v>2.77</v>
+      <c r="B4" s="17088" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="16937" t="s">
+      <c r="A5" s="17039" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16987" t="n">
-        <v>2.21</v>
+      <c r="B5" s="17089" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="16938" t="s">
+      <c r="A6" s="17040" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="16988" t="n">
-        <v>1.33</v>
+      <c r="B6" s="17090" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="16939" t="s">
+      <c r="A7" s="17041" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16989" t="n">
-        <v>5.5</v>
+      <c r="B7" s="17091" t="n">
+        <v>5.43</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="16940" t="s">
+      <c r="A8" s="17042" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16990" t="n">
-        <v>1.93</v>
+      <c r="B8" s="17092" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="16941" t="s">
+      <c r="A9" s="17043" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16991" t="n">
-        <v>1.05</v>
+      <c r="B9" s="17093" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="16942" t="s">
+      <c r="A10" s="17044" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="16992" t="n">
-        <v>1.48</v>
+      <c r="B10" s="17094" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="16943" t="s">
+      <c r="A11" s="17045" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16993" t="n">
-        <v>2.92</v>
+      <c r="B11" s="17095" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="16944" t="s">
+      <c r="A12" s="17046" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16994" t="n">
-        <v>1.0</v>
+      <c r="B12" s="17096" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="16945" t="s">
+      <c r="A13" s="17047" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16995" t="n">
-        <v>0.92</v>
+      <c r="B13" s="17097" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="16946" t="s">
+      <c r="A14" s="17048" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="16996" t="n">
+      <c r="B14" s="17098" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="16947" t="s">
+      <c r="A15" s="17049" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16997" t="n">
-        <v>0.89</v>
+      <c r="B15" s="17099" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="16948" t="s">
+      <c r="A16" s="17050" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="16998" t="n">
-        <v>4.95</v>
+      <c r="B16" s="17100" t="n">
+        <v>5.08</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="16949" t="s">
+      <c r="A17" s="17051" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="16999" t="n">
+      <c r="B17" s="17101" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="16950" t="s">
+      <c r="A18" s="17052" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17000" t="n">
-        <v>1.27</v>
+      <c r="B18" s="17102" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="16951" t="s">
+      <c r="A19" s="17053" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17001" t="n">
-        <v>3.24</v>
+      <c r="B19" s="17103" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="16952" t="s">
+      <c r="A20" s="17054" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17002" t="n">
-        <v>1.77</v>
+      <c r="B20" s="17104" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="16953" t="s">
+      <c r="A21" s="17055" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17003" t="n">
-        <v>2.72</v>
+      <c r="B21" s="17105" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="16954" t="s">
+      <c r="A22" s="17056" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17004" t="n">
-        <v>0.79</v>
+      <c r="B22" s="17106" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="16955" t="s">
+      <c r="A23" s="17057" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17005" t="n">
+      <c r="B23" s="17107" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="16956" t="s">
+      <c r="A24" s="17058" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17006" t="n">
-        <v>1.32</v>
+      <c r="B24" s="17108" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="16957" t="s">
+      <c r="A25" s="17059" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17007" t="n">
-        <v>0.75</v>
+      <c r="B25" s="17109" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="16958" t="s">
+      <c r="A26" s="17060" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17008" t="n">
+      <c r="B26" s="17110" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="16959" t="s">
+      <c r="A27" s="17061" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17009" t="n">
-        <v>1.39</v>
+      <c r="B27" s="17111" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="16960" t="s">
+      <c r="A28" s="17062" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17010" t="n">
-        <v>1.67</v>
+      <c r="B28" s="17112" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="16961" t="s">
+      <c r="A29" s="17063" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17011" t="n">
+      <c r="B29" s="17113" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="16962" t="s">
+      <c r="A30" s="17064" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17012" t="n">
+      <c r="B30" s="17114" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="16963" t="s">
+      <c r="A31" s="17065" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17013" t="n">
-        <v>10.57</v>
+      <c r="B31" s="17115" t="n">
+        <v>10.68</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="16964" t="s">
+      <c r="A32" s="17066" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17014" t="n">
-        <v>1.38</v>
+      <c r="B32" s="17116" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="16965" t="s">
+      <c r="A33" s="17067" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17015" t="n">
+      <c r="B33" s="17117" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="16966" t="s">
+      <c r="A34" s="17068" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17016" t="n">
-        <v>1.32</v>
+      <c r="B34" s="17118" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="16967" t="s">
+      <c r="A35" s="17069" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17017" t="n">
-        <v>1.17</v>
+      <c r="B35" s="17119" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="16968" t="s">
+      <c r="A36" s="17070" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17018" t="n">
+      <c r="B36" s="17120" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="16969" t="s">
+      <c r="A37" s="17071" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17019" t="n">
+      <c r="B37" s="17121" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="16970" t="s">
+      <c r="A38" s="17072" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17020" t="n">
-        <v>0.98</v>
+      <c r="B38" s="17122" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="16971" t="s">
+      <c r="A39" s="17073" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17021" t="n">
-        <v>1.62</v>
+      <c r="B39" s="17123" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="16972" t="s">
+      <c r="A40" s="17074" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17022" t="n">
-        <v>6.67</v>
+      <c r="B40" s="17124" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="16973" t="s">
+      <c r="A41" s="17075" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17023" t="n">
+      <c r="B41" s="17125" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="16974" t="s">
+      <c r="A42" s="17076" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17024" t="n">
-        <v>0.46</v>
+      <c r="B42" s="17126" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="16975" t="s">
+      <c r="A43" s="17077" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17025" t="n">
+      <c r="B43" s="17127" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="16976" t="s">
+      <c r="A44" s="17078" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17026" t="n">
+      <c r="B44" s="17128" t="n">
         <v>1.53</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="16977" t="s">
+      <c r="A45" s="17079" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17027" t="n">
-        <v>4.04</v>
+      <c r="B45" s="17129" t="n">
+        <v>3.97</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="16978" t="s">
+      <c r="A46" s="17080" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17028" t="n">
-        <v>2.0</v>
+      <c r="B46" s="17130" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="16979" t="s">
+      <c r="A47" s="17081" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17029" t="n">
-        <v>2.23</v>
+      <c r="B47" s="17131" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="16980" t="s">
+      <c r="A48" s="17082" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="17030" t="n">
-        <v>4.36</v>
+      <c r="B48" s="17132" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="16981" t="s">
+      <c r="A49" s="17083" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17031" t="n">
-        <v>1.88</v>
+      <c r="B49" s="17133" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="16982" t="s">
+      <c r="A50" s="17084" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17032" t="n">
+      <c r="B50" s="17134" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="16983" t="s">
+      <c r="A51" s="17085" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17033" t="n">
-        <v>1.13</v>
+      <c r="B51" s="17135" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8643" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8747" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17136">
+  <cellXfs count="17340">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -52029,411 +52641,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17034" t="s">
+      <c r="A1" s="17238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17035" t="s">
+      <c r="B1" s="17239" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17036" t="s">
+      <c r="A2" s="17240" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17086" t="n">
+      <c r="B2" s="17290" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17037" t="s">
+      <c r="A3" s="17241" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17087" t="n">
+      <c r="B3" s="17291" t="n">
         <v>1.97</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17038" t="s">
+      <c r="A4" s="17242" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17088" t="n">
-        <v>2.72</v>
+      <c r="B4" s="17292" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17039" t="s">
+      <c r="A5" s="17243" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17089" t="n">
+      <c r="B5" s="17293" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17040" t="s">
+      <c r="A6" s="17244" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17090" t="n">
-        <v>1.31</v>
+      <c r="B6" s="17294" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17041" t="s">
+      <c r="A7" s="17245" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17091" t="n">
-        <v>5.43</v>
+      <c r="B7" s="17295" t="n">
+        <v>5.41</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17042" t="s">
+      <c r="A8" s="17246" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17092" t="n">
-        <v>1.89</v>
+      <c r="B8" s="17296" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17043" t="s">
+      <c r="A9" s="17247" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="17093" t="n">
-        <v>1.06</v>
+      <c r="B9" s="17297" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17044" t="s">
+      <c r="A10" s="17248" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17094" t="n">
-        <v>1.52</v>
+      <c r="B10" s="17298" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17045" t="s">
+      <c r="A11" s="17249" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17095" t="n">
-        <v>2.86</v>
+      <c r="B11" s="17299" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17046" t="s">
+      <c r="A12" s="17250" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17096" t="n">
-        <v>1.01</v>
+      <c r="B12" s="17300" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17047" t="s">
+      <c r="A13" s="17251" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17097" t="n">
+      <c r="B13" s="17301" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17048" t="s">
+      <c r="A14" s="17252" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17098" t="n">
+      <c r="B14" s="17302" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17049" t="s">
+      <c r="A15" s="17253" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17099" t="n">
+      <c r="B15" s="17303" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17050" t="s">
+      <c r="A16" s="17254" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17100" t="n">
-        <v>5.08</v>
+      <c r="B16" s="17304" t="n">
+        <v>5.02</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17051" t="s">
+      <c r="A17" s="17255" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17101" t="n">
-        <v>0.93</v>
+      <c r="B17" s="17305" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17052" t="s">
+      <c r="A18" s="17256" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17102" t="n">
-        <v>1.26</v>
+      <c r="B18" s="17306" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17053" t="s">
+      <c r="A19" s="17257" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17103" t="n">
-        <v>3.26</v>
+      <c r="B19" s="17307" t="n">
+        <v>3.16</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17054" t="s">
+      <c r="A20" s="17258" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17104" t="n">
-        <v>1.81</v>
+      <c r="B20" s="17308" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17055" t="s">
+      <c r="A21" s="17259" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17105" t="n">
-        <v>2.75</v>
+      <c r="B21" s="17309" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17056" t="s">
+      <c r="A22" s="17260" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17106" t="n">
-        <v>0.78</v>
+      <c r="B22" s="17310" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17057" t="s">
+      <c r="A23" s="17261" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17107" t="n">
+      <c r="B23" s="17311" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17058" t="s">
+      <c r="A24" s="17262" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17108" t="n">
-        <v>1.31</v>
+      <c r="B24" s="17312" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17059" t="s">
+      <c r="A25" s="17263" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17109" t="n">
-        <v>0.74</v>
+      <c r="B25" s="17313" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17060" t="s">
+      <c r="A26" s="17264" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17110" t="n">
-        <v>0.4</v>
+      <c r="B26" s="17314" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17061" t="s">
+      <c r="A27" s="17265" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17111" t="n">
-        <v>1.37</v>
+      <c r="B27" s="17315" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17062" t="s">
+      <c r="A28" s="17266" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17112" t="n">
-        <v>1.69</v>
+      <c r="B28" s="17316" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17063" t="s">
+      <c r="A29" s="17267" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17113" t="n">
+      <c r="B29" s="17317" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17064" t="s">
+      <c r="A30" s="17268" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17114" t="n">
+      <c r="B30" s="17318" t="n">
         <v>3.04</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17065" t="s">
+      <c r="A31" s="17269" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17115" t="n">
-        <v>10.68</v>
+      <c r="B31" s="17319" t="n">
+        <v>10.79</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17066" t="s">
+      <c r="A32" s="17270" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17116" t="n">
-        <v>1.37</v>
+      <c r="B32" s="17320" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17067" t="s">
+      <c r="A33" s="17271" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17117" t="n">
-        <v>1.88</v>
+      <c r="B33" s="17321" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17068" t="s">
+      <c r="A34" s="17272" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17118" t="n">
-        <v>1.3</v>
+      <c r="B34" s="17322" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17069" t="s">
+      <c r="A35" s="17273" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17119" t="n">
-        <v>1.18</v>
+      <c r="B35" s="17323" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17070" t="s">
+      <c r="A36" s="17274" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17120" t="n">
+      <c r="B36" s="17324" t="n">
         <v>1.33</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17071" t="s">
+      <c r="A37" s="17275" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17121" t="n">
+      <c r="B37" s="17325" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17072" t="s">
+      <c r="A38" s="17276" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17122" t="n">
-        <v>0.99</v>
+      <c r="B38" s="17326" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17073" t="s">
+      <c r="A39" s="17277" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17123" t="n">
-        <v>1.6</v>
+      <c r="B39" s="17327" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17074" t="s">
+      <c r="A40" s="17278" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17124" t="n">
-        <v>6.7</v>
+      <c r="B40" s="17328" t="n">
+        <v>6.77</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17075" t="s">
+      <c r="A41" s="17279" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17125" t="n">
-        <v>0.31</v>
+      <c r="B41" s="17329" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17076" t="s">
+      <c r="A42" s="17280" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17126" t="n">
-        <v>0.45</v>
+      <c r="B42" s="17330" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17077" t="s">
+      <c r="A43" s="17281" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17127" t="n">
-        <v>0.9</v>
+      <c r="B43" s="17331" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17078" t="s">
+      <c r="A44" s="17282" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17128" t="n">
-        <v>1.53</v>
+      <c r="B44" s="17332" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17079" t="s">
+      <c r="A45" s="17283" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17129" t="n">
-        <v>3.97</v>
+      <c r="B45" s="17333" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17080" t="s">
+      <c r="A46" s="17284" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17130" t="n">
+      <c r="B46" s="17334" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="17285" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="17335" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="17286" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="17336" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="17287" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="17337" t="n">
         <v>2.01</v>
       </c>
     </row>
-    <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17081" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="17131" t="n">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17082" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="17132" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17083" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="17133" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17084" t="s">
+      <c r="A50" s="17288" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17134" t="n">
+      <c r="B50" s="17338" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17085" t="s">
+      <c r="A51" s="17289" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17135" t="n">
-        <v>1.16</v>
+      <c r="B51" s="17339" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8747" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8851" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17340">
+  <cellXfs count="17544">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -52641,411 +53253,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17238" t="s">
+      <c r="A1" s="17442" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17239" t="s">
+      <c r="B1" s="17443" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17240" t="s">
+      <c r="A2" s="17444" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17290" t="n">
-        <v>2.93</v>
+      <c r="B2" s="17494" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17241" t="s">
+      <c r="A3" s="17445" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17291" t="n">
-        <v>1.97</v>
+      <c r="B3" s="17495" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17242" t="s">
+      <c r="A4" s="17446" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17292" t="n">
-        <v>2.78</v>
+      <c r="B4" s="17496" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17243" t="s">
+      <c r="A5" s="17447" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17293" t="n">
-        <v>2.19</v>
+      <c r="B5" s="17497" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17244" t="s">
+      <c r="A6" s="17448" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17294" t="n">
-        <v>1.29</v>
+      <c r="B6" s="17498" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17245" t="s">
+      <c r="A7" s="17449" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17295" t="n">
-        <v>5.41</v>
+      <c r="B7" s="17499" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17246" t="s">
+      <c r="A8" s="17450" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17296" t="n">
+      <c r="B8" s="17500" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17247" t="s">
+      <c r="A9" s="17451" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="17297" t="n">
-        <v>1.05</v>
+      <c r="B9" s="17501" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17248" t="s">
+      <c r="A10" s="17452" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17298" t="n">
-        <v>1.49</v>
+      <c r="B10" s="17502" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17249" t="s">
+      <c r="A11" s="17453" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17299" t="n">
-        <v>2.85</v>
+      <c r="B11" s="17503" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17250" t="s">
+      <c r="A12" s="17454" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17300" t="n">
-        <v>1.0</v>
+      <c r="B12" s="17504" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17251" t="s">
+      <c r="A13" s="17455" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17301" t="n">
-        <v>0.9</v>
+      <c r="B13" s="17505" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17252" t="s">
+      <c r="A14" s="17456" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17302" t="n">
+      <c r="B14" s="17506" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17253" t="s">
+      <c r="A15" s="17457" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17303" t="n">
-        <v>0.88</v>
+      <c r="B15" s="17507" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17254" t="s">
+      <c r="A16" s="17458" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17304" t="n">
-        <v>5.02</v>
+      <c r="B16" s="17508" t="n">
+        <v>4.98</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17255" t="s">
+      <c r="A17" s="17459" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17305" t="n">
-        <v>0.94</v>
+      <c r="B17" s="17509" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17256" t="s">
+      <c r="A18" s="17460" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17306" t="n">
+      <c r="B18" s="17510" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17257" t="s">
+      <c r="A19" s="17461" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17307" t="n">
-        <v>3.16</v>
+      <c r="B19" s="17511" t="n">
+        <v>3.17</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17258" t="s">
+      <c r="A20" s="17462" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17308" t="n">
-        <v>1.83</v>
+      <c r="B20" s="17512" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17259" t="s">
+      <c r="A21" s="17463" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17309" t="n">
-        <v>2.71</v>
+      <c r="B21" s="17513" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17260" t="s">
+      <c r="A22" s="17464" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17310" t="n">
-        <v>0.79</v>
+      <c r="B22" s="17514" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17261" t="s">
+      <c r="A23" s="17465" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17311" t="n">
+      <c r="B23" s="17515" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17262" t="s">
+      <c r="A24" s="17466" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17312" t="n">
+      <c r="B24" s="17516" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17263" t="s">
+      <c r="A25" s="17467" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17313" t="n">
+      <c r="B25" s="17517" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17264" t="s">
+      <c r="A26" s="17468" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17314" t="n">
-        <v>0.39</v>
+      <c r="B26" s="17518" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17265" t="s">
+      <c r="A27" s="17469" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17315" t="n">
+      <c r="B27" s="17519" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17266" t="s">
+      <c r="A28" s="17470" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17316" t="n">
-        <v>1.71</v>
+      <c r="B28" s="17520" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17267" t="s">
+      <c r="A29" s="17471" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17317" t="n">
-        <v>0.5</v>
+      <c r="B29" s="17521" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17268" t="s">
+      <c r="A30" s="17472" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17318" t="n">
-        <v>3.04</v>
+      <c r="B30" s="17522" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17269" t="s">
+      <c r="A31" s="17473" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17319" t="n">
-        <v>10.79</v>
+      <c r="B31" s="17523" t="n">
+        <v>10.75</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17270" t="s">
+      <c r="A32" s="17474" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17320" t="n">
+      <c r="B32" s="17524" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17271" t="s">
+      <c r="A33" s="17475" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17321" t="n">
-        <v>1.87</v>
+      <c r="B33" s="17525" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17272" t="s">
+      <c r="A34" s="17476" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17322" t="n">
-        <v>1.29</v>
+      <c r="B34" s="17526" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17273" t="s">
+      <c r="A35" s="17477" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17323" t="n">
+      <c r="B35" s="17527" t="n">
         <v>1.19</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17274" t="s">
+      <c r="A36" s="17478" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17324" t="n">
-        <v>1.33</v>
+      <c r="B36" s="17528" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17275" t="s">
+      <c r="A37" s="17479" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17325" t="n">
+      <c r="B37" s="17529" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17276" t="s">
+      <c r="A38" s="17480" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17326" t="n">
-        <v>0.98</v>
+      <c r="B38" s="17530" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17277" t="s">
+      <c r="A39" s="17481" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17327" t="n">
-        <v>1.59</v>
+      <c r="B39" s="17531" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17278" t="s">
+      <c r="A40" s="17482" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17328" t="n">
-        <v>6.77</v>
+      <c r="B40" s="17532" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17279" t="s">
+      <c r="A41" s="17483" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17329" t="n">
-        <v>0.3</v>
+      <c r="B41" s="17533" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17280" t="s">
+      <c r="A42" s="17484" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17330" t="n">
+      <c r="B42" s="17534" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17281" t="s">
+      <c r="A43" s="17485" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17331" t="n">
-        <v>0.91</v>
+      <c r="B43" s="17535" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17282" t="s">
+      <c r="A44" s="17486" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17332" t="n">
-        <v>1.5</v>
+      <c r="B44" s="17536" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17283" t="s">
+      <c r="A45" s="17487" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17333" t="n">
+      <c r="B45" s="17537" t="n">
         <v>3.94</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17284" t="s">
+      <c r="A46" s="17488" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17334" t="n">
+      <c r="B46" s="17538" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17285" t="s">
+      <c r="A47" s="17489" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17335" t="n">
-        <v>2.24</v>
+      <c r="B47" s="17539" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17286" t="s">
+      <c r="A48" s="17490" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="17336" t="n">
-        <v>4.31</v>
+      <c r="B48" s="17540" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17287" t="s">
+      <c r="A49" s="17491" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17337" t="n">
-        <v>2.01</v>
+      <c r="B49" s="17541" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17288" t="s">
+      <c r="A50" s="17492" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17338" t="n">
+      <c r="B50" s="17542" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17289" t="s">
+      <c r="A51" s="17493" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17339" t="n">
-        <v>1.18</v>
+      <c r="B51" s="17543" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8851" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9007" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17544">
+  <cellXfs count="17850">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -53253,411 +54171,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17442" t="s">
+      <c r="A1" s="17748" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17443" t="s">
+      <c r="B1" s="17749" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17444" t="s">
+      <c r="A2" s="17750" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17494" t="n">
-        <v>2.94</v>
+      <c r="B2" s="17800" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17445" t="s">
+      <c r="A3" s="17751" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17495" t="n">
-        <v>1.93</v>
+      <c r="B3" s="17801" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17446" t="s">
+      <c r="A4" s="17752" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17496" t="n">
-        <v>2.77</v>
+      <c r="B4" s="17802" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17447" t="s">
+      <c r="A5" s="17753" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17497" t="n">
+      <c r="B5" s="17803" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17448" t="s">
+      <c r="A6" s="17754" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17498" t="n">
-        <v>1.3</v>
+      <c r="B6" s="17804" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17449" t="s">
+      <c r="A7" s="17755" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17499" t="n">
-        <v>5.42</v>
+      <c r="B7" s="17805" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17450" t="s">
+      <c r="A8" s="17756" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17500" t="n">
-        <v>1.94</v>
+      <c r="B8" s="17806" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17451" t="s">
+      <c r="A9" s="17757" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="17501" t="n">
-        <v>1.08</v>
+      <c r="B9" s="17807" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17452" t="s">
+      <c r="A10" s="17758" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17502" t="n">
+      <c r="B10" s="17808" t="n">
         <v>1.48</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17453" t="s">
+      <c r="A11" s="17759" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17503" t="n">
-        <v>2.86</v>
+      <c r="B11" s="17809" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17454" t="s">
+      <c r="A12" s="17760" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17504" t="n">
-        <v>1.01</v>
+      <c r="B12" s="17810" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17455" t="s">
+      <c r="A13" s="17761" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17505" t="n">
+      <c r="B13" s="17811" t="n">
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17456" t="s">
+      <c r="A14" s="17762" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17506" t="n">
+      <c r="B14" s="17812" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17457" t="s">
+      <c r="A15" s="17763" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17507" t="n">
+      <c r="B15" s="17813" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17458" t="s">
+      <c r="A16" s="17764" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17508" t="n">
-        <v>4.98</v>
+      <c r="B16" s="17814" t="n">
+        <v>4.93</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17459" t="s">
+      <c r="A17" s="17765" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17509" t="n">
-        <v>0.95</v>
+      <c r="B17" s="17815" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17460" t="s">
+      <c r="A18" s="17766" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17510" t="n">
+      <c r="B18" s="17816" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17461" t="s">
+      <c r="A19" s="17767" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17511" t="n">
-        <v>3.17</v>
+      <c r="B19" s="17817" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17462" t="s">
+      <c r="A20" s="17768" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17512" t="n">
-        <v>1.81</v>
+      <c r="B20" s="17818" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17463" t="s">
+      <c r="A21" s="17769" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17513" t="n">
-        <v>2.74</v>
+      <c r="B21" s="17819" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17464" t="s">
+      <c r="A22" s="17770" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17514" t="n">
+      <c r="B22" s="17820" t="n">
         <v>0.77</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17465" t="s">
+      <c r="A23" s="17771" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17515" t="n">
+      <c r="B23" s="17821" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17466" t="s">
+      <c r="A24" s="17772" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17516" t="n">
+      <c r="B24" s="17822" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17467" t="s">
+      <c r="A25" s="17773" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17517" t="n">
+      <c r="B25" s="17823" t="n">
         <v>0.73</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17468" t="s">
+      <c r="A26" s="17774" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17518" t="n">
-        <v>0.4</v>
+      <c r="B26" s="17824" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17469" t="s">
+      <c r="A27" s="17775" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17519" t="n">
+      <c r="B27" s="17825" t="n">
         <v>1.39</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17470" t="s">
+      <c r="A28" s="17776" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17520" t="n">
+      <c r="B28" s="17826" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17471" t="s">
+      <c r="A29" s="17777" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17521" t="n">
-        <v>0.53</v>
+      <c r="B29" s="17827" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17472" t="s">
+      <c r="A30" s="17778" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17522" t="n">
-        <v>3.05</v>
+      <c r="B30" s="17828" t="n">
+        <v>2.96</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17473" t="s">
+      <c r="A31" s="17779" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17523" t="n">
-        <v>10.75</v>
+      <c r="B31" s="17829" t="n">
+        <v>11.16</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17474" t="s">
+      <c r="A32" s="17780" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17524" t="n">
-        <v>1.39</v>
+      <c r="B32" s="17830" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17475" t="s">
+      <c r="A33" s="17781" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17525" t="n">
+      <c r="B33" s="17831" t="n">
         <v>1.88</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17476" t="s">
+      <c r="A34" s="17782" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17526" t="n">
-        <v>1.31</v>
+      <c r="B34" s="17832" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17477" t="s">
+      <c r="A35" s="17783" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17527" t="n">
-        <v>1.19</v>
+      <c r="B35" s="17833" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17478" t="s">
+      <c r="A36" s="17784" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17528" t="n">
-        <v>1.34</v>
+      <c r="B36" s="17834" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17479" t="s">
+      <c r="A37" s="17785" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17529" t="n">
-        <v>0.91</v>
+      <c r="B37" s="17835" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17480" t="s">
+      <c r="A38" s="17786" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17530" t="n">
-        <v>0.99</v>
+      <c r="B38" s="17836" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17481" t="s">
+      <c r="A39" s="17787" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17531" t="n">
-        <v>1.58</v>
+      <c r="B39" s="17837" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17482" t="s">
+      <c r="A40" s="17788" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17532" t="n">
-        <v>6.73</v>
+      <c r="B40" s="17838" t="n">
+        <v>6.81</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17483" t="s">
+      <c r="A41" s="17789" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17533" t="n">
+      <c r="B41" s="17839" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17484" t="s">
+      <c r="A42" s="17790" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17534" t="n">
+      <c r="B42" s="17840" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17485" t="s">
+      <c r="A43" s="17791" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17535" t="n">
-        <v>0.9</v>
+      <c r="B43" s="17841" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17486" t="s">
+      <c r="A44" s="17792" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17536" t="n">
-        <v>1.52</v>
+      <c r="B44" s="17842" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17487" t="s">
+      <c r="A45" s="17793" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17537" t="n">
-        <v>3.94</v>
+      <c r="B45" s="17843" t="n">
+        <v>3.93</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17488" t="s">
+      <c r="A46" s="17794" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17538" t="n">
-        <v>2.0</v>
+      <c r="B46" s="17844" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17489" t="s">
+      <c r="A47" s="17795" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17539" t="n">
-        <v>2.2</v>
+      <c r="B47" s="17845" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17490" t="s">
+      <c r="A48" s="17796" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="17540" t="n">
-        <v>4.33</v>
+      <c r="B48" s="17846" t="n">
+        <v>4.31</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17491" t="s">
+      <c r="A49" s="17797" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17541" t="n">
-        <v>1.99</v>
+      <c r="B49" s="17847" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17492" t="s">
+      <c r="A50" s="17798" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17542" t="n">
+      <c r="B50" s="17848" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17493" t="s">
+      <c r="A51" s="17799" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17543" t="n">
-        <v>1.19</v>
+      <c r="B51" s="17849" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9007" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17850">
+  <cellXfs count="17952">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -54171,411 +54477,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17748" t="s">
+      <c r="A1" s="17850" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17749" t="s">
+      <c r="B1" s="17851" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17750" t="s">
+      <c r="A2" s="17852" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17800" t="n">
+      <c r="B2" s="17902" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17751" t="s">
+      <c r="A3" s="17853" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17801" t="n">
-        <v>1.94</v>
+      <c r="B3" s="17903" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17752" t="s">
+      <c r="A4" s="17854" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17802" t="n">
+      <c r="B4" s="17904" t="n">
         <v>2.76</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17753" t="s">
+      <c r="A5" s="17855" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17803" t="n">
-        <v>2.2</v>
+      <c r="B5" s="17905" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17754" t="s">
+      <c r="A6" s="17856" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17804" t="n">
-        <v>1.29</v>
+      <c r="B6" s="17906" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17755" t="s">
+      <c r="A7" s="17857" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17805" t="n">
-        <v>5.4</v>
+      <c r="B7" s="17907" t="n">
+        <v>5.39</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17756" t="s">
+      <c r="A8" s="17858" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17806" t="n">
-        <v>1.92</v>
+      <c r="B8" s="17908" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17757" t="s">
+      <c r="A9" s="17859" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="17807" t="n">
+      <c r="B9" s="17909" t="n">
         <v>1.07</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17758" t="s">
+      <c r="A10" s="17860" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17808" t="n">
-        <v>1.48</v>
+      <c r="B10" s="17910" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17759" t="s">
+      <c r="A11" s="17861" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17809" t="n">
-        <v>2.85</v>
+      <c r="B11" s="17911" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17760" t="s">
+      <c r="A12" s="17862" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17810" t="n">
+      <c r="B12" s="17912" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17761" t="s">
+      <c r="A13" s="17863" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17811" t="n">
-        <v>0.89</v>
+      <c r="B13" s="17913" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17762" t="s">
+      <c r="A14" s="17864" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17812" t="n">
+      <c r="B14" s="17914" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17763" t="s">
+      <c r="A15" s="17865" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17813" t="n">
+      <c r="B15" s="17915" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17764" t="s">
+      <c r="A16" s="17866" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17814" t="n">
-        <v>4.93</v>
+      <c r="B16" s="17916" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17765" t="s">
+      <c r="A17" s="17867" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17815" t="n">
-        <v>0.93</v>
+      <c r="B17" s="17917" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17766" t="s">
+      <c r="A18" s="17868" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17816" t="n">
-        <v>1.25</v>
+      <c r="B18" s="17918" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17767" t="s">
+      <c r="A19" s="17869" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17817" t="n">
-        <v>3.15</v>
+      <c r="B19" s="17919" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17768" t="s">
+      <c r="A20" s="17870" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17818" t="n">
-        <v>1.8</v>
+      <c r="B20" s="17920" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17769" t="s">
+      <c r="A21" s="17871" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17819" t="n">
+      <c r="B21" s="17921" t="n">
         <v>2.72</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17770" t="s">
+      <c r="A22" s="17872" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17820" t="n">
-        <v>0.77</v>
+      <c r="B22" s="17922" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17771" t="s">
+      <c r="A23" s="17873" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17821" t="n">
+      <c r="B23" s="17923" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17772" t="s">
+      <c r="A24" s="17874" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17822" t="n">
-        <v>1.3</v>
+      <c r="B24" s="17924" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17773" t="s">
+      <c r="A25" s="17875" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17823" t="n">
-        <v>0.73</v>
+      <c r="B25" s="17925" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17774" t="s">
+      <c r="A26" s="17876" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17824" t="n">
+      <c r="B26" s="17926" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17775" t="s">
+      <c r="A27" s="17877" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17825" t="n">
-        <v>1.39</v>
+      <c r="B27" s="17927" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17776" t="s">
+      <c r="A28" s="17878" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17826" t="n">
+      <c r="B28" s="17928" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17777" t="s">
+      <c r="A29" s="17879" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17827" t="n">
-        <v>0.52</v>
+      <c r="B29" s="17929" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17778" t="s">
+      <c r="A30" s="17880" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17828" t="n">
-        <v>2.96</v>
+      <c r="B30" s="17930" t="n">
+        <v>2.97</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17779" t="s">
+      <c r="A31" s="17881" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17829" t="n">
-        <v>11.16</v>
+      <c r="B31" s="17931" t="n">
+        <v>11.11</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17780" t="s">
+      <c r="A32" s="17882" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17830" t="n">
+      <c r="B32" s="17932" t="n">
         <v>1.38</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17781" t="s">
+      <c r="A33" s="17883" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17831" t="n">
-        <v>1.88</v>
+      <c r="B33" s="17933" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17782" t="s">
+      <c r="A34" s="17884" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17832" t="n">
-        <v>1.3</v>
+      <c r="B34" s="17934" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17783" t="s">
+      <c r="A35" s="17885" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17833" t="n">
+      <c r="B35" s="17935" t="n">
         <v>1.16</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17784" t="s">
+      <c r="A36" s="17886" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17834" t="n">
+      <c r="B36" s="17936" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17785" t="s">
+      <c r="A37" s="17887" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17835" t="n">
-        <v>0.94</v>
+      <c r="B37" s="17937" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17786" t="s">
+      <c r="A38" s="17888" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17836" t="n">
+      <c r="B38" s="17938" t="n">
         <v>0.98</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17787" t="s">
+      <c r="A39" s="17889" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17837" t="n">
+      <c r="B39" s="17939" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17788" t="s">
+      <c r="A40" s="17890" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17838" t="n">
-        <v>6.81</v>
+      <c r="B40" s="17940" t="n">
+        <v>6.77</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17789" t="s">
+      <c r="A41" s="17891" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17839" t="n">
+      <c r="B41" s="17941" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17790" t="s">
+      <c r="A42" s="17892" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17840" t="n">
+      <c r="B42" s="17942" t="n">
         <v>0.44</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17791" t="s">
+      <c r="A43" s="17893" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17841" t="n">
+      <c r="B43" s="17943" t="n">
         <v>0.91</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17792" t="s">
+      <c r="A44" s="17894" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17842" t="n">
-        <v>1.49</v>
+      <c r="B44" s="17944" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17793" t="s">
+      <c r="A45" s="17895" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17843" t="n">
-        <v>3.93</v>
+      <c r="B45" s="17945" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17794" t="s">
+      <c r="A46" s="17896" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17844" t="n">
+      <c r="B46" s="17946" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17795" t="s">
+      <c r="A47" s="17897" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17845" t="n">
-        <v>2.19</v>
+      <c r="B47" s="17947" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17796" t="s">
+      <c r="A48" s="17898" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="17846" t="n">
-        <v>4.31</v>
+      <c r="B48" s="17948" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17797" t="s">
+      <c r="A49" s="17899" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17847" t="n">
-        <v>1.97</v>
+      <c r="B49" s="17949" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17798" t="s">
+      <c r="A50" s="17900" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17848" t="n">
+      <c r="B50" s="17950" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17799" t="s">
+      <c r="A51" s="17901" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17849" t="n">
-        <v>1.15</v>
+      <c r="B51" s="17951" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17952">
+  <cellXfs count="18054">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -54477,411 +54783,411 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17850" t="s">
+      <c r="A1" s="17952" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17851" t="s">
+      <c r="B1" s="17953" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17852" t="s">
+      <c r="A2" s="17954" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17902" t="n">
-        <v>2.93</v>
+      <c r="B2" s="18004" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17853" t="s">
+      <c r="A3" s="17955" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17903" t="n">
-        <v>1.92</v>
+      <c r="B3" s="18005" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17854" t="s">
+      <c r="A4" s="17956" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="17904" t="n">
-        <v>2.76</v>
+      <c r="B4" s="18006" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17855" t="s">
+      <c r="A5" s="17957" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17905" t="n">
-        <v>2.19</v>
+      <c r="B5" s="18007" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17856" t="s">
+      <c r="A6" s="17958" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17906" t="n">
-        <v>1.31</v>
+      <c r="B6" s="18008" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17857" t="s">
+      <c r="A7" s="17959" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17907" t="n">
-        <v>5.39</v>
+      <c r="B7" s="18009" t="n">
+        <v>5.46</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17858" t="s">
+      <c r="A8" s="17960" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="17908" t="n">
-        <v>1.91</v>
+      <c r="B8" s="18010" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17859" t="s">
+      <c r="A9" s="17961" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="17909" t="n">
-        <v>1.07</v>
+      <c r="B9" s="18011" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17860" t="s">
+      <c r="A10" s="17962" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="17910" t="n">
-        <v>1.5</v>
+      <c r="B10" s="18012" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17861" t="s">
+      <c r="A11" s="17963" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17911" t="n">
-        <v>2.84</v>
+      <c r="B11" s="18013" t="n">
+        <v>2.91</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17862" t="s">
+      <c r="A12" s="17964" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17912" t="n">
-        <v>1.0</v>
+      <c r="B12" s="18014" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17863" t="s">
+      <c r="A13" s="17965" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="17913" t="n">
-        <v>0.88</v>
+      <c r="B13" s="18015" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17864" t="s">
+      <c r="A14" s="17966" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="17914" t="n">
-        <v>0.33</v>
+      <c r="B14" s="18016" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17865" t="s">
+      <c r="A15" s="17967" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17915" t="n">
-        <v>0.87</v>
+      <c r="B15" s="18017" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17866" t="s">
+      <c r="A16" s="17968" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17916" t="n">
-        <v>4.92</v>
+      <c r="B16" s="18018" t="n">
+        <v>4.79</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17867" t="s">
+      <c r="A17" s="17969" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17917" t="n">
-        <v>0.96</v>
+      <c r="B17" s="18019" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17868" t="s">
+      <c r="A18" s="17970" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17918" t="n">
-        <v>1.24</v>
+      <c r="B18" s="18020" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17869" t="s">
+      <c r="A19" s="17971" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="17919" t="n">
-        <v>3.19</v>
+      <c r="B19" s="18021" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17870" t="s">
+      <c r="A20" s="17972" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17920" t="n">
-        <v>1.82</v>
+      <c r="B20" s="18022" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17871" t="s">
+      <c r="A21" s="17973" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17921" t="n">
-        <v>2.72</v>
+      <c r="B21" s="18023" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17872" t="s">
+      <c r="A22" s="17974" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="17922" t="n">
-        <v>0.75</v>
+      <c r="B22" s="18024" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17873" t="s">
+      <c r="A23" s="17975" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17923" t="n">
-        <v>0.6</v>
+      <c r="B23" s="18025" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17874" t="s">
+      <c r="A24" s="17976" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="17924" t="n">
-        <v>1.43</v>
+      <c r="B24" s="18026" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17875" t="s">
+      <c r="A25" s="17977" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17925" t="n">
-        <v>0.74</v>
+      <c r="B25" s="18027" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17876" t="s">
+      <c r="A26" s="17978" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="17926" t="n">
+      <c r="B26" s="18028" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17877" t="s">
+      <c r="A27" s="17979" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17927" t="n">
-        <v>1.38</v>
+      <c r="B27" s="18029" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17878" t="s">
+      <c r="A28" s="17980" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17928" t="n">
-        <v>1.72</v>
+      <c r="B28" s="18030" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17879" t="s">
+      <c r="A29" s="17981" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17929" t="n">
-        <v>0.51</v>
+      <c r="B29" s="18031" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17880" t="s">
+      <c r="A30" s="17982" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="17930" t="n">
-        <v>2.97</v>
+      <c r="B30" s="18032" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17881" t="s">
+      <c r="A31" s="17983" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="17931" t="n">
-        <v>11.11</v>
+      <c r="B31" s="18033" t="n">
+        <v>11.29</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17882" t="s">
+      <c r="A32" s="17984" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17932" t="n">
-        <v>1.38</v>
+      <c r="B32" s="18034" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17883" t="s">
+      <c r="A33" s="17985" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17933" t="n">
-        <v>1.87</v>
+      <c r="B33" s="18035" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17884" t="s">
+      <c r="A34" s="17986" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17934" t="n">
+      <c r="B34" s="18036" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17885" t="s">
+      <c r="A35" s="17987" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17935" t="n">
-        <v>1.16</v>
+      <c r="B35" s="18037" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17886" t="s">
+      <c r="A36" s="17988" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="17936" t="n">
-        <v>1.35</v>
+      <c r="B36" s="18038" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17887" t="s">
+      <c r="A37" s="17989" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="17937" t="n">
-        <v>0.92</v>
+      <c r="B37" s="18039" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17888" t="s">
+      <c r="A38" s="17990" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="17938" t="n">
-        <v>0.98</v>
+      <c r="B38" s="18040" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17889" t="s">
+      <c r="A39" s="17991" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17939" t="n">
-        <v>1.57</v>
+      <c r="B39" s="18041" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17890" t="s">
+      <c r="A40" s="17992" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="17940" t="n">
-        <v>6.77</v>
+      <c r="B40" s="18042" t="n">
+        <v>7.11</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17891" t="s">
+      <c r="A41" s="17993" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="17941" t="n">
-        <v>0.31</v>
+      <c r="B41" s="18043" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17892" t="s">
+      <c r="A42" s="17994" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="17942" t="n">
-        <v>0.44</v>
+      <c r="B42" s="18044" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17893" t="s">
+      <c r="A43" s="17995" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17943" t="n">
-        <v>0.91</v>
+      <c r="B43" s="18045" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17894" t="s">
+      <c r="A44" s="17996" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="17944" t="n">
-        <v>1.5</v>
+      <c r="B44" s="18046" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17895" t="s">
+      <c r="A45" s="17997" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="17945" t="n">
-        <v>3.92</v>
+      <c r="B45" s="18047" t="n">
+        <v>3.87</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17896" t="s">
+      <c r="A46" s="17998" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17946" t="n">
-        <v>1.99</v>
+      <c r="B46" s="18048" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17897" t="s">
+      <c r="A47" s="17999" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="17947" t="n">
-        <v>2.17</v>
+      <c r="B47" s="18049" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="17898" t="s">
+      <c r="A48" s="18000" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="17948" t="n">
-        <v>4.29</v>
+      <c r="B48" s="18050" t="n">
+        <v>4.24</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="17899" t="s">
+      <c r="A49" s="18001" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="17949" t="n">
-        <v>1.96</v>
+      <c r="B49" s="18051" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="17900" t="s">
+      <c r="A50" s="18002" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="17950" t="n">
-        <v>0.69</v>
+      <c r="B50" s="18052" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="17901" t="s">
+      <c r="A51" s="18003" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="17951" t="n">
-        <v>1.16</v>
+      <c r="B51" s="18053" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9163" uniqueCount="74">
   <si>
     <t>stock</t>
   </si>
@@ -309,7 +309,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18054">
+  <cellXfs count="18156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -20454,6 +20454,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -54783,410 +55089,410 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="17952" t="s">
+      <c r="A1" s="18054" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17953" t="s">
+      <c r="B1" s="18055" t="s">
         <v>1</v>
       </c>
     </row>
     <row ht="54" r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17954" t="s">
+      <c r="A2" s="18056" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18004" t="n">
+      <c r="B2" s="18106" t="n">
         <v>3.03</v>
       </c>
     </row>
     <row ht="40.5" r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="17955" t="s">
+      <c r="A3" s="18057" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18005" t="n">
+      <c r="B3" s="18107" t="n">
         <v>2.06</v>
       </c>
     </row>
     <row ht="27" r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="17956" t="s">
+      <c r="A4" s="18058" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="18006" t="n">
+      <c r="B4" s="18108" t="n">
         <v>2.92</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="17957" t="s">
+      <c r="A5" s="18059" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18007" t="n">
+      <c r="B5" s="18109" t="n">
         <v>2.18</v>
       </c>
     </row>
     <row ht="40.5" r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="17958" t="s">
+      <c r="A6" s="18060" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18008" t="n">
+      <c r="B6" s="18110" t="n">
         <v>1.27</v>
       </c>
     </row>
     <row ht="67.5" r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="17959" t="s">
+      <c r="A7" s="18061" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18009" t="n">
+      <c r="B7" s="18111" t="n">
         <v>5.46</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="17960" t="s">
+      <c r="A8" s="18062" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18010" t="n">
+      <c r="B8" s="18112" t="n">
         <v>1.95</v>
       </c>
     </row>
     <row ht="54" r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="17961" t="s">
+      <c r="A9" s="18063" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="18011" t="n">
+      <c r="B9" s="18113" t="n">
         <v>1.04</v>
       </c>
     </row>
     <row ht="27" r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="17962" t="s">
+      <c r="A10" s="18064" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="18012" t="n">
+      <c r="B10" s="18114" t="n">
         <v>1.45</v>
       </c>
     </row>
     <row ht="40.5" r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="17963" t="s">
+      <c r="A11" s="18065" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="18013" t="n">
+      <c r="B11" s="18115" t="n">
         <v>2.91</v>
       </c>
     </row>
     <row ht="81" r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="17964" t="s">
+      <c r="A12" s="18066" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18014" t="n">
+      <c r="B12" s="18116" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row ht="27" r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="17965" t="s">
+      <c r="A13" s="18067" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18015" t="n">
+      <c r="B13" s="18117" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="17966" t="s">
+      <c r="A14" s="18068" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="18016" t="n">
+      <c r="B14" s="18118" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row ht="40.5" r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="17967" t="s">
+      <c r="A15" s="18069" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18017" t="n">
+      <c r="B15" s="18119" t="n">
         <v>0.84</v>
       </c>
     </row>
     <row ht="67.5" r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="17968" t="s">
+      <c r="A16" s="18070" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="18018" t="n">
+      <c r="B16" s="18120" t="n">
         <v>4.79</v>
       </c>
     </row>
     <row ht="40.5" r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="17969" t="s">
+      <c r="A17" s="18071" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="18019" t="n">
+      <c r="B17" s="18121" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row ht="40.5" r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="17970" t="s">
+      <c r="A18" s="18072" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="18020" t="n">
+      <c r="B18" s="18122" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row ht="27" r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="17971" t="s">
+      <c r="A19" s="18073" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18021" t="n">
+      <c r="B19" s="18123" t="n">
         <v>3.25</v>
       </c>
     </row>
     <row ht="67.5" r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="17972" t="s">
+      <c r="A20" s="18074" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="18022" t="n">
+      <c r="B20" s="18124" t="n">
         <v>1.77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="17973" t="s">
+      <c r="A21" s="18075" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="18023" t="n">
+      <c r="B21" s="18125" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row ht="27" r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="17974" t="s">
+      <c r="A22" s="18076" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="18024" t="n">
+      <c r="B22" s="18126" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row ht="54" r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="17975" t="s">
+      <c r="A23" s="18077" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="18025" t="n">
+      <c r="B23" s="18127" t="n">
         <v>0.58</v>
       </c>
     </row>
     <row ht="27" r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="17976" t="s">
+      <c r="A24" s="18078" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="18026" t="n">
+      <c r="B24" s="18128" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row ht="67.5" r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="17977" t="s">
+      <c r="A25" s="18079" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="18027" t="n">
+      <c r="B25" s="18129" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row ht="40.5" r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="17978" t="s">
+      <c r="A26" s="18080" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="18028" t="n">
+      <c r="B26" s="18130" t="n">
         <v>0.39</v>
       </c>
     </row>
     <row ht="81" r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="17979" t="s">
+      <c r="A27" s="18081" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="18029" t="n">
+      <c r="B27" s="18131" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row ht="54" r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17980" t="s">
+      <c r="A28" s="18082" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="18030" t="n">
+      <c r="B28" s="18132" t="n">
         <v>1.76</v>
       </c>
     </row>
     <row ht="40.5" r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="17981" t="s">
+      <c r="A29" s="18083" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="18031" t="n">
+      <c r="B29" s="18133" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row ht="54" r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="17982" t="s">
+      <c r="A30" s="18084" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="18032" t="n">
+      <c r="B30" s="18134" t="n">
         <v>2.93</v>
       </c>
     </row>
     <row ht="40.5" r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="17983" t="s">
+      <c r="A31" s="18085" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="18033" t="n">
+      <c r="B31" s="18135" t="n">
         <v>11.29</v>
       </c>
     </row>
     <row ht="40.5" r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="17984" t="s">
+      <c r="A32" s="18086" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="18034" t="n">
+      <c r="B32" s="18136" t="n">
         <v>1.41</v>
       </c>
     </row>
     <row ht="27" r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="17985" t="s">
+      <c r="A33" s="18087" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="18035" t="n">
+      <c r="B33" s="18137" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row ht="67.5" r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="17986" t="s">
+      <c r="A34" s="18088" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="18036" t="n">
+      <c r="B34" s="18138" t="n">
         <v>1.29</v>
       </c>
     </row>
     <row ht="54" r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="17987" t="s">
+      <c r="A35" s="18089" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="18037" t="n">
+      <c r="B35" s="18139" t="n">
         <v>1.09</v>
       </c>
     </row>
     <row ht="54" r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="17988" t="s">
+      <c r="A36" s="18090" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="18038" t="n">
+      <c r="B36" s="18140" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row ht="40.5" r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="17989" t="s">
+      <c r="A37" s="18091" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="18039" t="n">
+      <c r="B37" s="18141" t="n">
         <v>0.94</v>
       </c>
     </row>
     <row ht="54" r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="17990" t="s">
+      <c r="A38" s="18092" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="18040" t="n">
+      <c r="B38" s="18142" t="n">
         <v>0.97</v>
       </c>
     </row>
     <row ht="40.5" r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="17991" t="s">
+      <c r="A39" s="18093" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="18041" t="n">
+      <c r="B39" s="18143" t="n">
         <v>1.58</v>
       </c>
     </row>
     <row ht="54" r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="17992" t="s">
+      <c r="A40" s="18094" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="18042" t="n">
+      <c r="B40" s="18144" t="n">
         <v>7.11</v>
       </c>
     </row>
     <row ht="54" r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="17993" t="s">
+      <c r="A41" s="18095" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="18043" t="n">
+      <c r="B41" s="18145" t="n">
         <v>0.29</v>
       </c>
     </row>
     <row ht="54" r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="17994" t="s">
+      <c r="A42" s="18096" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="18044" t="n">
+      <c r="B42" s="18146" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row ht="40.5" r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="17995" t="s">
+      <c r="A43" s="18097" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="18045" t="n">
+      <c r="B43" s="18147" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row ht="40.5" r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="17996" t="s">
+      <c r="A44" s="18098" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="18046" t="n">
+      <c r="B44" s="18148" t="n">
         <v>1.49</v>
       </c>
     </row>
     <row ht="54" r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="17997" t="s">
+      <c r="A45" s="18099" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="18047" t="n">
+      <c r="B45" s="18149" t="n">
         <v>3.87</v>
       </c>
     </row>
     <row ht="81" r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="17998" t="s">
+      <c r="A46" s="18100" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="18048" t="n">
+      <c r="B46" s="18150" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row ht="27" r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="17999" t="s">
+      <c r="A47" s="18101" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="18049" t="n">
+      <c r="B47" s="18151" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row ht="54" r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="18000" t="s">
+      <c r="A48" s="18102" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="18050" t="n">
+      <c r="B48" s="18152" t="n">
         <v>4.24</v>
       </c>
     </row>
     <row ht="40.5" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="18001" t="s">
+      <c r="A49" s="18103" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="18051" t="n">
+      <c r="B49" s="18153" t="n">
         <v>1.89</v>
       </c>
     </row>
     <row ht="54" r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="18002" t="s">
+      <c r="A50" s="18104" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="18052" t="n">
+      <c r="B50" s="18154" t="n">
         <v>0.66</v>
       </c>
     </row>
     <row ht="67.5" r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="18003" t="s">
+      <c r="A51" s="18105" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="18053" t="n">
+      <c r="B51" s="18155" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="120">
   <si>
     <t>stock</t>
   </si>
@@ -448,7 +448,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="721">
+  <cellXfs count="1027">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1075,6 +1075,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -2929,415 +3847,415 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="21.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="619" t="s">
+      <c r="A1" s="925" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="620" t="s">
+      <c r="B1" s="926" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="205"/>
       <c r="D1" s="206"/>
     </row>
     <row customHeight="1" ht="21.5" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="621" t="s">
+      <c r="A2" s="927" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="671" t="n">
-        <v>0.22</v>
+      <c r="B2" s="977" t="n">
+        <v>0.2</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
     </row>
     <row customHeight="1" ht="21.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="622" t="s">
+      <c r="A3" s="928" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="672" t="n">
-        <v>1.79</v>
+      <c r="B3" s="978" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="623" t="s">
+      <c r="A4" s="929" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="673" t="n">
-        <v>2.55</v>
+      <c r="B4" s="979" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="624" t="s">
+      <c r="A5" s="930" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="674" t="n">
-        <v>2.98</v>
+      <c r="B5" s="980" t="n">
+        <v>3.05</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="625" t="s">
+      <c r="A6" s="931" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="675" t="n">
-        <v>1.37</v>
+      <c r="B6" s="981" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="626" t="s">
+      <c r="A7" s="932" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="676" t="n">
-        <v>2.15</v>
+      <c r="B7" s="982" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="627" t="s">
+      <c r="A8" s="933" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="677" t="n">
-        <v>1.28</v>
+      <c r="B8" s="983" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="628" t="s">
+      <c r="A9" s="934" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="678" t="n">
-        <v>0.79</v>
+      <c r="B9" s="984" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="629" t="s">
+      <c r="A10" s="935" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="679" t="n">
+      <c r="B10" s="985" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="936" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="986" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="937" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="987" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="938" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="988" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="939" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="989" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="940" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="990" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="941" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="991" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="942" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="992" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="943" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="993" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="944" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="994" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="945" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="995" t="n">
         <v>1.14</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="630" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="680" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="631" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="681" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="632" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="682" t="n">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="633" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="683" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="634" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="684" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="635" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="685" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="636" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="686" t="n">
+    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="946" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="996" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="947" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="997" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="948" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="998" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="949" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="999" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="950" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1000" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="951" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1001" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="952" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1002" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="953" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1003" t="n">
+        <v>12.54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="954" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1004" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="955" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1005" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="956" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1006" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="957" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1007" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="958" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1008" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="959" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1009" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="960" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1010" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="961" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1011" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="962" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1012" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="963" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1013" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="964" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1014" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="965" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1015" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="966" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1016" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="967" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1017" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="968" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1018" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="969" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="1019" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="970" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1020" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="971" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1021" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="972" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1022" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="973" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1023" t="n">
         <v>2.35</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="637" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="687" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="638" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="688" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="639" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="689" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="640" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="690" t="n">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="641" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="691" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="642" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="692" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="643" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="693" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="644" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="694" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="645" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="695" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="646" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="696" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="647" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="697" t="n">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="648" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="698" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="649" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="699" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="650" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="700" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="651" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="701" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="652" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="702" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="653" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="703" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="654" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="704" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="655" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="705" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="656" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="706" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="657" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="707" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="658" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="708" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="659" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="709" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="660" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="710" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="661" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="711" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="662" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="712" t="n">
-        <v>7.24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="663" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="713" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="664" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="714" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="665" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="715" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="666" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="716" t="n">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="667" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="717" t="n">
-        <v>2.39</v>
-      </c>
-    </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="668" t="s">
+      <c r="A49" s="974" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="718" t="n">
-        <v>2.48</v>
+      <c r="B49" s="1024" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="669" t="s">
+      <c r="A50" s="975" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="719" t="n">
-        <v>3.49</v>
+      <c r="B50" s="1025" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="670" t="s">
+      <c r="A51" s="976" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="720" t="n">
-        <v>4.4</v>
+      <c r="B51" s="1026" t="n">
+        <v>4.46</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="120">
   <si>
     <t>stock</t>
   </si>
@@ -448,7 +448,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1027">
+  <cellXfs count="1231">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1075,6 +1075,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -3847,415 +4459,415 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="21.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="925" t="s">
+      <c r="A1" s="1129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="926" t="s">
+      <c r="B1" s="1130" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="205"/>
       <c r="D1" s="206"/>
     </row>
     <row customHeight="1" ht="21.5" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="927" t="s">
+      <c r="A2" s="1131" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="977" t="n">
+      <c r="B2" s="1181" t="n">
         <v>0.2</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
     </row>
     <row customHeight="1" ht="21.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="928" t="s">
+      <c r="A3" s="1132" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="978" t="n">
-        <v>1.8</v>
+      <c r="B3" s="1182" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="929" t="s">
+      <c r="A4" s="1133" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="979" t="n">
-        <v>2.54</v>
+      <c r="B4" s="1183" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="930" t="s">
+      <c r="A5" s="1134" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="980" t="n">
-        <v>3.05</v>
+      <c r="B5" s="1184" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="931" t="s">
+      <c r="A6" s="1135" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="981" t="n">
-        <v>1.33</v>
+      <c r="B6" s="1185" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="932" t="s">
+      <c r="A7" s="1136" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="982" t="n">
-        <v>2.08</v>
+      <c r="B7" s="1186" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="933" t="s">
+      <c r="A8" s="1137" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="983" t="n">
-        <v>1.26</v>
+      <c r="B8" s="1187" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="934" t="s">
+      <c r="A9" s="1138" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="984" t="n">
-        <v>0.84</v>
+      <c r="B9" s="1188" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="935" t="s">
+      <c r="A10" s="1139" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="985" t="n">
+      <c r="B10" s="1189" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1190" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1191" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1192" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1193" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1194" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1195" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1196" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1147" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1197" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1198" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1199" t="n">
         <v>1.12</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="936" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="986" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="937" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="987" t="n">
+    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1150" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1200" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1201" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1152" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1202" t="n">
         <v>0.83</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="938" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="988" t="n">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="939" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="989" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="940" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="990" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="941" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="991" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="942" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="992" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="943" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="993" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="944" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="994" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="945" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="995" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="946" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="996" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="947" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="997" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="948" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="998" t="n">
-        <v>0.81</v>
-      </c>
-    </row>
     <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="949" t="s">
+      <c r="A24" s="1153" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="999" t="n">
-        <v>1.33</v>
+      <c r="B24" s="1203" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="950" t="s">
+      <c r="A25" s="1154" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1000" t="n">
-        <v>1.58</v>
+      <c r="B25" s="1204" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="951" t="s">
+      <c r="A26" s="1155" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1001" t="n">
+      <c r="B26" s="1205" t="n">
         <v>1.31</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="952" t="s">
+      <c r="A27" s="1156" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1002" t="n">
-        <v>2.61</v>
+      <c r="B27" s="1206" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="953" t="s">
+      <c r="A28" s="1157" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1003" t="n">
-        <v>12.54</v>
+      <c r="B28" s="1207" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="954" t="s">
+      <c r="A29" s="1158" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1004" t="n">
+      <c r="B29" s="1208" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="955" t="s">
+      <c r="A30" s="1159" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1005" t="n">
+      <c r="B30" s="1209" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1210" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1211" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1162" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1212" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1213" t="n">
         <v>1.31</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="956" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1006" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="957" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1007" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="958" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1008" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="959" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1009" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
     <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="960" t="s">
+      <c r="A35" s="1164" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1010" t="n">
-        <v>0.42</v>
+      <c r="B35" s="1214" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="961" t="s">
+      <c r="A36" s="1165" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1011" t="n">
+      <c r="B36" s="1215" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="962" t="s">
+      <c r="A37" s="1166" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="1012" t="n">
-        <v>1.12</v>
+      <c r="B37" s="1216" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="963" t="s">
+      <c r="A38" s="1167" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="1013" t="n">
+      <c r="B38" s="1217" t="n">
         <v>0.32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="964" t="s">
+      <c r="A39" s="1168" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1014" t="n">
-        <v>1.71</v>
+      <c r="B39" s="1218" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="965" t="s">
+      <c r="A40" s="1169" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1015" t="n">
+      <c r="B40" s="1219" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="966" t="s">
+      <c r="A41" s="1170" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="1016" t="n">
-        <v>3.39</v>
+      <c r="B41" s="1220" t="n">
+        <v>3.43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="967" t="s">
+      <c r="A42" s="1171" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="1017" t="n">
+      <c r="B42" s="1221" t="n">
         <v>0.33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="968" t="s">
+      <c r="A43" s="1172" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1018" t="n">
-        <v>7.28</v>
+      <c r="B43" s="1222" t="n">
+        <v>7.32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="969" t="s">
+      <c r="A44" s="1173" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1019" t="n">
-        <v>1.0</v>
+      <c r="B44" s="1223" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="970" t="s">
+      <c r="A45" s="1174" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="1020" t="n">
-        <v>3.07</v>
+      <c r="B45" s="1224" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="971" t="s">
+      <c r="A46" s="1175" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1021" t="n">
+      <c r="B46" s="1225" t="n">
         <v>0.76</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="972" t="s">
+      <c r="A47" s="1176" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="1022" t="n">
-        <v>1.52</v>
+      <c r="B47" s="1226" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="973" t="s">
+      <c r="A48" s="1177" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="1023" t="n">
-        <v>2.35</v>
+      <c r="B48" s="1227" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="974" t="s">
+      <c r="A49" s="1178" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1024" t="n">
+      <c r="B49" s="1228" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="975" t="s">
+      <c r="A50" s="1179" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="1025" t="n">
-        <v>3.55</v>
+      <c r="B50" s="1229" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="976" t="s">
+      <c r="A51" s="1180" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="1026" t="n">
-        <v>4.46</v>
+      <c r="B51" s="1230" t="n">
+        <v>4.55</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="121">
   <si>
     <t>stock</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>sz000858</t>
+  </si>
+  <si>
+    <t>POLY DEVELOPMENTS AND HOLDINGS</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1231">
+  <cellXfs count="2455">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1075,6 +1078,3678 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -4459,415 +8134,415 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="21.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1129" t="s">
+      <c r="A1" s="2353" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1130" t="s">
+      <c r="B1" s="2354" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="205"/>
       <c r="D1" s="206"/>
     </row>
     <row customHeight="1" ht="21.5" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1131" t="s">
+      <c r="A2" s="2355" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1181" t="n">
-        <v>0.2</v>
+      <c r="B2" s="2405" t="n">
+        <v>0.18</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
     </row>
     <row customHeight="1" ht="21.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1132" t="s">
+      <c r="A3" s="2356" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1182" t="n">
-        <v>1.78</v>
+      <c r="B3" s="2406" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1133" t="s">
+      <c r="A4" s="2357" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1183" t="n">
-        <v>2.62</v>
+      <c r="B4" s="2407" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1134" t="s">
+      <c r="A5" s="2358" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1184" t="n">
-        <v>3.03</v>
+      <c r="B5" s="2408" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1135" t="s">
+      <c r="A6" s="2359" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1185" t="n">
-        <v>1.34</v>
+      <c r="B6" s="2409" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1136" t="s">
+      <c r="A7" s="2360" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="1186" t="n">
-        <v>2.07</v>
+      <c r="B7" s="2410" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1137" t="s">
+      <c r="A8" s="2361" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1187" t="n">
+      <c r="B8" s="2411" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2362" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2412" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2413" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2414" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2415" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2416" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2367" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2417" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2418" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2369" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2419" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2420" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2371" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2421" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2372" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2422" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2373" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2423" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2374" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2424" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2375" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2425" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2376" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2426" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2377" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2427" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2378" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2428" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2379" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2429" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2380" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2430" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2381" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2431" t="n">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2382" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2432" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2383" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2433" t="n">
         <v>1.28</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1138" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1188" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1139" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1189" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1190" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1141" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1191" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1192" t="n">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1193" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1194" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1145" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1195" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1196" t="n">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1147" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1197" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1148" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1198" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1149" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1199" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1150" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1200" t="n">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1151" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1201" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1152" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="1202" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1203" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1154" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1204" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1155" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1205" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1206" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1157" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1207" t="n">
-        <v>12.52</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1158" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1208" t="n">
+    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2384" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2434" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2385" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2435" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2386" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="2436" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2387" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2437" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2388" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2438" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2389" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2439" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2440" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2391" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2441" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2392" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="2442" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2393" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2443" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2394" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2444" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2395" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2445" t="n">
         <v>0.34</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1159" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1209" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1160" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1210" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1161" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1211" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1162" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1212" t="n">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1213" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1164" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1214" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1165" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="1215" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="1216" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1167" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1217" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1168" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="1218" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1169" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1219" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1170" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="1220" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1171" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1221" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1172" t="s">
+      <c r="A43" s="2396" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1222" t="n">
-        <v>7.32</v>
+      <c r="B43" s="2446" t="n">
+        <v>7.31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1173" t="s">
+      <c r="A44" s="2397" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1223" t="n">
-        <v>1.01</v>
+      <c r="B44" s="2447" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1174" t="s">
+      <c r="A45" s="2398" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="1224" t="n">
-        <v>3.08</v>
+      <c r="B45" s="2448" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1175" t="s">
+      <c r="A46" s="2399" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="1225" t="n">
-        <v>0.76</v>
+      <c r="B46" s="2449" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1176" t="s">
+      <c r="A47" s="2400" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="1226" t="n">
-        <v>1.47</v>
+      <c r="B47" s="2450" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1177" t="s">
+      <c r="A48" s="2401" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="1227" t="n">
-        <v>2.25</v>
+      <c r="B48" s="2451" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1178" t="s">
+      <c r="A49" s="2402" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1228" t="n">
-        <v>2.52</v>
+      <c r="B49" s="2452" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1179" t="s">
+      <c r="A50" s="2403" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="1229" t="n">
-        <v>3.6</v>
+      <c r="B50" s="2453" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1180" t="s">
+      <c r="A51" s="2404" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="1230" t="n">
-        <v>4.55</v>
+      <c r="B51" s="2454" t="n">
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="121">
   <si>
     <t>stock</t>
   </si>
@@ -451,7 +451,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2455">
+  <cellXfs count="4495">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1078,6 +1078,6126 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -8134,415 +14254,415 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="21.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2353" t="s">
+      <c r="A1" s="4393" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2354" t="s">
+      <c r="B1" s="4394" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="205"/>
       <c r="D1" s="206"/>
     </row>
     <row customHeight="1" ht="21.5" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2355" t="s">
+      <c r="A2" s="4395" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2405" t="n">
-        <v>0.18</v>
+      <c r="B2" s="4445" t="n">
+        <v>0.19</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
     </row>
     <row customHeight="1" ht="21.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2356" t="s">
+      <c r="A3" s="4396" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2406" t="n">
-        <v>1.95</v>
+      <c r="B3" s="4446" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2357" t="s">
+      <c r="A4" s="4397" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2407" t="n">
-        <v>2.45</v>
+      <c r="B4" s="4447" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2358" t="s">
+      <c r="A5" s="4398" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2408" t="n">
-        <v>3.12</v>
+      <c r="B5" s="4448" t="n">
+        <v>2.97</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2359" t="s">
+      <c r="A6" s="4399" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2409" t="n">
-        <v>1.24</v>
+      <c r="B6" s="4449" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2360" t="s">
+      <c r="A7" s="4400" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2410" t="n">
-        <v>2.02</v>
+      <c r="B7" s="4450" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2361" t="s">
+      <c r="A8" s="4401" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2411" t="n">
-        <v>1.13</v>
+      <c r="B8" s="4451" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2362" t="s">
+      <c r="A9" s="4402" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2412" t="n">
-        <v>0.78</v>
+      <c r="B9" s="4452" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2363" t="s">
+      <c r="A10" s="4403" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2413" t="n">
-        <v>0.94</v>
+      <c r="B10" s="4453" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2364" t="s">
+      <c r="A11" s="4404" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2414" t="n">
-        <v>1.61</v>
+      <c r="B11" s="4454" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2365" t="s">
+      <c r="A12" s="4405" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2415" t="n">
-        <v>0.83</v>
+      <c r="B12" s="4455" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2366" t="s">
+      <c r="A13" s="4406" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2416" t="n">
-        <v>5.74</v>
+      <c r="B13" s="4456" t="n">
+        <v>5.33</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2367" t="s">
+      <c r="A14" s="4407" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2417" t="n">
+      <c r="B14" s="4457" t="n">
         <v>1.64</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2368" t="s">
+      <c r="A15" s="4408" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2418" t="n">
-        <v>1.86</v>
+      <c r="B15" s="4458" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2369" t="s">
+      <c r="A16" s="4409" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2419" t="n">
-        <v>3.32</v>
+      <c r="B16" s="4459" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2370" t="s">
+      <c r="A17" s="4410" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2420" t="n">
-        <v>2.5</v>
+      <c r="B17" s="4460" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2371" t="s">
+      <c r="A18" s="4411" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2421" t="n">
-        <v>0.86</v>
+      <c r="B18" s="4461" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2372" t="s">
+      <c r="A19" s="4412" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2422" t="n">
-        <v>0.69</v>
+      <c r="B19" s="4462" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2373" t="s">
+      <c r="A20" s="4413" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2423" t="n">
-        <v>1.17</v>
+      <c r="B20" s="4463" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2374" t="s">
+      <c r="A21" s="4414" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2424" t="n">
-        <v>3.18</v>
+      <c r="B21" s="4464" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2375" t="s">
+      <c r="A22" s="4415" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2425" t="n">
-        <v>0.7</v>
+      <c r="B22" s="4465" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2376" t="s">
+      <c r="A23" s="4416" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2426" t="n">
-        <v>0.83</v>
+      <c r="B23" s="4466" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2377" t="s">
+      <c r="A24" s="4417" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2427" t="n">
-        <v>1.31</v>
+      <c r="B24" s="4467" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2378" t="s">
+      <c r="A25" s="4418" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="2428" t="n">
-        <v>1.71</v>
+      <c r="B25" s="4468" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2379" t="s">
+      <c r="A26" s="4419" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2429" t="n">
-        <v>1.2</v>
+      <c r="B26" s="4469" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2380" t="s">
+      <c r="A27" s="4420" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2430" t="n">
-        <v>2.83</v>
+      <c r="B27" s="4470" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2381" t="s">
+      <c r="A28" s="4421" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2431" t="n">
-        <v>12.87</v>
+      <c r="B28" s="4471" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2382" t="s">
+      <c r="A29" s="4422" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2432" t="n">
-        <v>0.34</v>
+      <c r="B29" s="4472" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2383" t="s">
+      <c r="A30" s="4423" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2433" t="n">
-        <v>1.28</v>
+      <c r="B30" s="4473" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2384" t="s">
+      <c r="A31" s="4424" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2434" t="n">
-        <v>0.35</v>
+      <c r="B31" s="4474" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2385" t="s">
+      <c r="A32" s="4425" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="2435" t="n">
-        <v>1.0</v>
+      <c r="B32" s="4475" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2386" t="s">
+      <c r="A33" s="4426" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="2436" t="n">
-        <v>1.74</v>
+      <c r="B33" s="4476" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2387" t="s">
+      <c r="A34" s="4427" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="2437" t="n">
-        <v>1.37</v>
+      <c r="B34" s="4477" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2388" t="s">
+      <c r="A35" s="4428" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="2438" t="n">
-        <v>0.39</v>
+      <c r="B35" s="4478" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2389" t="s">
+      <c r="A36" s="4429" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2439" t="n">
-        <v>0.61</v>
+      <c r="B36" s="4479" t="n">
+        <v>0.56</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2390" t="s">
+      <c r="A37" s="4430" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="2440" t="n">
-        <v>1.18</v>
+      <c r="B37" s="4480" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2391" t="s">
+      <c r="A38" s="4431" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="2441" t="n">
-        <v>0.28</v>
+      <c r="B38" s="4481" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2392" t="s">
+      <c r="A39" s="4432" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="2442" t="n">
-        <v>1.56</v>
+      <c r="B39" s="4482" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2393" t="s">
+      <c r="A40" s="4433" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="2443" t="n">
-        <v>0.71</v>
+      <c r="B40" s="4483" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2394" t="s">
+      <c r="A41" s="4434" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="2444" t="n">
-        <v>3.49</v>
+      <c r="B41" s="4484" t="n">
+        <v>3.46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2395" t="s">
+      <c r="A42" s="4435" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="2445" t="n">
-        <v>0.34</v>
+      <c r="B42" s="4485" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2396" t="s">
+      <c r="A43" s="4436" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="2446" t="n">
-        <v>7.31</v>
+      <c r="B43" s="4486" t="n">
+        <v>7.19</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2397" t="s">
+      <c r="A44" s="4437" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="2447" t="n">
-        <v>1.06</v>
+      <c r="B44" s="4487" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2398" t="s">
+      <c r="A45" s="4438" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="2448" t="n">
-        <v>3.27</v>
+      <c r="B45" s="4488" t="n">
+        <v>3.29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2399" t="s">
+      <c r="A46" s="4439" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="2449" t="n">
-        <v>0.8</v>
+      <c r="B46" s="4489" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2400" t="s">
+      <c r="A47" s="4440" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="2450" t="n">
-        <v>1.39</v>
+      <c r="B47" s="4490" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2401" t="s">
+      <c r="A48" s="4441" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="2451" t="n">
-        <v>2.02</v>
+      <c r="B48" s="4491" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2402" t="s">
+      <c r="A49" s="4442" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="2452" t="n">
-        <v>2.56</v>
+      <c r="B49" s="4492" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2403" t="s">
+      <c r="A50" s="4443" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="2453" t="n">
-        <v>3.68</v>
+      <c r="B50" s="4493" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2404" t="s">
+      <c r="A51" s="4444" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="2454" t="n">
-        <v>4.64</v>
+      <c r="B51" s="4494" t="n">
+        <v>4.73</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="123">
   <si>
     <t>stock</t>
   </si>
@@ -457,7 +457,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7657">
+  <cellXfs count="7861">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1084,6 +1084,618 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
@@ -23746,415 +24358,415 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="21.5" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7555" t="s">
+      <c r="A1" s="7759" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7556" t="s">
+      <c r="B1" s="7760" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="205"/>
       <c r="D1" s="206"/>
     </row>
     <row customHeight="1" ht="21.5" r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7557" t="s">
+      <c r="A2" s="7761" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7607" t="n">
+      <c r="B2" s="7811" t="n">
         <v>0.17</v>
       </c>
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
     </row>
     <row customHeight="1" ht="21.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7558" t="s">
+      <c r="A3" s="7762" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="7608" t="n">
-        <v>1.15</v>
+      <c r="B3" s="7812" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7559" t="s">
+      <c r="A4" s="7763" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="7609" t="n">
-        <v>2.57</v>
+      <c r="B4" s="7813" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7560" t="s">
+      <c r="A5" s="7764" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7610" t="n">
-        <v>3.02</v>
+      <c r="B5" s="7814" t="n">
+        <v>2.97</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7561" t="s">
+      <c r="A6" s="7765" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="7611" t="n">
-        <v>0.82</v>
+      <c r="B6" s="7815" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7562" t="s">
+      <c r="A7" s="7766" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="7612" t="n">
-        <v>2.08</v>
+      <c r="B7" s="7816" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7563" t="s">
+      <c r="A8" s="7767" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="7613" t="n">
-        <v>1.18</v>
+      <c r="B8" s="7817" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7564" t="s">
+      <c r="A9" s="7768" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7614" t="n">
-        <v>0.74</v>
+      <c r="B9" s="7818" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7565" t="s">
+      <c r="A10" s="7769" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7615" t="n">
-        <v>0.9</v>
+      <c r="B10" s="7819" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7566" t="s">
+      <c r="A11" s="7770" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7616" t="n">
+      <c r="B11" s="7820" t="n">
         <v>1.59</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7567" t="s">
+      <c r="A12" s="7771" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7617" t="n">
-        <v>0.83</v>
+      <c r="B12" s="7821" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7568" t="s">
+      <c r="A13" s="7772" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7618" t="n">
-        <v>6.39</v>
+      <c r="B13" s="7822" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7569" t="s">
+      <c r="A14" s="7773" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7619" t="n">
-        <v>1.64</v>
+      <c r="B14" s="7823" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7570" t="s">
+      <c r="A15" s="7774" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7620" t="n">
-        <v>2.18</v>
+      <c r="B15" s="7824" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7571" t="s">
+      <c r="A16" s="7775" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7621" t="n">
-        <v>3.53</v>
+      <c r="B16" s="7825" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7572" t="s">
+      <c r="A17" s="7776" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="7622" t="n">
-        <v>2.61</v>
+      <c r="B17" s="7826" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7573" t="s">
+      <c r="A18" s="7777" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="7623" t="n">
+      <c r="B18" s="7827" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7574" t="s">
+      <c r="A19" s="7778" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7624" t="n">
+      <c r="B19" s="7828" t="n">
         <v>0.57</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7575" t="s">
+      <c r="A20" s="7779" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="7625" t="n">
+      <c r="B20" s="7829" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7576" t="s">
+      <c r="A21" s="7780" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="7626" t="n">
-        <v>3.76</v>
+      <c r="B21" s="7830" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7577" t="s">
+      <c r="A22" s="7781" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7627" t="n">
-        <v>0.63</v>
+      <c r="B22" s="7831" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7578" t="s">
+      <c r="A23" s="7782" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7628" t="n">
-        <v>0.78</v>
+      <c r="B23" s="7832" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7579" t="s">
+      <c r="A24" s="7783" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7629" t="n">
-        <v>1.37</v>
+      <c r="B24" s="7833" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7580" t="s">
+      <c r="A25" s="7784" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7630" t="n">
-        <v>1.69</v>
+      <c r="B25" s="7834" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7581" t="s">
+      <c r="A26" s="7785" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="7631" t="n">
-        <v>0.33</v>
+      <c r="B26" s="7835" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7582" t="s">
+      <c r="A27" s="7786" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="7632" t="n">
-        <v>2.98</v>
+      <c r="B27" s="7836" t="n">
+        <v>3.01</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7583" t="s">
+      <c r="A28" s="7787" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="7633" t="n">
-        <v>12.06</v>
+      <c r="B28" s="7837" t="n">
+        <v>12.12</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7584" t="s">
+      <c r="A29" s="7788" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="7634" t="n">
-        <v>0.32</v>
+      <c r="B29" s="7838" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7585" t="s">
+      <c r="A30" s="7789" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="7635" t="n">
+      <c r="B30" s="7839" t="n">
         <v>0.36</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7586" t="s">
+      <c r="A31" s="7790" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="7636" t="n">
+      <c r="B31" s="7840" t="n">
         <v>1.32</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7587" t="s">
+      <c r="A32" s="7791" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="7637" t="n">
-        <v>1.37</v>
+      <c r="B32" s="7841" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7588" t="s">
+      <c r="A33" s="7792" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="7638" t="n">
-        <v>1.86</v>
+      <c r="B33" s="7842" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7589" t="s">
+      <c r="A34" s="7793" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7639" t="n">
-        <v>1.19</v>
+      <c r="B34" s="7843" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7590" t="s">
+      <c r="A35" s="7794" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="7640" t="n">
+      <c r="B35" s="7844" t="n">
         <v>0.42</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7591" t="s">
+      <c r="A36" s="7795" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="7641" t="n">
+      <c r="B36" s="7845" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row customHeight="1" ht="21.5" r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7592" t="s">
+      <c r="A37" s="7796" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="7642" t="n">
+      <c r="B37" s="7846" t="n">
         <v>0.69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7593" t="s">
+      <c r="A38" s="7797" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="7643" t="n">
+      <c r="B38" s="7847" t="n">
         <v>0.28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7594" t="s">
+      <c r="A39" s="7798" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="7644" t="n">
-        <v>1.51</v>
+      <c r="B39" s="7848" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7595" t="s">
+      <c r="A40" s="7799" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="7645" t="n">
-        <v>7.15</v>
+      <c r="B40" s="7849" t="n">
+        <v>7.18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7596" t="s">
+      <c r="A41" s="7800" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="7646" t="n">
-        <v>3.7</v>
+      <c r="B41" s="7850" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7597" t="s">
+      <c r="A42" s="7801" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="7647" t="n">
+      <c r="B42" s="7851" t="n">
         <v>0.34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7598" t="s">
+      <c r="A43" s="7802" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="7648" t="n">
-        <v>0.83</v>
+      <c r="B43" s="7852" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7599" t="s">
+      <c r="A44" s="7803" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="7649" t="n">
-        <v>1.15</v>
+      <c r="B44" s="7853" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7600" t="s">
+      <c r="A45" s="7804" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="7650" t="n">
+      <c r="B45" s="7854" t="n">
         <v>3.23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7601" t="s">
+      <c r="A46" s="7805" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="7651" t="n">
-        <v>1.71</v>
+      <c r="B46" s="7855" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7602" t="s">
+      <c r="A47" s="7806" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="7652" t="n">
-        <v>2.16</v>
+      <c r="B47" s="7856" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7603" t="s">
+      <c r="A48" s="7807" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="7653" t="n">
-        <v>3.5</v>
+      <c r="B48" s="7857" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7604" t="s">
+      <c r="A49" s="7808" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="7654" t="n">
-        <v>2.56</v>
+      <c r="B49" s="7858" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7605" t="s">
+      <c r="A50" s="7809" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="7655" t="n">
-        <v>1.6</v>
+      <c r="B50" s="7859" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7606" t="s">
+      <c r="A51" s="7810" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="7656" t="n">
-        <v>4.77</v>
+      <c r="B51" s="7860" t="n">
+        <v>4.73</v>
       </c>
     </row>
   </sheetData>

--- a/new.xlsx
+++ b/new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="123">
   <si>
     <t>stock</t>
   </si>
@@ -457,7 +457,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7861">
+  <cellXfs count="8167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="176" xfId="5">
       <alignment wrapText="1"/>
@@ -1084,6 +1084,924 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="3">
+      <alignment wr